--- a/周报/杨蔡胤-2018141472011.xlsx
+++ b/周报/杨蔡胤-2018141472011.xlsx
@@ -8,24 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\desktop\软件项目管理\project\SotfwareManagement_CovidAid\周报\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5AEC50-78AB-412D-8418-23DF2E81EF86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8556C8AE-E6BF-46F7-B5C1-0440BC06F415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="15" windowWidth="19185" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="19185" windowHeight="11265" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="第八周工作周报" sheetId="7" r:id="rId1"/>
-    <sheet name="第y周工作周报" sheetId="9" r:id="rId2"/>
+    <sheet name="第九周工作周报" sheetId="9" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">第y周工作周报!$A$1:$O$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">第八周工作周报!$A$1:$O$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">第九周工作周报!$A$1:$O$35</definedName>
   </definedNames>
   <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="71">
   <si>
     <t>本周工作总结</t>
   </si>
@@ -93,44 +93,7 @@
     <t>下周工作计划</t>
   </si>
   <si>
-    <t>10.3O</t>
-  </si>
-  <si>
     <t>额外工作说明：</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">工作周报    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="幼圆"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">日期：          </t>
-    </r>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>本周工作总结</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="幼圆"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名：                                                                                       组长：</t>
-    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>进度（%）</t>
@@ -297,6 +260,112 @@
         <charset val="134"/>
       </rPr>
       <t>本周跨越性、里程碑性的工作较少，主要为对之前一些内容的总结与整理，以及需求的明确与方向的确定，为接下来的开发做铺垫。下一周的工作应涉及实际可见的工作，能够推动项目进行。</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>分割与分类模型的对比总结</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>医学图像模块的设计</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计说明书的撰写</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计说明书的整合</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>医学图像模块的基本逻辑实现</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>医学图像模块的初步设计</t>
+  </si>
+  <si>
+    <t>医学图像检测模块的初步实现</t>
+  </si>
+  <si>
+    <t>对医学图像检测模块进一步详细设计</t>
+  </si>
+  <si>
+    <t>医学图图像存储过程中数据库存在问题</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新调整数据库设计</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计过程中主要以代码和草图的形式，没有撰写正式文档</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>将内容总结记录防止丢失</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>医学图像显示不清晰</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择高分辨率的图像，减小图片显示大小</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细设计说明书的撰写</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>期中考试，需求说明书的整合与修改</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>本周工作总结</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本周进行了一些实际的工作，对项目内容进行了初步开发作为原型，方便之后的详细设计。在原型开发过程中也发现了许多问题，从而使得我能够在设计过程中对其进行调整。</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">工作周报    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">日期：2022.4.22          </t>
     </r>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -732,7 +801,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1024,6 +1093,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
@@ -1153,7 +1244,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1206,6 +1297,171 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="32" fillId="24" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="32" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="13" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="13" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="22" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="21" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="23" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="24" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="18" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="26" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1218,176 +1474,29 @@
     <xf numFmtId="0" fontId="33" fillId="26" borderId="22" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="23" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="24" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="22" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="21" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="13" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="13" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="18" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="32" fillId="24" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="32" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="25" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="19" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="26" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="22" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="26" borderId="25" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="26" borderId="19" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="26" borderId="26" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="26" borderId="22" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1816,8 +1925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:O35"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31:M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1845,69 +1954,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="41"/>
+      <c r="A1" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="55"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="44"/>
+      <c r="A2" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="58"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
     </row>
     <row r="3" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="45" t="s">
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="47"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="61"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
@@ -1916,770 +2025,770 @@
       <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="48" t="s">
+      <c r="H4" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="49"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="63"/>
       <c r="P4" s="7"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
+      <c r="B5" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
       <c r="G5" s="8">
         <v>1</v>
       </c>
-      <c r="H5" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="52"/>
+      <c r="H5" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="50"/>
       <c r="P5" s="7"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
+      <c r="B6" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
       <c r="G6" s="9">
         <v>2</v>
       </c>
-      <c r="H6" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="55"/>
+      <c r="H6" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="53"/>
       <c r="P6" s="7"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
+      <c r="B7" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
       <c r="G7" s="8">
         <v>3</v>
       </c>
-      <c r="H7" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="52"/>
+      <c r="H7" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="50"/>
       <c r="P7" s="7"/>
     </row>
     <row r="8" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="56" t="s">
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="58"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="46"/>
       <c r="P8" s="7"/>
     </row>
     <row r="9" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
       <c r="D9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="35"/>
+      <c r="E9" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="70"/>
       <c r="G9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="59" t="s">
+      <c r="H9" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59" t="s">
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59" t="s">
+      <c r="M9" s="44"/>
+      <c r="N9" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="60"/>
+      <c r="O9" s="47"/>
       <c r="P9" s="7"/>
     </row>
     <row r="10" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="70"/>
-      <c r="C10" s="68">
+      <c r="B10" s="29"/>
+      <c r="C10" s="34">
         <v>4.1100000000000003</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="73">
+        <v>1</v>
+      </c>
+      <c r="F10" s="74"/>
+      <c r="G10" s="35">
+        <v>1</v>
+      </c>
+      <c r="H10" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="76">
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="O10" s="31"/>
+      <c r="P10" s="7"/>
+    </row>
+    <row r="11" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="7"/>
+    </row>
+    <row r="12" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="29"/>
+      <c r="C12" s="34">
+        <v>4.12</v>
+      </c>
+      <c r="D12" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="73">
         <v>1</v>
       </c>
-      <c r="F10" s="37"/>
-      <c r="G10" s="61">
+      <c r="F12" s="74"/>
+      <c r="G12" s="35">
+        <v>2</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="O12" s="31"/>
+      <c r="P12" s="7"/>
+    </row>
+    <row r="13" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="7"/>
+    </row>
+    <row r="14" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="29"/>
+      <c r="C14" s="34">
+        <v>4.13</v>
+      </c>
+      <c r="D14" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="73">
+        <v>0.6</v>
+      </c>
+      <c r="F14" s="74"/>
+      <c r="G14" s="35">
+        <v>3</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="O14" s="31"/>
+      <c r="P14" s="7"/>
+    </row>
+    <row r="15" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="7"/>
+    </row>
+    <row r="16" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="29"/>
+      <c r="C16" s="34">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="D16" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="73">
         <v>1</v>
       </c>
-      <c r="H10" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="O10" s="69"/>
-      <c r="P10" s="7"/>
-    </row>
-    <row r="11" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="70"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="69"/>
-      <c r="P11" s="7"/>
-    </row>
-    <row r="12" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="70" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="70"/>
-      <c r="C12" s="68">
-        <v>4.12</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="76">
-        <v>1</v>
-      </c>
-      <c r="F12" s="37"/>
-      <c r="G12" s="61">
-        <v>2</v>
-      </c>
-      <c r="H12" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="O12" s="69"/>
-      <c r="P12" s="7"/>
-    </row>
-    <row r="13" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="70"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="69"/>
-      <c r="P13" s="7"/>
-    </row>
-    <row r="14" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="70" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="70"/>
-      <c r="C14" s="68">
-        <v>4.13</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="76">
-        <v>0.6</v>
-      </c>
-      <c r="F14" s="37"/>
-      <c r="G14" s="61">
-        <v>3</v>
-      </c>
-      <c r="H14" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="O14" s="69"/>
-      <c r="P14" s="7"/>
-    </row>
-    <row r="15" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="70"/>
-      <c r="B15" s="70"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="69"/>
-      <c r="P15" s="7"/>
-    </row>
-    <row r="16" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="70" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="70"/>
-      <c r="C16" s="68">
-        <v>4.1399999999999997</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="76">
-        <v>1</v>
-      </c>
-      <c r="F16" s="37"/>
-      <c r="G16" s="61">
+      <c r="F16" s="74"/>
+      <c r="G16" s="35">
         <v>4</v>
       </c>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="69"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="31"/>
       <c r="P16" s="7"/>
     </row>
     <row r="17" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="70"/>
-      <c r="B17" s="70"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="69"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="31"/>
       <c r="P17" s="7"/>
     </row>
     <row r="18" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="70" t="s">
+      <c r="A18" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="70"/>
-      <c r="C18" s="68">
+      <c r="B18" s="29"/>
+      <c r="C18" s="34">
         <v>4.1500000000000004</v>
       </c>
-      <c r="D18" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="76">
+      <c r="D18" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="73">
         <v>0.3</v>
       </c>
-      <c r="F18" s="37"/>
-      <c r="G18" s="61">
+      <c r="F18" s="74"/>
+      <c r="G18" s="35">
         <v>5</v>
       </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="29"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="64"/>
       <c r="P18" s="7"/>
     </row>
     <row r="19" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="70"/>
-      <c r="B19" s="70"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="31"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="66"/>
+      <c r="N19" s="65"/>
+      <c r="O19" s="66"/>
       <c r="P19" s="7"/>
     </row>
     <row r="20" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="70" t="s">
+      <c r="A20" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="70"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="61">
+      <c r="B20" s="29"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="35">
         <v>6</v>
       </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="29"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="64"/>
       <c r="P20" s="7"/>
     </row>
     <row r="21" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="70"/>
-      <c r="B21" s="70"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="31"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="66"/>
+      <c r="N21" s="65"/>
+      <c r="O21" s="66"/>
       <c r="P21" s="7"/>
     </row>
     <row r="22" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="70" t="s">
+      <c r="A22" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="70"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="61">
+      <c r="B22" s="29"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="35">
         <v>7</v>
       </c>
-      <c r="H22" s="28"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="29"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="64"/>
       <c r="P22" s="7"/>
     </row>
     <row r="23" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="70"/>
-      <c r="B23" s="70"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="31"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
+      <c r="N23" s="65"/>
+      <c r="O23" s="66"/>
       <c r="P23" s="7"/>
     </row>
     <row r="24" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="56" t="s">
+      <c r="A24" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="56"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="43"/>
       <c r="O24" s="11"/>
       <c r="P24" s="7"/>
     </row>
     <row r="25" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="59" t="s">
+      <c r="A25" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59" t="s">
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="59"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
       <c r="N25" s="21" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O25" s="12"/>
       <c r="P25" s="7"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="62" t="s">
+      <c r="A26" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="62"/>
+      <c r="B26" s="36"/>
       <c r="C26" s="13">
         <v>4.18</v>
       </c>
-      <c r="D26" s="63" t="s">
-        <v>49</v>
-      </c>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="63"/>
-      <c r="K26" s="63"/>
-      <c r="L26" s="63"/>
-      <c r="M26" s="63"/>
-      <c r="N26" s="78">
+      <c r="D26" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="22">
         <v>1</v>
       </c>
       <c r="O26" s="11"/>
       <c r="P26" s="7"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="64" t="s">
+      <c r="A27" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="64"/>
+      <c r="B27" s="38"/>
       <c r="C27" s="15">
         <v>4.1900000000000004</v>
       </c>
-      <c r="D27" s="65" t="s">
-        <v>51</v>
-      </c>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="65"/>
-      <c r="L27" s="65"/>
-      <c r="M27" s="65"/>
-      <c r="N27" s="79">
+      <c r="D27" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="23">
         <v>0.5</v>
       </c>
       <c r="O27" s="17"/>
       <c r="P27" s="7"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="62" t="s">
+      <c r="A28" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="62"/>
+      <c r="B28" s="36"/>
       <c r="C28" s="13">
         <v>4.2</v>
       </c>
-      <c r="D28" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="E28" s="63"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="63"/>
-      <c r="K28" s="63"/>
-      <c r="L28" s="63"/>
-      <c r="M28" s="63"/>
-      <c r="N28" s="78">
+      <c r="D28" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="22">
         <v>1</v>
       </c>
       <c r="O28" s="11"/>
       <c r="P28" s="7"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="64" t="s">
+      <c r="A29" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="64"/>
+      <c r="B29" s="38"/>
       <c r="C29" s="15">
         <v>4.21</v>
       </c>
-      <c r="D29" s="65" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="65"/>
-      <c r="L29" s="65"/>
-      <c r="M29" s="65"/>
-      <c r="N29" s="79">
+      <c r="D29" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="23">
         <v>1</v>
       </c>
       <c r="O29" s="17"/>
       <c r="P29" s="7"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="62" t="s">
+      <c r="A30" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="62"/>
+      <c r="B30" s="36"/>
       <c r="C30" s="13">
         <v>4.22</v>
       </c>
-      <c r="D30" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="63"/>
-      <c r="J30" s="63"/>
-      <c r="K30" s="63"/>
-      <c r="L30" s="63"/>
-      <c r="M30" s="63"/>
-      <c r="N30" s="78">
+      <c r="D30" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="22">
         <v>0.5</v>
       </c>
       <c r="O30" s="11"/>
       <c r="P30" s="7"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="64" t="s">
+      <c r="A31" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="64"/>
+      <c r="B31" s="38"/>
       <c r="C31" s="15">
         <v>4.2300000000000004</v>
       </c>
-      <c r="D31" s="80" t="s">
-        <v>52</v>
-      </c>
-      <c r="E31" s="81"/>
-      <c r="F31" s="81"/>
-      <c r="G31" s="81"/>
-      <c r="H31" s="81"/>
-      <c r="I31" s="81"/>
-      <c r="J31" s="81"/>
-      <c r="K31" s="81"/>
-      <c r="L31" s="81"/>
-      <c r="M31" s="82"/>
-      <c r="N31" s="79">
+      <c r="D31" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="23">
         <v>1</v>
       </c>
       <c r="O31" s="17"/>
       <c r="P31" s="7"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="62" t="s">
+      <c r="A32" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="62"/>
+      <c r="B32" s="36"/>
       <c r="C32" s="13">
         <v>4.24</v>
       </c>
-      <c r="D32" s="63" t="s">
-        <v>53</v>
-      </c>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="63"/>
-      <c r="J32" s="63"/>
-      <c r="K32" s="63"/>
-      <c r="L32" s="63"/>
-      <c r="M32" s="63"/>
-      <c r="N32" s="78">
+      <c r="D32" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="22">
         <v>1</v>
       </c>
       <c r="O32" s="11"/>
       <c r="P32" s="7"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="66" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="66"/>
-      <c r="C33" s="66"/>
-      <c r="D33" s="66"/>
-      <c r="E33" s="66"/>
-      <c r="F33" s="66"/>
-      <c r="G33" s="66"/>
-      <c r="H33" s="66"/>
-      <c r="I33" s="66"/>
-      <c r="J33" s="66"/>
-      <c r="K33" s="66"/>
-      <c r="L33" s="66"/>
-      <c r="M33" s="66"/>
-      <c r="N33" s="66"/>
-      <c r="O33" s="67"/>
+      <c r="A33" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="33"/>
       <c r="P33" s="7"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="77" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="72"/>
-      <c r="C34" s="72"/>
-      <c r="D34" s="72"/>
-      <c r="E34" s="72"/>
-      <c r="F34" s="72"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="72"/>
-      <c r="I34" s="72"/>
-      <c r="J34" s="72"/>
-      <c r="K34" s="72"/>
-      <c r="L34" s="72"/>
-      <c r="M34" s="72"/>
-      <c r="N34" s="72"/>
-      <c r="O34" s="73"/>
+      <c r="A34" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="25"/>
+      <c r="O34" s="26"/>
       <c r="P34" s="7"/>
     </row>
     <row r="35" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="74"/>
-      <c r="B35" s="74"/>
-      <c r="C35" s="74"/>
-      <c r="D35" s="74"/>
-      <c r="E35" s="74"/>
-      <c r="F35" s="74"/>
-      <c r="G35" s="74"/>
-      <c r="H35" s="74"/>
-      <c r="I35" s="74"/>
-      <c r="J35" s="74"/>
-      <c r="K35" s="74"/>
-      <c r="L35" s="74"/>
-      <c r="M35" s="74"/>
-      <c r="N35" s="74"/>
-      <c r="O35" s="75"/>
+      <c r="A35" s="27"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="28"/>
       <c r="P35" s="7"/>
     </row>
     <row r="36" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2712,89 +2821,6 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="A34:O35"/>
-    <mergeCell ref="A18:B19"/>
-    <mergeCell ref="A20:B21"/>
-    <mergeCell ref="A22:B23"/>
-    <mergeCell ref="N12:O13"/>
-    <mergeCell ref="N14:O15"/>
-    <mergeCell ref="N16:O17"/>
-    <mergeCell ref="H16:K17"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="L16:M17"/>
-    <mergeCell ref="A10:B11"/>
-    <mergeCell ref="L10:M11"/>
-    <mergeCell ref="L14:M15"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="H12:K13"/>
-    <mergeCell ref="H14:K15"/>
-    <mergeCell ref="A33:O33"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="N10:O11"/>
-    <mergeCell ref="L12:M13"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:M30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:M31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:M32"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:M27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:M28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:M29"/>
-    <mergeCell ref="A24:N24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:M25"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D26:M26"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="G8:O8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="H5:O5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="H6:O6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:O3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="H4:O4"/>
-    <mergeCell ref="N18:O19"/>
-    <mergeCell ref="H20:K21"/>
-    <mergeCell ref="H22:K23"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:F11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:F13"/>
-    <mergeCell ref="L20:M21"/>
-    <mergeCell ref="L22:M23"/>
-    <mergeCell ref="N20:O21"/>
-    <mergeCell ref="N22:O23"/>
-    <mergeCell ref="H18:K19"/>
-    <mergeCell ref="L18:M19"/>
     <mergeCell ref="H10:K11"/>
     <mergeCell ref="E22:F23"/>
     <mergeCell ref="D14:D15"/>
@@ -2806,6 +2832,89 @@
     <mergeCell ref="E16:F17"/>
     <mergeCell ref="E18:F19"/>
     <mergeCell ref="E20:F21"/>
+    <mergeCell ref="L20:M21"/>
+    <mergeCell ref="L22:M23"/>
+    <mergeCell ref="N20:O21"/>
+    <mergeCell ref="N22:O23"/>
+    <mergeCell ref="H18:K19"/>
+    <mergeCell ref="L18:M19"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:O8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:M32"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="N10:O11"/>
+    <mergeCell ref="L12:M13"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:M30"/>
+    <mergeCell ref="A24:N24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:M25"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="N18:O19"/>
+    <mergeCell ref="H20:K21"/>
+    <mergeCell ref="H22:K23"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="L10:M11"/>
+    <mergeCell ref="L14:M15"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="H12:K13"/>
+    <mergeCell ref="H14:K15"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="A34:O35"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="N12:O13"/>
+    <mergeCell ref="N14:O15"/>
+    <mergeCell ref="N16:O17"/>
+    <mergeCell ref="H16:K17"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="L16:M17"/>
+    <mergeCell ref="A33:O33"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="G16:G17"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.59027777777777779" bottom="0.39305555555555555" header="0.51111111111111107" footer="0.19652777777777777"/>
@@ -2818,8 +2927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:O2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6:O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2846,69 +2955,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="41"/>
+      <c r="A1" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="55"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="44"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="58"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
     </row>
     <row r="3" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="45" t="s">
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="47"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="61"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
@@ -2917,696 +3026,760 @@
       <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="48" t="s">
+      <c r="H4" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="49"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="63"/>
       <c r="P4" s="7"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
+      <c r="B5" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
       <c r="G5" s="8">
         <v>1</v>
       </c>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="52"/>
+      <c r="H5" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="50"/>
       <c r="P5" s="7"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
+      <c r="B6" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
       <c r="G6" s="9">
         <v>2</v>
       </c>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="55"/>
+      <c r="H6" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="53"/>
       <c r="P6" s="7"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
+      <c r="B7" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
       <c r="G7" s="8">
         <v>3</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="52"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="50"/>
       <c r="P7" s="7"/>
     </row>
     <row r="8" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="56" t="s">
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="58"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="46"/>
       <c r="P8" s="7"/>
     </row>
     <row r="9" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
       <c r="D9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="35"/>
+      <c r="E9" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="70"/>
       <c r="G9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="59" t="s">
+      <c r="H9" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59" t="s">
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59" t="s">
+      <c r="M9" s="44"/>
+      <c r="N9" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="60"/>
+      <c r="O9" s="47"/>
       <c r="P9" s="7"/>
     </row>
     <row r="10" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="70"/>
-      <c r="C10" s="68">
+      <c r="B10" s="29"/>
+      <c r="C10" s="34">
         <v>10.17</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="61">
+      <c r="D10" s="71" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="81">
         <v>1</v>
       </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="69"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="35">
+        <v>1</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="O10" s="31"/>
       <c r="P10" s="7"/>
     </row>
     <row r="11" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="70"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="69"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="31"/>
       <c r="P11" s="7"/>
     </row>
     <row r="12" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="70" t="s">
+      <c r="A12" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="70"/>
-      <c r="C12" s="68">
+      <c r="B12" s="29"/>
+      <c r="C12" s="34">
         <v>10.18</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="61">
+      <c r="D12" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="85">
+        <v>0.3</v>
+      </c>
+      <c r="F12" s="86"/>
+      <c r="G12" s="35">
         <v>2</v>
       </c>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="69"/>
+      <c r="H12" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="O12" s="31"/>
       <c r="P12" s="7"/>
     </row>
     <row r="13" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="70"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="69"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="31"/>
       <c r="P13" s="7"/>
     </row>
     <row r="14" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="70" t="s">
+      <c r="A14" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="70"/>
-      <c r="C14" s="68">
+      <c r="B14" s="29"/>
+      <c r="C14" s="34">
         <v>10.19</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="61">
+      <c r="D14" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="81">
+        <v>0.8</v>
+      </c>
+      <c r="F14" s="82"/>
+      <c r="G14" s="35">
         <v>3</v>
       </c>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="69"/>
+      <c r="H14" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="O14" s="31"/>
       <c r="P14" s="7"/>
     </row>
     <row r="15" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="70"/>
-      <c r="B15" s="70"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="69"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="31"/>
       <c r="P15" s="7"/>
     </row>
     <row r="16" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="70" t="s">
+      <c r="A16" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="70"/>
-      <c r="C16" s="68" t="s">
+      <c r="B16" s="29"/>
+      <c r="C16" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="61">
+      <c r="D16" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="81">
+        <v>1</v>
+      </c>
+      <c r="F16" s="82"/>
+      <c r="G16" s="35">
         <v>4</v>
       </c>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="69"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="31"/>
       <c r="P16" s="7"/>
     </row>
     <row r="17" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="70"/>
-      <c r="B17" s="70"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="69"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="31"/>
       <c r="P17" s="7"/>
     </row>
     <row r="18" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="70" t="s">
+      <c r="A18" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="70"/>
-      <c r="C18" s="68">
+      <c r="B18" s="29"/>
+      <c r="C18" s="34">
         <v>10.210000000000001</v>
       </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="61">
+      <c r="D18" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="81">
+        <v>1</v>
+      </c>
+      <c r="F18" s="82"/>
+      <c r="G18" s="35">
         <v>5</v>
       </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="29"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="64"/>
       <c r="P18" s="7"/>
     </row>
     <row r="19" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="70"/>
-      <c r="B19" s="70"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="31"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="66"/>
+      <c r="N19" s="65"/>
+      <c r="O19" s="66"/>
       <c r="P19" s="7"/>
     </row>
     <row r="20" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="70" t="s">
+      <c r="A20" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="70"/>
-      <c r="C20" s="68">
+      <c r="B20" s="29"/>
+      <c r="C20" s="34">
         <v>10.220000000000001</v>
       </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="61">
+      <c r="D20" s="71"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="35">
         <v>6</v>
       </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="29"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="64"/>
       <c r="P20" s="7"/>
     </row>
     <row r="21" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="70"/>
-      <c r="B21" s="70"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="31"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="66"/>
+      <c r="N21" s="65"/>
+      <c r="O21" s="66"/>
       <c r="P21" s="7"/>
     </row>
     <row r="22" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="70" t="s">
+      <c r="A22" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="70"/>
-      <c r="C22" s="68">
+      <c r="B22" s="29"/>
+      <c r="C22" s="34">
         <v>10.23</v>
       </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="61">
+      <c r="D22" s="71"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="35">
         <v>7</v>
       </c>
-      <c r="H22" s="28"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="29"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="64"/>
       <c r="P22" s="7"/>
     </row>
     <row r="23" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="70"/>
-      <c r="B23" s="70"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="31"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
+      <c r="N23" s="65"/>
+      <c r="O23" s="66"/>
       <c r="P23" s="7"/>
     </row>
     <row r="24" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="56" t="s">
+      <c r="A24" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="56"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="43"/>
       <c r="O24" s="11"/>
       <c r="P24" s="7"/>
     </row>
     <row r="25" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="59" t="s">
+      <c r="A25" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59" t="s">
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="59"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
       <c r="N25" s="21" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O25" s="12"/>
       <c r="P25" s="7"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="62" t="s">
+      <c r="A26" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="62"/>
+      <c r="B26" s="36"/>
       <c r="C26" s="13">
-        <v>10.24</v>
-      </c>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="63"/>
-      <c r="K26" s="63"/>
-      <c r="L26" s="63"/>
-      <c r="M26" s="63"/>
-      <c r="N26" s="14"/>
+        <v>4.25</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="22">
+        <v>0.3</v>
+      </c>
       <c r="O26" s="11"/>
       <c r="P26" s="7"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="64" t="s">
+      <c r="A27" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="64"/>
+      <c r="B27" s="38"/>
       <c r="C27" s="15">
-        <v>10.25</v>
-      </c>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="65"/>
-      <c r="L27" s="65"/>
-      <c r="M27" s="65"/>
-      <c r="N27" s="16"/>
+        <v>4.26</v>
+      </c>
+      <c r="D27" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="23">
+        <v>0.6</v>
+      </c>
       <c r="O27" s="17"/>
       <c r="P27" s="7"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="62" t="s">
+      <c r="A28" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="62"/>
+      <c r="B28" s="36"/>
       <c r="C28" s="13">
-        <v>10.26</v>
-      </c>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="63"/>
-      <c r="K28" s="63"/>
-      <c r="L28" s="63"/>
-      <c r="M28" s="63"/>
-      <c r="N28" s="14"/>
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="D28" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="22">
+        <v>1</v>
+      </c>
       <c r="O28" s="11"/>
       <c r="P28" s="7"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="64" t="s">
+      <c r="A29" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="64"/>
+      <c r="B29" s="38"/>
       <c r="C29" s="15">
-        <v>10.27</v>
-      </c>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="65"/>
-      <c r="L29" s="65"/>
-      <c r="M29" s="65"/>
-      <c r="N29" s="16"/>
+        <v>4.28</v>
+      </c>
+      <c r="D29" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="23">
+        <v>1</v>
+      </c>
       <c r="O29" s="17"/>
       <c r="P29" s="7"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="62" t="s">
+      <c r="A30" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="62"/>
+      <c r="B30" s="36"/>
       <c r="C30" s="13">
-        <v>10.28</v>
-      </c>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="63"/>
-      <c r="J30" s="63"/>
-      <c r="K30" s="63"/>
-      <c r="L30" s="63"/>
-      <c r="M30" s="63"/>
-      <c r="N30" s="14"/>
+        <v>4.29</v>
+      </c>
+      <c r="D30" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="22">
+        <v>1</v>
+      </c>
       <c r="O30" s="11"/>
       <c r="P30" s="7"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="64" t="s">
+      <c r="A31" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="64"/>
-      <c r="C31" s="15">
-        <v>10.29</v>
-      </c>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="65"/>
-      <c r="K31" s="65"/>
-      <c r="L31" s="65"/>
-      <c r="M31" s="65"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="42"/>
       <c r="N31" s="16"/>
       <c r="O31" s="17"/>
       <c r="P31" s="7"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="62" t="s">
+      <c r="A32" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="62"/>
-      <c r="C32" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="63"/>
-      <c r="J32" s="63"/>
-      <c r="K32" s="63"/>
-      <c r="L32" s="63"/>
-      <c r="M32" s="63"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
       <c r="N32" s="14"/>
       <c r="O32" s="11"/>
       <c r="P32" s="7"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="66" t="s">
-        <v>23</v>
-      </c>
-      <c r="B33" s="66"/>
-      <c r="C33" s="66"/>
-      <c r="D33" s="66"/>
-      <c r="E33" s="66"/>
-      <c r="F33" s="66"/>
-      <c r="G33" s="66"/>
-      <c r="H33" s="66"/>
-      <c r="I33" s="66"/>
-      <c r="J33" s="66"/>
-      <c r="K33" s="66"/>
-      <c r="L33" s="66"/>
-      <c r="M33" s="66"/>
-      <c r="N33" s="66"/>
-      <c r="O33" s="67"/>
+      <c r="A33" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="33"/>
       <c r="P33" s="7"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" s="72"/>
-      <c r="C34" s="72"/>
-      <c r="D34" s="72"/>
-      <c r="E34" s="72"/>
-      <c r="F34" s="72"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="72"/>
-      <c r="I34" s="72"/>
-      <c r="J34" s="72"/>
-      <c r="K34" s="72"/>
-      <c r="L34" s="72"/>
-      <c r="M34" s="72"/>
-      <c r="N34" s="72"/>
-      <c r="O34" s="73"/>
+      <c r="A34" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="25"/>
+      <c r="O34" s="26"/>
       <c r="P34" s="7"/>
     </row>
     <row r="35" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="74"/>
-      <c r="B35" s="74"/>
-      <c r="C35" s="74"/>
-      <c r="D35" s="74"/>
-      <c r="E35" s="74"/>
-      <c r="F35" s="74"/>
-      <c r="G35" s="74"/>
-      <c r="H35" s="74"/>
-      <c r="I35" s="74"/>
-      <c r="J35" s="74"/>
-      <c r="K35" s="74"/>
-      <c r="L35" s="74"/>
-      <c r="M35" s="74"/>
-      <c r="N35" s="74"/>
-      <c r="O35" s="75"/>
+      <c r="A35" s="27"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="28"/>
       <c r="P35" s="7"/>
     </row>
     <row r="36" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3639,25 +3812,65 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:O3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="H4:O4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="H5:O5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="H6:O6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="G8:O8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A34:O35"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:M30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:M32"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="A33:O33"/>
+    <mergeCell ref="N22:O23"/>
+    <mergeCell ref="A24:N24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:M25"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:K23"/>
+    <mergeCell ref="L22:M23"/>
+    <mergeCell ref="L18:M19"/>
+    <mergeCell ref="N18:O19"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:K21"/>
+    <mergeCell ref="L20:M21"/>
+    <mergeCell ref="N20:O21"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:K19"/>
+    <mergeCell ref="L14:M15"/>
+    <mergeCell ref="N14:O15"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:K17"/>
+    <mergeCell ref="L16:M17"/>
+    <mergeCell ref="N16:O17"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:K15"/>
     <mergeCell ref="L10:M11"/>
     <mergeCell ref="N10:O11"/>
     <mergeCell ref="A12:B13"/>
@@ -3674,65 +3887,25 @@
     <mergeCell ref="E10:F11"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="H10:K11"/>
-    <mergeCell ref="L14:M15"/>
-    <mergeCell ref="N14:O15"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:K17"/>
-    <mergeCell ref="L16:M17"/>
-    <mergeCell ref="N16:O17"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:K15"/>
-    <mergeCell ref="L18:M19"/>
-    <mergeCell ref="N18:O19"/>
-    <mergeCell ref="A20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:K21"/>
-    <mergeCell ref="L20:M21"/>
-    <mergeCell ref="N20:O21"/>
-    <mergeCell ref="A18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:K19"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D26:M26"/>
-    <mergeCell ref="A22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:K23"/>
-    <mergeCell ref="L22:M23"/>
-    <mergeCell ref="N22:O23"/>
-    <mergeCell ref="A24:N24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:M25"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:M27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:M28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:M29"/>
-    <mergeCell ref="A33:O33"/>
-    <mergeCell ref="A34:O35"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:M30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:M31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:M32"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:O8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:O4"/>
   </mergeCells>
   <phoneticPr fontId="38" type="noConversion"/>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.59027777777777779" bottom="0.39305555555555555" header="0.51111111111111107" footer="0.19652777777777777"/>

--- a/周报/杨蔡胤-2018141472011.xlsx
+++ b/周报/杨蔡胤-2018141472011.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\desktop\软件项目管理\project\SotfwareManagement_CovidAid\周报\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8556C8AE-E6BF-46F7-B5C1-0440BC06F415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9126C90F-8D68-44FB-955F-7EF782D798B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="15" windowWidth="19185" windowHeight="11265" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="第八周工作周报" sheetId="7" r:id="rId1"/>
     <sheet name="第九周工作周报" sheetId="9" r:id="rId2"/>
+    <sheet name="第十周工作周报" sheetId="10" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">第八周工作周报!$A$1:$O$35</definedName>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="83">
   <si>
     <t>本周工作总结</t>
   </si>
@@ -76,9 +77,6 @@
   </si>
   <si>
     <t>星期四</t>
-  </si>
-  <si>
-    <t>10.2O</t>
   </si>
   <si>
     <t>星期五</t>
@@ -366,6 +364,91 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">日期：2022.4.22          </t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">工作周报    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">日期：2022.4.29          </t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求说明书的重新修改</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计说明书的评审</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本逻辑的实现</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>调研分布式架构的引入</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>当引入深度学习模型时，网页加载较慢且运行时间过长</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划将分类和分割模型部署到分布式架构中</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现需求说明文档存在一定漏洞，书写不规范</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>对需求说明书进行重新修改</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>分布式架构的调研</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>分布式架构的设计</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>本周工作总结</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本周对系统的模块完成了基本实现，但在实现过程中也发现了运行瓶颈等性能上的问题。对此，我对系统的设计进行调整，计划引入分布式的架构提升系统的运行速度，并计划对设计文档进行修改重写。</t>
     </r>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -1303,6 +1386,156 @@
     <xf numFmtId="9" fontId="32" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="21" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="22" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="23" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="24" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="18" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="22" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="21" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="13" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="13" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1318,160 +1551,10 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="13" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="13" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="22" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="21" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="23" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="24" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="18" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="21" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="22" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="25" fillId="0" borderId="25" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1954,69 +2037,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="55"/>
+      <c r="A1" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="41"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="56" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="58"/>
+      <c r="A2" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="44"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
     </row>
     <row r="3" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="59" t="s">
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="61"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="47"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
@@ -2025,552 +2108,552 @@
       <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
       <c r="G4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="62" t="s">
+      <c r="H4" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="63"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="49"/>
       <c r="P4" s="7"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="B5" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
       <c r="G5" s="8">
         <v>1</v>
       </c>
-      <c r="H5" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="50"/>
+      <c r="H5" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="52"/>
       <c r="P5" s="7"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
+      <c r="B6" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
       <c r="G6" s="9">
         <v>2</v>
       </c>
-      <c r="H6" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="53"/>
+      <c r="H6" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="55"/>
       <c r="P6" s="7"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
+      <c r="B7" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
       <c r="G7" s="8">
         <v>3</v>
       </c>
-      <c r="H7" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="50"/>
+      <c r="H7" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="52"/>
       <c r="P7" s="7"/>
     </row>
     <row r="8" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="43" t="s">
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="46"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="58"/>
       <c r="P8" s="7"/>
     </row>
     <row r="9" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
       <c r="D9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="70"/>
+      <c r="E9" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="62"/>
       <c r="G9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="44" t="s">
+      <c r="H9" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44" t="s">
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44" t="s">
+      <c r="M9" s="59"/>
+      <c r="N9" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="47"/>
+      <c r="O9" s="60"/>
       <c r="P9" s="7"/>
     </row>
     <row r="10" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="34">
+      <c r="B10" s="72"/>
+      <c r="C10" s="73">
         <v>4.1100000000000003</v>
       </c>
-      <c r="D10" s="71" t="s">
+      <c r="D10" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="31">
+        <v>1</v>
+      </c>
+      <c r="F10" s="32"/>
+      <c r="G10" s="70">
+        <v>1</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="O10" s="71"/>
+      <c r="P10" s="7"/>
+    </row>
+    <row r="11" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="72"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="71"/>
+      <c r="P11" s="7"/>
+    </row>
+    <row r="12" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="72" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="72"/>
+      <c r="C12" s="73">
+        <v>4.12</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="31">
+        <v>1</v>
+      </c>
+      <c r="F12" s="32"/>
+      <c r="G12" s="70">
+        <v>2</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="O12" s="71"/>
+      <c r="P12" s="7"/>
+    </row>
+    <row r="13" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="72"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="71"/>
+      <c r="P13" s="7"/>
+    </row>
+    <row r="14" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="72" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="72"/>
+      <c r="C14" s="73">
+        <v>4.13</v>
+      </c>
+      <c r="D14" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="73">
+      <c r="E14" s="31">
+        <v>0.6</v>
+      </c>
+      <c r="F14" s="32"/>
+      <c r="G14" s="70">
+        <v>3</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="O14" s="71"/>
+      <c r="P14" s="7"/>
+    </row>
+    <row r="15" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="72"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="71"/>
+      <c r="P15" s="7"/>
+    </row>
+    <row r="16" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="72"/>
+      <c r="C16" s="73">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="31">
         <v>1</v>
       </c>
-      <c r="F10" s="74"/>
-      <c r="G10" s="35">
-        <v>1</v>
-      </c>
-      <c r="H10" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="O10" s="31"/>
-      <c r="P10" s="7"/>
-    </row>
-    <row r="11" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="7"/>
-    </row>
-    <row r="12" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="34">
-        <v>4.12</v>
-      </c>
-      <c r="D12" s="71" t="s">
+      <c r="F16" s="32"/>
+      <c r="G16" s="70">
+        <v>4</v>
+      </c>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="71"/>
+      <c r="P16" s="7"/>
+    </row>
+    <row r="17" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="72"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="71"/>
+      <c r="P17" s="7"/>
+    </row>
+    <row r="18" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="72"/>
+      <c r="C18" s="73">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="D18" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="73">
-        <v>1</v>
-      </c>
-      <c r="F12" s="74"/>
-      <c r="G12" s="35">
-        <v>2</v>
-      </c>
-      <c r="H12" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="O12" s="31"/>
-      <c r="P12" s="7"/>
-    </row>
-    <row r="13" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="7"/>
-    </row>
-    <row r="14" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="34">
-        <v>4.13</v>
-      </c>
-      <c r="D14" s="71" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="73">
-        <v>0.6</v>
-      </c>
-      <c r="F14" s="74"/>
-      <c r="G14" s="35">
-        <v>3</v>
-      </c>
-      <c r="H14" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="O14" s="31"/>
-      <c r="P14" s="7"/>
-    </row>
-    <row r="15" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="7"/>
-    </row>
-    <row r="16" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="34">
-        <v>4.1399999999999997</v>
-      </c>
-      <c r="D16" s="71" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="73">
-        <v>1</v>
-      </c>
-      <c r="F16" s="74"/>
-      <c r="G16" s="35">
-        <v>4</v>
-      </c>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="7"/>
-    </row>
-    <row r="17" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="7"/>
-    </row>
-    <row r="18" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="29" t="s">
+      <c r="E18" s="31">
+        <v>0.3</v>
+      </c>
+      <c r="F18" s="32"/>
+      <c r="G18" s="70">
+        <v>5</v>
+      </c>
+      <c r="H18" s="24"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="7"/>
+    </row>
+    <row r="19" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="72"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="7"/>
+    </row>
+    <row r="20" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="34">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="D18" s="71" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="73">
-        <v>0.3</v>
-      </c>
-      <c r="F18" s="74"/>
-      <c r="G18" s="35">
-        <v>5</v>
-      </c>
-      <c r="H18" s="30"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="64"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="64"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="64"/>
-      <c r="P18" s="7"/>
-    </row>
-    <row r="19" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="66"/>
-      <c r="N19" s="65"/>
-      <c r="O19" s="66"/>
-      <c r="P19" s="7"/>
-    </row>
-    <row r="20" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="29" t="s">
+      <c r="B20" s="72"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="70">
+        <v>6</v>
+      </c>
+      <c r="H20" s="24"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="7"/>
+    </row>
+    <row r="21" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="72"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="7"/>
+    </row>
+    <row r="22" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="35">
-        <v>6</v>
-      </c>
-      <c r="H20" s="30"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="64"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="64"/>
-      <c r="P20" s="7"/>
-    </row>
-    <row r="21" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="65"/>
-      <c r="M21" s="66"/>
-      <c r="N21" s="65"/>
-      <c r="O21" s="66"/>
-      <c r="P21" s="7"/>
-    </row>
-    <row r="22" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="29" t="s">
+      <c r="B22" s="72"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="70">
+        <v>7</v>
+      </c>
+      <c r="H22" s="24"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="7"/>
+    </row>
+    <row r="23" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="72"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="7"/>
+    </row>
+    <row r="24" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="35">
-        <v>7</v>
-      </c>
-      <c r="H22" s="30"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="64"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="64"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="64"/>
-      <c r="P22" s="7"/>
-    </row>
-    <row r="23" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="68"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="65"/>
-      <c r="O23" s="66"/>
-      <c r="P23" s="7"/>
-    </row>
-    <row r="24" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="43"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="56"/>
       <c r="O24" s="11"/>
       <c r="P24" s="7"/>
     </row>
     <row r="25" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44" t="s">
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="44"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="59"/>
       <c r="N25" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O25" s="12"/>
       <c r="P25" s="7"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="36"/>
+      <c r="B26" s="67"/>
       <c r="C26" s="13">
         <v>4.18</v>
       </c>
-      <c r="D26" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37"/>
+      <c r="D26" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="68"/>
+      <c r="L26" s="68"/>
+      <c r="M26" s="68"/>
       <c r="N26" s="22">
         <v>1</v>
       </c>
@@ -2578,25 +2661,25 @@
       <c r="P26" s="7"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="38" t="s">
+      <c r="A27" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="38"/>
+      <c r="B27" s="63"/>
       <c r="C27" s="15">
         <v>4.1900000000000004</v>
       </c>
-      <c r="D27" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
+      <c r="D27" s="69" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="69"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="69"/>
+      <c r="M27" s="69"/>
       <c r="N27" s="23">
         <v>0.5</v>
       </c>
@@ -2604,25 +2687,25 @@
       <c r="P27" s="7"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="36"/>
+      <c r="B28" s="67"/>
       <c r="C28" s="13">
         <v>4.2</v>
       </c>
-      <c r="D28" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="37"/>
+      <c r="D28" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="68"/>
+      <c r="L28" s="68"/>
+      <c r="M28" s="68"/>
       <c r="N28" s="22">
         <v>1</v>
       </c>
@@ -2630,25 +2713,25 @@
       <c r="P28" s="7"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="38"/>
+      <c r="B29" s="63"/>
       <c r="C29" s="15">
         <v>4.21</v>
       </c>
-      <c r="D29" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="42"/>
+      <c r="D29" s="69" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="69"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="69"/>
+      <c r="L29" s="69"/>
+      <c r="M29" s="69"/>
       <c r="N29" s="23">
         <v>1</v>
       </c>
@@ -2656,25 +2739,25 @@
       <c r="P29" s="7"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" s="36"/>
+      <c r="A30" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="67"/>
       <c r="C30" s="13">
         <v>4.22</v>
       </c>
-      <c r="D30" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="37"/>
+      <c r="D30" s="68" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="68"/>
+      <c r="H30" s="68"/>
+      <c r="I30" s="68"/>
+      <c r="J30" s="68"/>
+      <c r="K30" s="68"/>
+      <c r="L30" s="68"/>
+      <c r="M30" s="68"/>
       <c r="N30" s="22">
         <v>0.5</v>
       </c>
@@ -2682,25 +2765,25 @@
       <c r="P30" s="7"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" s="38"/>
+      <c r="A31" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="63"/>
       <c r="C31" s="15">
         <v>4.2300000000000004</v>
       </c>
-      <c r="D31" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="40"/>
-      <c r="L31" s="40"/>
-      <c r="M31" s="41"/>
+      <c r="D31" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="65"/>
+      <c r="J31" s="65"/>
+      <c r="K31" s="65"/>
+      <c r="L31" s="65"/>
+      <c r="M31" s="66"/>
       <c r="N31" s="23">
         <v>1</v>
       </c>
@@ -2708,25 +2791,25 @@
       <c r="P31" s="7"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" s="36"/>
+      <c r="A32" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="67"/>
       <c r="C32" s="13">
         <v>4.24</v>
       </c>
-      <c r="D32" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
+      <c r="D32" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="68"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="68"/>
+      <c r="H32" s="68"/>
+      <c r="I32" s="68"/>
+      <c r="J32" s="68"/>
+      <c r="K32" s="68"/>
+      <c r="L32" s="68"/>
+      <c r="M32" s="68"/>
       <c r="N32" s="22">
         <v>1</v>
       </c>
@@ -2734,61 +2817,61 @@
       <c r="P32" s="7"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="79" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="79"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="79"/>
+      <c r="E33" s="79"/>
+      <c r="F33" s="79"/>
+      <c r="G33" s="79"/>
+      <c r="H33" s="79"/>
+      <c r="I33" s="79"/>
+      <c r="J33" s="79"/>
+      <c r="K33" s="79"/>
+      <c r="L33" s="79"/>
+      <c r="M33" s="79"/>
+      <c r="N33" s="79"/>
+      <c r="O33" s="80"/>
+      <c r="P33" s="7"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="33"/>
-      <c r="P33" s="7"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="25"/>
-      <c r="O34" s="26"/>
+      <c r="B34" s="75"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="75"/>
+      <c r="J34" s="75"/>
+      <c r="K34" s="75"/>
+      <c r="L34" s="75"/>
+      <c r="M34" s="75"/>
+      <c r="N34" s="75"/>
+      <c r="O34" s="76"/>
       <c r="P34" s="7"/>
     </row>
     <row r="35" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="27"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="27"/>
-      <c r="N35" s="27"/>
-      <c r="O35" s="28"/>
+      <c r="A35" s="77"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="77"/>
+      <c r="J35" s="77"/>
+      <c r="K35" s="77"/>
+      <c r="L35" s="77"/>
+      <c r="M35" s="77"/>
+      <c r="N35" s="77"/>
+      <c r="O35" s="78"/>
       <c r="P35" s="7"/>
     </row>
     <row r="36" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2821,54 +2904,36 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="H10:K11"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E14:F15"/>
-    <mergeCell ref="E16:F17"/>
-    <mergeCell ref="E18:F19"/>
-    <mergeCell ref="E20:F21"/>
-    <mergeCell ref="L20:M21"/>
-    <mergeCell ref="L22:M23"/>
-    <mergeCell ref="N20:O21"/>
-    <mergeCell ref="N22:O23"/>
-    <mergeCell ref="H18:K19"/>
-    <mergeCell ref="L18:M19"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:O3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="H4:O4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="H5:O5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="H6:O6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="G8:O8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:M31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:M32"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:M27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:M28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:M29"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="A34:O35"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="N12:O13"/>
+    <mergeCell ref="N14:O15"/>
+    <mergeCell ref="N16:O17"/>
+    <mergeCell ref="H16:K17"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="L16:M17"/>
+    <mergeCell ref="A33:O33"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="L14:M15"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="H12:K13"/>
+    <mergeCell ref="H14:K15"/>
     <mergeCell ref="N10:O11"/>
     <mergeCell ref="L12:M13"/>
     <mergeCell ref="A30:B30"/>
@@ -2885,36 +2950,54 @@
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="A10:B11"/>
     <mergeCell ref="L10:M11"/>
-    <mergeCell ref="L14:M15"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="H12:K13"/>
-    <mergeCell ref="H14:K15"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="E10:F11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:F13"/>
-    <mergeCell ref="A34:O35"/>
-    <mergeCell ref="A18:B19"/>
-    <mergeCell ref="A20:B21"/>
-    <mergeCell ref="A22:B23"/>
-    <mergeCell ref="N12:O13"/>
-    <mergeCell ref="N14:O15"/>
-    <mergeCell ref="N16:O17"/>
-    <mergeCell ref="H16:K17"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="L16:M17"/>
-    <mergeCell ref="A33:O33"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:M32"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:O8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="L20:M21"/>
+    <mergeCell ref="L22:M23"/>
+    <mergeCell ref="N20:O21"/>
+    <mergeCell ref="N22:O23"/>
+    <mergeCell ref="H18:K19"/>
+    <mergeCell ref="L18:M19"/>
+    <mergeCell ref="H10:K11"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G20:G21"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.59027777777777779" bottom="0.39305555555555555" header="0.51111111111111107" footer="0.19652777777777777"/>
@@ -2927,8 +3010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:O6"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16:O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2955,69 +3038,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="55"/>
+      <c r="A1" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="41"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="56" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="58"/>
+      <c r="A2" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="44"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
     </row>
     <row r="3" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="59" t="s">
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="61"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="47"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
@@ -3026,554 +3109,550 @@
       <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
       <c r="G4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="62" t="s">
+      <c r="H4" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="63"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="49"/>
       <c r="P4" s="7"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="B5" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
       <c r="G5" s="8">
         <v>1</v>
       </c>
-      <c r="H5" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="50"/>
+      <c r="H5" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="52"/>
       <c r="P5" s="7"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
+      <c r="B6" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
       <c r="G6" s="9">
         <v>2</v>
       </c>
-      <c r="H6" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="53"/>
+      <c r="H6" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="55"/>
       <c r="P6" s="7"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
+      <c r="B7" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
       <c r="G7" s="8">
         <v>3</v>
       </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="50"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="52"/>
       <c r="P7" s="7"/>
     </row>
     <row r="8" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="43" t="s">
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="46"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="58"/>
       <c r="P8" s="7"/>
     </row>
     <row r="9" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
       <c r="D9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="70"/>
+      <c r="E9" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="62"/>
       <c r="G9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="44" t="s">
+      <c r="H9" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44" t="s">
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44" t="s">
+      <c r="M9" s="59"/>
+      <c r="N9" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="47"/>
+      <c r="O9" s="60"/>
       <c r="P9" s="7"/>
     </row>
     <row r="10" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="34">
-        <v>10.17</v>
-      </c>
-      <c r="D10" s="71" t="s">
-        <v>57</v>
+      <c r="B10" s="72"/>
+      <c r="C10" s="73">
+        <v>4.18</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>56</v>
       </c>
       <c r="E10" s="81">
         <v>1</v>
       </c>
       <c r="F10" s="82"/>
-      <c r="G10" s="35">
+      <c r="G10" s="70">
         <v>1</v>
       </c>
-      <c r="H10" s="30" t="s">
+      <c r="H10" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30" t="s">
+      <c r="M10" s="24"/>
+      <c r="N10" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="O10" s="31"/>
+      <c r="O10" s="71"/>
       <c r="P10" s="7"/>
     </row>
     <row r="11" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="72"/>
+      <c r="A11" s="72"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="30"/>
       <c r="E11" s="83"/>
       <c r="F11" s="84"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="31"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="71"/>
       <c r="P11" s="7"/>
     </row>
     <row r="12" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="34">
-        <v>10.18</v>
-      </c>
-      <c r="D12" s="71" t="s">
-        <v>58</v>
+      <c r="B12" s="72"/>
+      <c r="C12" s="73">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>57</v>
       </c>
       <c r="E12" s="85">
         <v>0.3</v>
       </c>
       <c r="F12" s="86"/>
-      <c r="G12" s="35">
+      <c r="G12" s="70">
         <v>2</v>
       </c>
-      <c r="H12" s="30" t="s">
+      <c r="H12" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="O12" s="31"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="O12" s="71"/>
       <c r="P12" s="7"/>
     </row>
     <row r="13" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="72"/>
+      <c r="A13" s="72"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="30"/>
       <c r="E13" s="87"/>
       <c r="F13" s="88"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="31"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="71"/>
       <c r="P13" s="7"/>
     </row>
     <row r="14" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="34">
-        <v>10.19</v>
-      </c>
-      <c r="D14" s="71" t="s">
-        <v>59</v>
+      <c r="B14" s="72"/>
+      <c r="C14" s="73">
+        <v>4.2</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>58</v>
       </c>
       <c r="E14" s="81">
         <v>0.8</v>
       </c>
       <c r="F14" s="82"/>
-      <c r="G14" s="35">
+      <c r="G14" s="70">
         <v>3</v>
       </c>
-      <c r="H14" s="30" t="s">
+      <c r="H14" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="O14" s="31"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="O14" s="71"/>
       <c r="P14" s="7"/>
     </row>
     <row r="15" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="72"/>
+      <c r="A15" s="72"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="30"/>
       <c r="E15" s="83"/>
       <c r="F15" s="84"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="31"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="71"/>
       <c r="P15" s="7"/>
     </row>
     <row r="16" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="71" t="s">
-        <v>58</v>
+      <c r="B16" s="72"/>
+      <c r="C16" s="73">
+        <v>4.21</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>57</v>
       </c>
       <c r="E16" s="81">
         <v>1</v>
       </c>
       <c r="F16" s="82"/>
-      <c r="G16" s="35">
+      <c r="G16" s="70">
         <v>4</v>
       </c>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="31"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="71"/>
       <c r="P16" s="7"/>
     </row>
     <row r="17" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="72"/>
+      <c r="A17" s="72"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="30"/>
       <c r="E17" s="83"/>
       <c r="F17" s="84"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="31"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="71"/>
       <c r="P17" s="7"/>
     </row>
     <row r="18" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="34">
-        <v>10.210000000000001</v>
-      </c>
-      <c r="D18" s="71" t="s">
-        <v>59</v>
+      <c r="A18" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="72"/>
+      <c r="C18" s="73">
+        <v>4.22</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>58</v>
       </c>
       <c r="E18" s="81">
         <v>1</v>
       </c>
       <c r="F18" s="82"/>
-      <c r="G18" s="35">
+      <c r="G18" s="70">
         <v>5</v>
       </c>
-      <c r="H18" s="30"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="64"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="64"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="64"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="35"/>
       <c r="P18" s="7"/>
     </row>
     <row r="19" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="72"/>
+      <c r="A19" s="72"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="30"/>
       <c r="E19" s="83"/>
       <c r="F19" s="84"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="66"/>
-      <c r="N19" s="65"/>
-      <c r="O19" s="66"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="37"/>
       <c r="P19" s="7"/>
     </row>
     <row r="20" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="72"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="70">
+        <v>6</v>
+      </c>
+      <c r="H20" s="24"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="7"/>
+    </row>
+    <row r="21" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="72"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="7"/>
+    </row>
+    <row r="22" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="34">
-        <v>10.220000000000001</v>
-      </c>
-      <c r="D20" s="71"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="35">
-        <v>6</v>
-      </c>
-      <c r="H20" s="30"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="64"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="64"/>
-      <c r="P20" s="7"/>
-    </row>
-    <row r="21" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="65"/>
-      <c r="M21" s="66"/>
-      <c r="N21" s="65"/>
-      <c r="O21" s="66"/>
-      <c r="P21" s="7"/>
-    </row>
-    <row r="22" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="29" t="s">
+      <c r="B22" s="72"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="70">
+        <v>7</v>
+      </c>
+      <c r="H22" s="24"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="7"/>
+    </row>
+    <row r="23" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="72"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="7"/>
+    </row>
+    <row r="24" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="34">
-        <v>10.23</v>
-      </c>
-      <c r="D22" s="71"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="35">
-        <v>7</v>
-      </c>
-      <c r="H22" s="30"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="64"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="64"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="64"/>
-      <c r="P22" s="7"/>
-    </row>
-    <row r="23" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="68"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="65"/>
-      <c r="O23" s="66"/>
-      <c r="P23" s="7"/>
-    </row>
-    <row r="24" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="43"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="56"/>
       <c r="O24" s="11"/>
       <c r="P24" s="7"/>
     </row>
     <row r="25" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44" t="s">
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="44"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="59"/>
       <c r="N25" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O25" s="12"/>
       <c r="P25" s="7"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="36"/>
+      <c r="B26" s="67"/>
       <c r="C26" s="13">
         <v>4.25</v>
       </c>
-      <c r="D26" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37"/>
+      <c r="D26" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="68"/>
+      <c r="L26" s="68"/>
+      <c r="M26" s="68"/>
       <c r="N26" s="22">
         <v>0.3</v>
       </c>
@@ -3581,25 +3660,25 @@
       <c r="P26" s="7"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="38" t="s">
+      <c r="A27" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="38"/>
+      <c r="B27" s="63"/>
       <c r="C27" s="15">
         <v>4.26</v>
       </c>
-      <c r="D27" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
+      <c r="D27" s="69" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="69"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="69"/>
+      <c r="M27" s="69"/>
       <c r="N27" s="23">
         <v>0.6</v>
       </c>
@@ -3607,25 +3686,25 @@
       <c r="P27" s="7"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="36"/>
+      <c r="B28" s="67"/>
       <c r="C28" s="13">
         <v>4.2699999999999996</v>
       </c>
-      <c r="D28" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="37"/>
+      <c r="D28" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="68"/>
+      <c r="L28" s="68"/>
+      <c r="M28" s="68"/>
       <c r="N28" s="22">
         <v>1</v>
       </c>
@@ -3633,25 +3712,25 @@
       <c r="P28" s="7"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="38"/>
+      <c r="B29" s="63"/>
       <c r="C29" s="15">
         <v>4.28</v>
       </c>
-      <c r="D29" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="42"/>
+      <c r="D29" s="69" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="69"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="69"/>
+      <c r="L29" s="69"/>
+      <c r="M29" s="69"/>
       <c r="N29" s="23">
         <v>1</v>
       </c>
@@ -3659,25 +3738,25 @@
       <c r="P29" s="7"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" s="36"/>
+      <c r="A30" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="67"/>
       <c r="C30" s="13">
         <v>4.29</v>
       </c>
-      <c r="D30" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="37"/>
+      <c r="D30" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="68"/>
+      <c r="H30" s="68"/>
+      <c r="I30" s="68"/>
+      <c r="J30" s="68"/>
+      <c r="K30" s="68"/>
+      <c r="L30" s="68"/>
+      <c r="M30" s="68"/>
       <c r="N30" s="22">
         <v>1</v>
       </c>
@@ -3685,101 +3764,101 @@
       <c r="P30" s="7"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" s="38"/>
+      <c r="A31" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="63"/>
       <c r="C31" s="15"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="42"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="42"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="69"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="69"/>
+      <c r="J31" s="69"/>
+      <c r="K31" s="69"/>
+      <c r="L31" s="69"/>
+      <c r="M31" s="69"/>
       <c r="N31" s="16"/>
       <c r="O31" s="17"/>
       <c r="P31" s="7"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" s="36"/>
+      <c r="A32" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="67"/>
       <c r="C32" s="13"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="68"/>
+      <c r="H32" s="68"/>
+      <c r="I32" s="68"/>
+      <c r="J32" s="68"/>
+      <c r="K32" s="68"/>
+      <c r="L32" s="68"/>
+      <c r="M32" s="68"/>
       <c r="N32" s="14"/>
       <c r="O32" s="11"/>
       <c r="P32" s="7"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="33"/>
+      <c r="A33" s="79" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="79"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="79"/>
+      <c r="E33" s="79"/>
+      <c r="F33" s="79"/>
+      <c r="G33" s="79"/>
+      <c r="H33" s="79"/>
+      <c r="I33" s="79"/>
+      <c r="J33" s="79"/>
+      <c r="K33" s="79"/>
+      <c r="L33" s="79"/>
+      <c r="M33" s="79"/>
+      <c r="N33" s="79"/>
+      <c r="O33" s="80"/>
       <c r="P33" s="7"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="25"/>
-      <c r="O34" s="26"/>
+      <c r="A34" s="74" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="75"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="75"/>
+      <c r="J34" s="75"/>
+      <c r="K34" s="75"/>
+      <c r="L34" s="75"/>
+      <c r="M34" s="75"/>
+      <c r="N34" s="75"/>
+      <c r="O34" s="76"/>
       <c r="P34" s="7"/>
     </row>
     <row r="35" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="27"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="27"/>
-      <c r="N35" s="27"/>
-      <c r="O35" s="28"/>
+      <c r="A35" s="77"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="77"/>
+      <c r="J35" s="77"/>
+      <c r="K35" s="77"/>
+      <c r="L35" s="77"/>
+      <c r="M35" s="77"/>
+      <c r="N35" s="77"/>
+      <c r="O35" s="78"/>
       <c r="P35" s="7"/>
     </row>
     <row r="36" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3812,18 +3891,73 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="A34:O35"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:M30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:M31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:M32"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:M28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:M29"/>
-    <mergeCell ref="A33:O33"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:O8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="L10:M11"/>
+    <mergeCell ref="N10:O11"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:K13"/>
+    <mergeCell ref="L12:M13"/>
+    <mergeCell ref="N12:O13"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:K11"/>
+    <mergeCell ref="L14:M15"/>
+    <mergeCell ref="N14:O15"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:K17"/>
+    <mergeCell ref="L16:M17"/>
+    <mergeCell ref="N16:O17"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:K15"/>
+    <mergeCell ref="L18:M19"/>
+    <mergeCell ref="N18:O19"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:K21"/>
+    <mergeCell ref="L20:M21"/>
+    <mergeCell ref="N20:O21"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:K19"/>
     <mergeCell ref="N22:O23"/>
     <mergeCell ref="A24:N24"/>
     <mergeCell ref="A25:C25"/>
@@ -3839,6 +3973,842 @@
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="H22:K23"/>
     <mergeCell ref="L22:M23"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="A33:O33"/>
+    <mergeCell ref="A34:O35"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:M30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:M32"/>
+  </mergeCells>
+  <phoneticPr fontId="38" type="noConversion"/>
+  <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.59027777777777779" bottom="0.39305555555555555" header="0.51111111111111107" footer="0.19652777777777777"/>
+  <pageSetup paperSize="9" scale="95" firstPageNumber="4294963191" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B72793-B9A8-4727-9EDF-9B3C7969D70C}">
+  <dimension ref="A1:O35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:O35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:15" ht="22.9" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="41"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A2" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="44"/>
+    </row>
+    <row r="3" spans="1:15" ht="16.899999999999999" x14ac:dyDescent="0.4">
+      <c r="A3" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="47"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A4" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="49"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A5" s="8">
+        <v>1</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="8">
+        <v>1</v>
+      </c>
+      <c r="H5" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="52"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A6" s="9">
+        <v>2</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="9">
+        <v>2</v>
+      </c>
+      <c r="H6" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="55"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A7" s="8">
+        <v>3</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="8">
+        <v>3</v>
+      </c>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="52"/>
+    </row>
+    <row r="8" spans="1:15" ht="16.899999999999999" x14ac:dyDescent="0.4">
+      <c r="A8" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="58"/>
+    </row>
+    <row r="9" spans="1:15" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A9" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="62"/>
+      <c r="G9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" s="60"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A10" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="72"/>
+      <c r="C10" s="73">
+        <v>4.25</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="81">
+        <v>0.4</v>
+      </c>
+      <c r="F10" s="82"/>
+      <c r="G10" s="70">
+        <v>1</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="O10" s="71"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A11" s="72"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="71"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A12" s="72" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="72"/>
+      <c r="C12" s="73">
+        <v>4.26</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="85">
+        <v>0.7</v>
+      </c>
+      <c r="F12" s="86"/>
+      <c r="G12" s="70">
+        <v>2</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="O12" s="71"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A13" s="72"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="71"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A14" s="72" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="72"/>
+      <c r="C14" s="73">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="81">
+        <v>1</v>
+      </c>
+      <c r="F14" s="82"/>
+      <c r="G14" s="70">
+        <v>3</v>
+      </c>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="71"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A15" s="72"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="71"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A16" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="72"/>
+      <c r="C16" s="73">
+        <v>4.28</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="81">
+        <v>1</v>
+      </c>
+      <c r="F16" s="82"/>
+      <c r="G16" s="70">
+        <v>4</v>
+      </c>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="71"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A17" s="72"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="71"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A18" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="72"/>
+      <c r="C18" s="73">
+        <v>4.29</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="81">
+        <v>0.8</v>
+      </c>
+      <c r="F18" s="82"/>
+      <c r="G18" s="70">
+        <v>5</v>
+      </c>
+      <c r="H18" s="24"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="35"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A19" s="72"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="37"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A20" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="72"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="70">
+        <v>6</v>
+      </c>
+      <c r="H20" s="24"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="35"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A21" s="72"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="37"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A22" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="72"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="70">
+        <v>7</v>
+      </c>
+      <c r="H22" s="24"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="35"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A23" s="72"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="37"/>
+    </row>
+    <row r="24" spans="1:15" ht="16.899999999999999" x14ac:dyDescent="0.4">
+      <c r="A24" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="11"/>
+    </row>
+    <row r="25" spans="1:15" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A25" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="59"/>
+      <c r="N25" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="O25" s="12"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A26" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="67"/>
+      <c r="C26" s="13">
+        <v>5.2</v>
+      </c>
+      <c r="D26" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="68"/>
+      <c r="L26" s="68"/>
+      <c r="M26" s="68"/>
+      <c r="N26" s="22">
+        <v>1</v>
+      </c>
+      <c r="O26" s="11"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A27" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="63"/>
+      <c r="C27" s="15">
+        <v>5.3</v>
+      </c>
+      <c r="D27" s="69" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="69"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="69"/>
+      <c r="M27" s="69"/>
+      <c r="N27" s="23">
+        <v>1</v>
+      </c>
+      <c r="O27" s="17"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A28" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="67"/>
+      <c r="C28" s="13">
+        <v>5.4</v>
+      </c>
+      <c r="D28" s="68" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="68"/>
+      <c r="L28" s="68"/>
+      <c r="M28" s="68"/>
+      <c r="N28" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="O28" s="11"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A29" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="63"/>
+      <c r="C29" s="15">
+        <v>5.5</v>
+      </c>
+      <c r="D29" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="69"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="69"/>
+      <c r="L29" s="69"/>
+      <c r="M29" s="69"/>
+      <c r="N29" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="O29" s="17"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A30" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="67"/>
+      <c r="C30" s="13">
+        <v>5.6</v>
+      </c>
+      <c r="D30" s="68" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="68"/>
+      <c r="H30" s="68"/>
+      <c r="I30" s="68"/>
+      <c r="J30" s="68"/>
+      <c r="K30" s="68"/>
+      <c r="L30" s="68"/>
+      <c r="M30" s="68"/>
+      <c r="N30" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="O30" s="11"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A31" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="63"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="69"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="69"/>
+      <c r="J31" s="69"/>
+      <c r="K31" s="69"/>
+      <c r="L31" s="69"/>
+      <c r="M31" s="69"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="17"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A32" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="67"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="68"/>
+      <c r="H32" s="68"/>
+      <c r="I32" s="68"/>
+      <c r="J32" s="68"/>
+      <c r="K32" s="68"/>
+      <c r="L32" s="68"/>
+      <c r="M32" s="68"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="11"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A33" s="79" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="79"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="79"/>
+      <c r="E33" s="79"/>
+      <c r="F33" s="79"/>
+      <c r="G33" s="79"/>
+      <c r="H33" s="79"/>
+      <c r="I33" s="79"/>
+      <c r="J33" s="79"/>
+      <c r="K33" s="79"/>
+      <c r="L33" s="79"/>
+      <c r="M33" s="79"/>
+      <c r="N33" s="79"/>
+      <c r="O33" s="80"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A34" s="74" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" s="75"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="75"/>
+      <c r="J34" s="75"/>
+      <c r="K34" s="75"/>
+      <c r="L34" s="75"/>
+      <c r="M34" s="75"/>
+      <c r="N34" s="75"/>
+      <c r="O34" s="76"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A35" s="77"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="77"/>
+      <c r="J35" s="77"/>
+      <c r="K35" s="77"/>
+      <c r="L35" s="77"/>
+      <c r="M35" s="77"/>
+      <c r="N35" s="77"/>
+      <c r="O35" s="78"/>
+    </row>
+  </sheetData>
+  <mergeCells count="94">
+    <mergeCell ref="A33:O33"/>
+    <mergeCell ref="A34:O35"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:M30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:M32"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="L22:M23"/>
+    <mergeCell ref="N22:O23"/>
+    <mergeCell ref="A24:N24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:M25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:K23"/>
     <mergeCell ref="L18:M19"/>
     <mergeCell ref="N18:O19"/>
     <mergeCell ref="A20:B21"/>
@@ -3908,8 +4878,6 @@
     <mergeCell ref="H4:O4"/>
   </mergeCells>
   <phoneticPr fontId="38" type="noConversion"/>
-  <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.59027777777777779" bottom="0.39305555555555555" header="0.51111111111111107" footer="0.19652777777777777"/>
-  <pageSetup paperSize="9" scale="95" firstPageNumber="4294963191" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/周报/杨蔡胤-2018141472011.xlsx
+++ b/周报/杨蔡胤-2018141472011.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr checkCompatibility="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\desktop\软件项目管理\project\SotfwareManagement_CovidAid\周报\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9126C90F-8D68-44FB-955F-7EF782D798B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1B7A6B-8210-48AD-9DB2-76AD402FEDE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="18953" windowHeight="11265" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="第八周工作周报" sheetId="7" r:id="rId1"/>
     <sheet name="第九周工作周报" sheetId="9" r:id="rId2"/>
     <sheet name="第十周工作周报" sheetId="10" r:id="rId3"/>
+    <sheet name="第十二周工作周报" sheetId="12" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">第八周工作周报!$A$1:$O$35</definedName>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="95">
   <si>
     <t>本周工作总结</t>
   </si>
@@ -449,6 +450,87 @@
         <charset val="134"/>
       </rPr>
       <t>本周对系统的模块完成了基本实现，但在实现过程中也发现了运行瓶颈等性能上的问题。对此，我对系统的设计进行调整，计划引入分布式的架构提升系统的运行速度，并计划对设计文档进行修改重写。</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.10.</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPC原理学习</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>Raft一致性算法的学习与实现</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python现有的分布式框架并不方便使用，且自我实现困难</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续尝试，如果无法解决考虑使用跨语言RPC</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>python分布式框架的设计</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器的搭建</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>本周工作总结</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本周对系统的分布式模块进行了基本调研，总结了调研过程中发现的困难，并对解决方案进行的调研和定义，方便进一步设计实现</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>分布式模块的方法调研</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>分布式模块的算法调研</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>python分布式框架的具体学习</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">工作周报    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">日期：2022.5.13          </t>
     </r>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -1327,7 +1409,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1386,9 +1468,165 @@
     <xf numFmtId="9" fontId="32" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="18" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="23" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="24" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="22" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="21" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="13" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="13" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="26" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1401,161 +1639,17 @@
     <xf numFmtId="0" fontId="33" fillId="26" borderId="22" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="23" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="24" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="18" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="24" fillId="26" borderId="25" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="24" fillId="26" borderId="19" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="24" fillId="26" borderId="26" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="24" fillId="26" borderId="22" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="22" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="21" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="13" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="13" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="25" fillId="0" borderId="25" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1569,17 +1663,20 @@
     <xf numFmtId="9" fontId="25" fillId="0" borderId="22" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="24" fillId="26" borderId="25" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="24" fillId="26" borderId="19" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="24" fillId="26" borderId="26" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="24" fillId="26" borderId="22" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="18" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="19" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="20" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="21" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="22" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -2037,69 +2134,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="41"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="68"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="44"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="71"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
     </row>
     <row r="3" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="45" t="s">
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="47"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="74"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
@@ -2108,526 +2205,526 @@
       <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
       <c r="G4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="48" t="s">
+      <c r="H4" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="49"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="76"/>
       <c r="P4" s="7"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
       <c r="G5" s="8">
         <v>1</v>
       </c>
-      <c r="H5" s="51" t="s">
+      <c r="H5" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="52"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="63"/>
       <c r="P5" s="7"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="9">
         <v>2</v>
       </c>
-      <c r="H6" s="54" t="s">
+      <c r="H6" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="55"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="66"/>
       <c r="P6" s="7"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
       <c r="G7" s="8">
         <v>3</v>
       </c>
-      <c r="H7" s="51" t="s">
+      <c r="H7" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="52"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="63"/>
       <c r="P7" s="7"/>
     </row>
     <row r="8" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="56" t="s">
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="58"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="57"/>
       <c r="P8" s="7"/>
     </row>
     <row r="9" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
       <c r="D9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="61" t="s">
+      <c r="E9" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="62"/>
+      <c r="F9" s="60"/>
       <c r="G9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="59" t="s">
+      <c r="H9" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59" t="s">
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59" t="s">
+      <c r="M9" s="45"/>
+      <c r="N9" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="60"/>
+      <c r="O9" s="58"/>
       <c r="P9" s="7"/>
     </row>
     <row r="10" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="72"/>
-      <c r="C10" s="73">
+      <c r="B10" s="29"/>
+      <c r="C10" s="34">
         <v>4.1100000000000003</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="36">
         <v>1</v>
       </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="70">
+      <c r="F10" s="37"/>
+      <c r="G10" s="35">
         <v>1</v>
       </c>
-      <c r="H10" s="24" t="s">
+      <c r="H10" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24" t="s">
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24" t="s">
+      <c r="M10" s="30"/>
+      <c r="N10" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="O10" s="71"/>
+      <c r="O10" s="31"/>
       <c r="P10" s="7"/>
     </row>
     <row r="11" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="72"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="71"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="31"/>
       <c r="P11" s="7"/>
     </row>
     <row r="12" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="72"/>
-      <c r="C12" s="73">
+      <c r="B12" s="29"/>
+      <c r="C12" s="34">
         <v>4.12</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="31">
+      <c r="E12" s="36">
         <v>1</v>
       </c>
-      <c r="F12" s="32"/>
-      <c r="G12" s="70">
+      <c r="F12" s="37"/>
+      <c r="G12" s="35">
         <v>2</v>
       </c>
-      <c r="H12" s="24" t="s">
+      <c r="H12" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24" t="s">
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24" t="s">
+      <c r="M12" s="30"/>
+      <c r="N12" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="O12" s="71"/>
+      <c r="O12" s="31"/>
       <c r="P12" s="7"/>
     </row>
     <row r="13" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="72"/>
-      <c r="B13" s="72"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="71"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="31"/>
       <c r="P13" s="7"/>
     </row>
     <row r="14" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="72" t="s">
+      <c r="A14" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="72"/>
-      <c r="C14" s="73">
+      <c r="B14" s="29"/>
+      <c r="C14" s="34">
         <v>4.13</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="31">
+      <c r="E14" s="36">
         <v>0.6</v>
       </c>
-      <c r="F14" s="32"/>
-      <c r="G14" s="70">
+      <c r="F14" s="37"/>
+      <c r="G14" s="35">
         <v>3</v>
       </c>
-      <c r="H14" s="24" t="s">
+      <c r="H14" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24" t="s">
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24" t="s">
+      <c r="M14" s="30"/>
+      <c r="N14" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="O14" s="71"/>
+      <c r="O14" s="31"/>
       <c r="P14" s="7"/>
     </row>
     <row r="15" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="72"/>
-      <c r="B15" s="72"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="71"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="31"/>
       <c r="P15" s="7"/>
     </row>
     <row r="16" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="72" t="s">
+      <c r="A16" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="72"/>
-      <c r="C16" s="73">
+      <c r="B16" s="29"/>
+      <c r="C16" s="34">
         <v>4.1399999999999997</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="31">
+      <c r="E16" s="36">
         <v>1</v>
       </c>
-      <c r="F16" s="32"/>
-      <c r="G16" s="70">
+      <c r="F16" s="37"/>
+      <c r="G16" s="35">
         <v>4</v>
       </c>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="71"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="31"/>
       <c r="P16" s="7"/>
     </row>
     <row r="17" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="72"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="71"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="31"/>
       <c r="P17" s="7"/>
     </row>
     <row r="18" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="72" t="s">
+      <c r="A18" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="72"/>
-      <c r="C18" s="73">
+      <c r="B18" s="29"/>
+      <c r="C18" s="34">
         <v>4.1500000000000004</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="31">
+      <c r="E18" s="36">
         <v>0.3</v>
       </c>
-      <c r="F18" s="32"/>
-      <c r="G18" s="70">
+      <c r="F18" s="37"/>
+      <c r="G18" s="35">
         <v>5</v>
       </c>
-      <c r="H18" s="24"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="35"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="46"/>
       <c r="P18" s="7"/>
     </row>
     <row r="19" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="72"/>
-      <c r="B19" s="72"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="37"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="48"/>
       <c r="P19" s="7"/>
     </row>
     <row r="20" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="72" t="s">
+      <c r="A20" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="72"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="70">
+      <c r="B20" s="29"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="35">
         <v>6</v>
       </c>
-      <c r="H20" s="24"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="35"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="46"/>
       <c r="P20" s="7"/>
     </row>
     <row r="21" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="72"/>
-      <c r="B21" s="72"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="37"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="48"/>
       <c r="P21" s="7"/>
     </row>
     <row r="22" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="72" t="s">
+      <c r="A22" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="72"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="70">
+      <c r="B22" s="29"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="35">
         <v>7</v>
       </c>
-      <c r="H22" s="24"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="35"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="46"/>
       <c r="P22" s="7"/>
     </row>
     <row r="23" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="72"/>
-      <c r="B23" s="72"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="37"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="48"/>
       <c r="P23" s="7"/>
     </row>
     <row r="24" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="56" t="s">
+      <c r="A24" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="56"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="44"/>
       <c r="O24" s="11"/>
       <c r="P24" s="7"/>
     </row>
     <row r="25" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="59" t="s">
+      <c r="A25" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59" t="s">
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="59"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
       <c r="N25" s="21" t="s">
         <v>23</v>
       </c>
@@ -2635,25 +2732,25 @@
       <c r="P25" s="7"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="67" t="s">
+      <c r="A26" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="67"/>
+      <c r="B26" s="42"/>
       <c r="C26" s="13">
         <v>4.18</v>
       </c>
-      <c r="D26" s="68" t="s">
+      <c r="D26" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="68"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="68"/>
-      <c r="L26" s="68"/>
-      <c r="M26" s="68"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
       <c r="N26" s="22">
         <v>1</v>
       </c>
@@ -2661,25 +2758,25 @@
       <c r="P26" s="7"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="63" t="s">
+      <c r="A27" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="63"/>
+      <c r="B27" s="51"/>
       <c r="C27" s="15">
         <v>4.1900000000000004</v>
       </c>
-      <c r="D27" s="69" t="s">
+      <c r="D27" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="69"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="69"/>
-      <c r="L27" s="69"/>
-      <c r="M27" s="69"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="55"/>
       <c r="N27" s="23">
         <v>0.5</v>
       </c>
@@ -2687,25 +2784,25 @@
       <c r="P27" s="7"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="67" t="s">
+      <c r="A28" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="67"/>
+      <c r="B28" s="42"/>
       <c r="C28" s="13">
         <v>4.2</v>
       </c>
-      <c r="D28" s="68" t="s">
+      <c r="D28" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="68"/>
-      <c r="L28" s="68"/>
-      <c r="M28" s="68"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
       <c r="N28" s="22">
         <v>1</v>
       </c>
@@ -2713,25 +2810,25 @@
       <c r="P28" s="7"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="63" t="s">
+      <c r="A29" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="63"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="15">
         <v>4.21</v>
       </c>
-      <c r="D29" s="69" t="s">
+      <c r="D29" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="69"/>
-      <c r="J29" s="69"/>
-      <c r="K29" s="69"/>
-      <c r="L29" s="69"/>
-      <c r="M29" s="69"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="55"/>
       <c r="N29" s="23">
         <v>1</v>
       </c>
@@ -2739,25 +2836,25 @@
       <c r="P29" s="7"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="67" t="s">
+      <c r="A30" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="67"/>
+      <c r="B30" s="42"/>
       <c r="C30" s="13">
         <v>4.22</v>
       </c>
-      <c r="D30" s="68" t="s">
+      <c r="D30" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="68"/>
-      <c r="I30" s="68"/>
-      <c r="J30" s="68"/>
-      <c r="K30" s="68"/>
-      <c r="L30" s="68"/>
-      <c r="M30" s="68"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
       <c r="N30" s="22">
         <v>0.5</v>
       </c>
@@ -2765,25 +2862,25 @@
       <c r="P30" s="7"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="63" t="s">
+      <c r="A31" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="63"/>
+      <c r="B31" s="51"/>
       <c r="C31" s="15">
         <v>4.2300000000000004</v>
       </c>
-      <c r="D31" s="64" t="s">
+      <c r="D31" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="65"/>
-      <c r="K31" s="65"/>
-      <c r="L31" s="65"/>
-      <c r="M31" s="66"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="54"/>
       <c r="N31" s="23">
         <v>1</v>
       </c>
@@ -2791,25 +2888,25 @@
       <c r="P31" s="7"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="67" t="s">
+      <c r="A32" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="67"/>
+      <c r="B32" s="42"/>
       <c r="C32" s="13">
         <v>4.24</v>
       </c>
-      <c r="D32" s="68" t="s">
+      <c r="D32" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="E32" s="68"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="68"/>
-      <c r="H32" s="68"/>
-      <c r="I32" s="68"/>
-      <c r="J32" s="68"/>
-      <c r="K32" s="68"/>
-      <c r="L32" s="68"/>
-      <c r="M32" s="68"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="43"/>
       <c r="N32" s="22">
         <v>1</v>
       </c>
@@ -2817,61 +2914,61 @@
       <c r="P32" s="7"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="79" t="s">
+      <c r="A33" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="79"/>
-      <c r="C33" s="79"/>
-      <c r="D33" s="79"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="79"/>
-      <c r="I33" s="79"/>
-      <c r="J33" s="79"/>
-      <c r="K33" s="79"/>
-      <c r="L33" s="79"/>
-      <c r="M33" s="79"/>
-      <c r="N33" s="79"/>
-      <c r="O33" s="80"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="33"/>
       <c r="P33" s="7"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="74" t="s">
+      <c r="A34" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="75"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="75"/>
-      <c r="J34" s="75"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="75"/>
-      <c r="M34" s="75"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="76"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="25"/>
+      <c r="O34" s="26"/>
       <c r="P34" s="7"/>
     </row>
     <row r="35" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="77"/>
-      <c r="B35" s="77"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="77"/>
-      <c r="I35" s="77"/>
-      <c r="J35" s="77"/>
-      <c r="K35" s="77"/>
-      <c r="L35" s="77"/>
-      <c r="M35" s="77"/>
-      <c r="N35" s="77"/>
-      <c r="O35" s="78"/>
+      <c r="A35" s="27"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="28"/>
       <c r="P35" s="7"/>
     </row>
     <row r="36" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2904,6 +3001,84 @@
     </row>
   </sheetData>
   <mergeCells count="94">
+    <mergeCell ref="H10:K11"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="L20:M21"/>
+    <mergeCell ref="L22:M23"/>
+    <mergeCell ref="N20:O21"/>
+    <mergeCell ref="N22:O23"/>
+    <mergeCell ref="H18:K19"/>
+    <mergeCell ref="L18:M19"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:O8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:M32"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="N10:O11"/>
+    <mergeCell ref="L12:M13"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:M30"/>
+    <mergeCell ref="A24:N24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:M25"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="N18:O19"/>
+    <mergeCell ref="H20:K21"/>
+    <mergeCell ref="H22:K23"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="L10:M11"/>
+    <mergeCell ref="L14:M15"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="H12:K13"/>
+    <mergeCell ref="H14:K15"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:F13"/>
     <mergeCell ref="A34:O35"/>
     <mergeCell ref="A18:B19"/>
     <mergeCell ref="A20:B21"/>
@@ -2920,84 +3095,6 @@
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="G16:G17"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="E10:F11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:F13"/>
-    <mergeCell ref="L14:M15"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="H12:K13"/>
-    <mergeCell ref="H14:K15"/>
-    <mergeCell ref="N10:O11"/>
-    <mergeCell ref="L12:M13"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:M30"/>
-    <mergeCell ref="A24:N24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:M25"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D26:M26"/>
-    <mergeCell ref="N18:O19"/>
-    <mergeCell ref="H20:K21"/>
-    <mergeCell ref="H22:K23"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A10:B11"/>
-    <mergeCell ref="L10:M11"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:M31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:M32"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:M27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:M28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:M29"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="G8:O8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="H5:O5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="H6:O6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:O3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="H4:O4"/>
-    <mergeCell ref="L20:M21"/>
-    <mergeCell ref="L22:M23"/>
-    <mergeCell ref="N20:O21"/>
-    <mergeCell ref="N22:O23"/>
-    <mergeCell ref="H18:K19"/>
-    <mergeCell ref="L18:M19"/>
-    <mergeCell ref="H10:K11"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E14:F15"/>
-    <mergeCell ref="E16:F17"/>
-    <mergeCell ref="E18:F19"/>
-    <mergeCell ref="E20:F21"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="G20:G21"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.59027777777777779" bottom="0.39305555555555555" header="0.51111111111111107" footer="0.19652777777777777"/>
@@ -3038,69 +3135,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="41"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="68"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="44"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="71"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
     </row>
     <row r="3" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="45" t="s">
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="47"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="74"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
@@ -3109,524 +3206,524 @@
       <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
       <c r="G4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="48" t="s">
+      <c r="H4" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="49"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="76"/>
       <c r="P4" s="7"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
       <c r="G5" s="8">
         <v>1</v>
       </c>
-      <c r="H5" s="51" t="s">
+      <c r="H5" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="52"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="63"/>
       <c r="P5" s="7"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="9">
         <v>2</v>
       </c>
-      <c r="H6" s="54" t="s">
+      <c r="H6" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="55"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="66"/>
       <c r="P6" s="7"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
       <c r="G7" s="8">
         <v>3</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="52"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="63"/>
       <c r="P7" s="7"/>
     </row>
     <row r="8" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="56" t="s">
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="58"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="57"/>
       <c r="P8" s="7"/>
     </row>
     <row r="9" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
       <c r="D9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="61" t="s">
+      <c r="E9" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="62"/>
+      <c r="F9" s="60"/>
       <c r="G9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="59" t="s">
+      <c r="H9" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59" t="s">
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59" t="s">
+      <c r="M9" s="45"/>
+      <c r="N9" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="60"/>
+      <c r="O9" s="58"/>
       <c r="P9" s="7"/>
     </row>
     <row r="10" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="72"/>
-      <c r="C10" s="73">
+      <c r="B10" s="29"/>
+      <c r="C10" s="34">
         <v>4.18</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="81">
+      <c r="E10" s="85">
         <v>1</v>
       </c>
-      <c r="F10" s="82"/>
-      <c r="G10" s="70">
+      <c r="F10" s="86"/>
+      <c r="G10" s="35">
         <v>1</v>
       </c>
-      <c r="H10" s="24" t="s">
+      <c r="H10" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24" t="s">
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24" t="s">
+      <c r="M10" s="30"/>
+      <c r="N10" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="O10" s="71"/>
+      <c r="O10" s="31"/>
       <c r="P10" s="7"/>
     </row>
     <row r="11" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="72"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="71"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="31"/>
       <c r="P11" s="7"/>
     </row>
     <row r="12" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="72"/>
-      <c r="C12" s="73">
+      <c r="B12" s="29"/>
+      <c r="C12" s="34">
         <v>4.1900000000000004</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="85">
+      <c r="E12" s="81">
         <v>0.3</v>
       </c>
-      <c r="F12" s="86"/>
-      <c r="G12" s="70">
+      <c r="F12" s="82"/>
+      <c r="G12" s="35">
         <v>2</v>
       </c>
-      <c r="H12" s="24" t="s">
+      <c r="H12" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24" t="s">
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24" t="s">
+      <c r="M12" s="30"/>
+      <c r="N12" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="O12" s="71"/>
+      <c r="O12" s="31"/>
       <c r="P12" s="7"/>
     </row>
     <row r="13" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="72"/>
-      <c r="B13" s="72"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="71"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="31"/>
       <c r="P13" s="7"/>
     </row>
     <row r="14" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="72" t="s">
+      <c r="A14" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="72"/>
-      <c r="C14" s="73">
+      <c r="B14" s="29"/>
+      <c r="C14" s="34">
         <v>4.2</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="81">
+      <c r="E14" s="85">
         <v>0.8</v>
       </c>
-      <c r="F14" s="82"/>
-      <c r="G14" s="70">
+      <c r="F14" s="86"/>
+      <c r="G14" s="35">
         <v>3</v>
       </c>
-      <c r="H14" s="24" t="s">
+      <c r="H14" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24" t="s">
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24" t="s">
+      <c r="M14" s="30"/>
+      <c r="N14" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="O14" s="71"/>
+      <c r="O14" s="31"/>
       <c r="P14" s="7"/>
     </row>
     <row r="15" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="72"/>
-      <c r="B15" s="72"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="71"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="31"/>
       <c r="P15" s="7"/>
     </row>
     <row r="16" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="72" t="s">
+      <c r="A16" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="72"/>
-      <c r="C16" s="73">
+      <c r="B16" s="29"/>
+      <c r="C16" s="34">
         <v>4.21</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="81">
+      <c r="E16" s="85">
         <v>1</v>
       </c>
-      <c r="F16" s="82"/>
-      <c r="G16" s="70">
+      <c r="F16" s="86"/>
+      <c r="G16" s="35">
         <v>4</v>
       </c>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="71"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="31"/>
       <c r="P16" s="7"/>
     </row>
     <row r="17" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="72"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="71"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="31"/>
       <c r="P17" s="7"/>
     </row>
     <row r="18" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="72" t="s">
+      <c r="A18" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="72"/>
-      <c r="C18" s="73">
+      <c r="B18" s="29"/>
+      <c r="C18" s="34">
         <v>4.22</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="81">
+      <c r="E18" s="85">
         <v>1</v>
       </c>
-      <c r="F18" s="82"/>
-      <c r="G18" s="70">
+      <c r="F18" s="86"/>
+      <c r="G18" s="35">
         <v>5</v>
       </c>
-      <c r="H18" s="24"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="35"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="46"/>
       <c r="P18" s="7"/>
     </row>
     <row r="19" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="72"/>
-      <c r="B19" s="72"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="37"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="48"/>
       <c r="P19" s="7"/>
     </row>
     <row r="20" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="72" t="s">
+      <c r="A20" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="72"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="70">
+      <c r="B20" s="29"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="35">
         <v>6</v>
       </c>
-      <c r="H20" s="24"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="35"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="46"/>
       <c r="P20" s="7"/>
     </row>
     <row r="21" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="72"/>
-      <c r="B21" s="72"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="37"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="48"/>
       <c r="P21" s="7"/>
     </row>
     <row r="22" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="72" t="s">
+      <c r="A22" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="72"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="70">
+      <c r="B22" s="29"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="35">
         <v>7</v>
       </c>
-      <c r="H22" s="24"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="35"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="46"/>
       <c r="P22" s="7"/>
     </row>
     <row r="23" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="72"/>
-      <c r="B23" s="72"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="37"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="48"/>
       <c r="P23" s="7"/>
     </row>
     <row r="24" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="56" t="s">
+      <c r="A24" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="56"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="44"/>
       <c r="O24" s="11"/>
       <c r="P24" s="7"/>
     </row>
     <row r="25" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="59" t="s">
+      <c r="A25" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59" t="s">
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="59"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
       <c r="N25" s="21" t="s">
         <v>23</v>
       </c>
@@ -3634,25 +3731,25 @@
       <c r="P25" s="7"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="67" t="s">
+      <c r="A26" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="67"/>
+      <c r="B26" s="42"/>
       <c r="C26" s="13">
         <v>4.25</v>
       </c>
-      <c r="D26" s="68" t="s">
+      <c r="D26" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="68"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="68"/>
-      <c r="L26" s="68"/>
-      <c r="M26" s="68"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
       <c r="N26" s="22">
         <v>0.3</v>
       </c>
@@ -3660,25 +3757,25 @@
       <c r="P26" s="7"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="63" t="s">
+      <c r="A27" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="63"/>
+      <c r="B27" s="51"/>
       <c r="C27" s="15">
         <v>4.26</v>
       </c>
-      <c r="D27" s="69" t="s">
+      <c r="D27" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="69"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="69"/>
-      <c r="L27" s="69"/>
-      <c r="M27" s="69"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="55"/>
       <c r="N27" s="23">
         <v>0.6</v>
       </c>
@@ -3686,25 +3783,25 @@
       <c r="P27" s="7"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="67" t="s">
+      <c r="A28" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="67"/>
+      <c r="B28" s="42"/>
       <c r="C28" s="13">
         <v>4.2699999999999996</v>
       </c>
-      <c r="D28" s="68" t="s">
+      <c r="D28" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="68"/>
-      <c r="L28" s="68"/>
-      <c r="M28" s="68"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
       <c r="N28" s="22">
         <v>1</v>
       </c>
@@ -3712,25 +3809,25 @@
       <c r="P28" s="7"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="63" t="s">
+      <c r="A29" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="63"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="15">
         <v>4.28</v>
       </c>
-      <c r="D29" s="69" t="s">
+      <c r="D29" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="69"/>
-      <c r="J29" s="69"/>
-      <c r="K29" s="69"/>
-      <c r="L29" s="69"/>
-      <c r="M29" s="69"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="55"/>
       <c r="N29" s="23">
         <v>1</v>
       </c>
@@ -3738,25 +3835,25 @@
       <c r="P29" s="7"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="67" t="s">
+      <c r="A30" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="67"/>
+      <c r="B30" s="42"/>
       <c r="C30" s="13">
         <v>4.29</v>
       </c>
-      <c r="D30" s="68" t="s">
+      <c r="D30" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="68"/>
-      <c r="I30" s="68"/>
-      <c r="J30" s="68"/>
-      <c r="K30" s="68"/>
-      <c r="L30" s="68"/>
-      <c r="M30" s="68"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
       <c r="N30" s="22">
         <v>1</v>
       </c>
@@ -3764,101 +3861,101 @@
       <c r="P30" s="7"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="63" t="s">
+      <c r="A31" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="63"/>
+      <c r="B31" s="51"/>
       <c r="C31" s="15"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="69"/>
-      <c r="H31" s="69"/>
-      <c r="I31" s="69"/>
-      <c r="J31" s="69"/>
-      <c r="K31" s="69"/>
-      <c r="L31" s="69"/>
-      <c r="M31" s="69"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="55"/>
       <c r="N31" s="16"/>
       <c r="O31" s="17"/>
       <c r="P31" s="7"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="67" t="s">
+      <c r="A32" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="67"/>
+      <c r="B32" s="42"/>
       <c r="C32" s="13"/>
-      <c r="D32" s="68"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="68"/>
-      <c r="H32" s="68"/>
-      <c r="I32" s="68"/>
-      <c r="J32" s="68"/>
-      <c r="K32" s="68"/>
-      <c r="L32" s="68"/>
-      <c r="M32" s="68"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="43"/>
       <c r="N32" s="14"/>
       <c r="O32" s="11"/>
       <c r="P32" s="7"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="79" t="s">
+      <c r="A33" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="79"/>
-      <c r="C33" s="79"/>
-      <c r="D33" s="79"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="79"/>
-      <c r="I33" s="79"/>
-      <c r="J33" s="79"/>
-      <c r="K33" s="79"/>
-      <c r="L33" s="79"/>
-      <c r="M33" s="79"/>
-      <c r="N33" s="79"/>
-      <c r="O33" s="80"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="33"/>
       <c r="P33" s="7"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="74" t="s">
+      <c r="A34" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="75"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="75"/>
-      <c r="J34" s="75"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="75"/>
-      <c r="M34" s="75"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="76"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="25"/>
+      <c r="O34" s="26"/>
       <c r="P34" s="7"/>
     </row>
     <row r="35" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="77"/>
-      <c r="B35" s="77"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="77"/>
-      <c r="I35" s="77"/>
-      <c r="J35" s="77"/>
-      <c r="K35" s="77"/>
-      <c r="L35" s="77"/>
-      <c r="M35" s="77"/>
-      <c r="N35" s="77"/>
-      <c r="O35" s="78"/>
+      <c r="A35" s="27"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="28"/>
       <c r="P35" s="7"/>
     </row>
     <row r="36" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3888,6 +3985,897 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D40" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="94">
+    <mergeCell ref="A34:O35"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:M30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:M32"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="A33:O33"/>
+    <mergeCell ref="N22:O23"/>
+    <mergeCell ref="A24:N24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:M25"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:K23"/>
+    <mergeCell ref="L22:M23"/>
+    <mergeCell ref="L18:M19"/>
+    <mergeCell ref="N18:O19"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:K21"/>
+    <mergeCell ref="L20:M21"/>
+    <mergeCell ref="N20:O21"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:K19"/>
+    <mergeCell ref="L14:M15"/>
+    <mergeCell ref="N14:O15"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:K17"/>
+    <mergeCell ref="L16:M17"/>
+    <mergeCell ref="N16:O17"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:K15"/>
+    <mergeCell ref="L10:M11"/>
+    <mergeCell ref="N10:O11"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:K13"/>
+    <mergeCell ref="L12:M13"/>
+    <mergeCell ref="N12:O13"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:K11"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:O8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:O4"/>
+  </mergeCells>
+  <phoneticPr fontId="38" type="noConversion"/>
+  <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.59027777777777779" bottom="0.39305555555555555" header="0.51111111111111107" footer="0.19652777777777777"/>
+  <pageSetup paperSize="9" scale="95" firstPageNumber="4294963191" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B72793-B9A8-4727-9EDF-9B3C7969D70C}">
+  <dimension ref="A1:O35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:O35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:15" ht="22.9" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="68"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A2" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="71"/>
+    </row>
+    <row r="3" spans="1:15" ht="16.899999999999999" x14ac:dyDescent="0.4">
+      <c r="A3" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="74"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A4" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="75" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="76"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A5" s="8">
+        <v>1</v>
+      </c>
+      <c r="B5" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="8">
+        <v>1</v>
+      </c>
+      <c r="H5" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="63"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A6" s="9">
+        <v>2</v>
+      </c>
+      <c r="B6" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="9">
+        <v>2</v>
+      </c>
+      <c r="H6" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="66"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A7" s="8">
+        <v>3</v>
+      </c>
+      <c r="B7" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="8">
+        <v>3</v>
+      </c>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="63"/>
+    </row>
+    <row r="8" spans="1:15" ht="16.899999999999999" x14ac:dyDescent="0.4">
+      <c r="A8" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="57"/>
+    </row>
+    <row r="9" spans="1:15" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A9" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="60"/>
+      <c r="G9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" s="58"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A10" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="29"/>
+      <c r="C10" s="34">
+        <v>4.25</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="85">
+        <v>0.4</v>
+      </c>
+      <c r="F10" s="86"/>
+      <c r="G10" s="35">
+        <v>1</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="O10" s="31"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="31"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A12" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="29"/>
+      <c r="C12" s="34">
+        <v>4.26</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="81">
+        <v>0.7</v>
+      </c>
+      <c r="F12" s="82"/>
+      <c r="G12" s="35">
+        <v>2</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="O12" s="31"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="31"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A14" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="29"/>
+      <c r="C14" s="34">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="85">
+        <v>1</v>
+      </c>
+      <c r="F14" s="86"/>
+      <c r="G14" s="35">
+        <v>3</v>
+      </c>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="31"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="31"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A16" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="29"/>
+      <c r="C16" s="34">
+        <v>4.28</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="85">
+        <v>1</v>
+      </c>
+      <c r="F16" s="86"/>
+      <c r="G16" s="35">
+        <v>4</v>
+      </c>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="31"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="31"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A18" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="29"/>
+      <c r="C18" s="34">
+        <v>4.29</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="85">
+        <v>0.8</v>
+      </c>
+      <c r="F18" s="86"/>
+      <c r="G18" s="35">
+        <v>5</v>
+      </c>
+      <c r="H18" s="30"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="46"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="48"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A20" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="29"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="35">
+        <v>6</v>
+      </c>
+      <c r="H20" s="30"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="46"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="48"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A22" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="29"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="35">
+        <v>7</v>
+      </c>
+      <c r="H22" s="30"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="46"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="48"/>
+    </row>
+    <row r="24" spans="1:15" ht="16.899999999999999" x14ac:dyDescent="0.4">
+      <c r="A24" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="11"/>
+    </row>
+    <row r="25" spans="1:15" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A25" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="O25" s="12"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A26" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="42"/>
+      <c r="C26" s="13">
+        <v>5.2</v>
+      </c>
+      <c r="D26" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="22">
+        <v>1</v>
+      </c>
+      <c r="O26" s="11"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A27" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="51"/>
+      <c r="C27" s="15">
+        <v>5.3</v>
+      </c>
+      <c r="D27" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="55"/>
+      <c r="N27" s="23">
+        <v>1</v>
+      </c>
+      <c r="O27" s="17"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A28" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="42"/>
+      <c r="C28" s="13">
+        <v>5.4</v>
+      </c>
+      <c r="D28" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="O28" s="11"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A29" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="51"/>
+      <c r="C29" s="15">
+        <v>5.5</v>
+      </c>
+      <c r="D29" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="O29" s="17"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A30" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="42"/>
+      <c r="C30" s="13">
+        <v>5.6</v>
+      </c>
+      <c r="D30" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="O30" s="11"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A31" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="51"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="55"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="17"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A32" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="42"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="43"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="11"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A33" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="33"/>
+    </row>
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" s="89"/>
+      <c r="C34" s="89"/>
+      <c r="D34" s="89"/>
+      <c r="E34" s="89"/>
+      <c r="F34" s="89"/>
+      <c r="G34" s="89"/>
+      <c r="H34" s="89"/>
+      <c r="I34" s="89"/>
+      <c r="J34" s="89"/>
+      <c r="K34" s="89"/>
+      <c r="L34" s="89"/>
+      <c r="M34" s="89"/>
+      <c r="N34" s="89"/>
+      <c r="O34" s="90"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A35" s="91"/>
+      <c r="B35" s="92"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="92"/>
+      <c r="F35" s="92"/>
+      <c r="G35" s="92"/>
+      <c r="H35" s="92"/>
+      <c r="I35" s="92"/>
+      <c r="J35" s="92"/>
+      <c r="K35" s="92"/>
+      <c r="L35" s="92"/>
+      <c r="M35" s="92"/>
+      <c r="N35" s="92"/>
+      <c r="O35" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="94">
@@ -3958,12 +4946,6 @@
     <mergeCell ref="E18:F19"/>
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="H18:K19"/>
-    <mergeCell ref="N22:O23"/>
-    <mergeCell ref="A24:N24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:M25"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:M27"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="D26:M26"/>
     <mergeCell ref="A22:B23"/>
@@ -3973,6 +4955,12 @@
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="H22:K23"/>
     <mergeCell ref="L22:M23"/>
+    <mergeCell ref="N22:O23"/>
+    <mergeCell ref="A24:N24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:M25"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:M27"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="D28:M28"/>
     <mergeCell ref="A29:B29"/>
@@ -3987,798 +4975,788 @@
     <mergeCell ref="D32:M32"/>
   </mergeCells>
   <phoneticPr fontId="38" type="noConversion"/>
-  <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.59027777777777779" bottom="0.39305555555555555" header="0.51111111111111107" footer="0.19652777777777777"/>
-  <pageSetup paperSize="9" scale="95" firstPageNumber="4294963191" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B72793-B9A8-4727-9EDF-9B3C7969D70C}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A569239-7554-4BEA-8682-11343A0748D9}">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:O35"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:15" ht="22.9" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="41"/>
+      <c r="A1" s="67" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="68"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="44"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="71"/>
     </row>
     <row r="3" spans="1:15" ht="16.899999999999999" x14ac:dyDescent="0.4">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="45" t="s">
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="47"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="74"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
       <c r="G4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="48" t="s">
+      <c r="H4" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="49"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="76"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
+      <c r="B5" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
       <c r="G5" s="8">
         <v>1</v>
       </c>
-      <c r="H5" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="52"/>
+      <c r="H5" s="62" t="s">
+        <v>93</v>
+      </c>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="63"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
+      <c r="B6" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="9">
         <v>2</v>
       </c>
-      <c r="H6" s="54" t="s">
+      <c r="H6" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="55"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="66"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
       <c r="G7" s="8">
         <v>3</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="52"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="63"/>
     </row>
     <row r="8" spans="1:15" ht="16.899999999999999" x14ac:dyDescent="0.4">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="56" t="s">
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="58"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="57"/>
     </row>
     <row r="9" spans="1:15" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
       <c r="D9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="61" t="s">
+      <c r="E9" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="62"/>
+      <c r="F9" s="60"/>
       <c r="G9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="59" t="s">
+      <c r="H9" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59" t="s">
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59" t="s">
+      <c r="M9" s="45"/>
+      <c r="N9" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="60"/>
+      <c r="O9" s="58"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="72"/>
-      <c r="C10" s="73">
-        <v>4.25</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10" s="81">
+      <c r="B10" s="29"/>
+      <c r="C10" s="34">
+        <v>5.09</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="85">
         <v>0.4</v>
       </c>
-      <c r="F10" s="82"/>
-      <c r="G10" s="70">
+      <c r="F10" s="86"/>
+      <c r="G10" s="35">
         <v>1</v>
       </c>
-      <c r="H10" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24" t="s">
+      <c r="H10" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="O10" s="71"/>
+      <c r="O10" s="31"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A11" s="72"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="71"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="31"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="72"/>
-      <c r="C12" s="73">
-        <v>4.26</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="85">
+      <c r="B12" s="29"/>
+      <c r="C12" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="81">
         <v>0.7</v>
       </c>
-      <c r="F12" s="86"/>
-      <c r="G12" s="70">
+      <c r="F12" s="82"/>
+      <c r="G12" s="35">
         <v>2</v>
       </c>
-      <c r="H12" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="O12" s="71"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="31"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A13" s="72"/>
-      <c r="B13" s="72"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="71"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="31"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A14" s="72" t="s">
+      <c r="A14" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="72"/>
-      <c r="C14" s="73">
-        <v>4.2699999999999996</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" s="81">
-        <v>1</v>
-      </c>
-      <c r="F14" s="82"/>
-      <c r="G14" s="70">
+      <c r="B14" s="29"/>
+      <c r="C14" s="34">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="85">
+        <v>0.2</v>
+      </c>
+      <c r="F14" s="86"/>
+      <c r="G14" s="35">
         <v>3</v>
       </c>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="71"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="31"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A15" s="72"/>
-      <c r="B15" s="72"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="71"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A16" s="72" t="s">
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="31"/>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="72"/>
-      <c r="C16" s="73">
-        <v>4.28</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" s="81">
-        <v>1</v>
-      </c>
-      <c r="F16" s="82"/>
-      <c r="G16" s="70">
+      <c r="B16" s="29"/>
+      <c r="C16" s="34">
+        <v>5.12</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="85">
+        <v>0.3</v>
+      </c>
+      <c r="F16" s="86"/>
+      <c r="G16" s="35">
         <v>4</v>
       </c>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="71"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="31"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A17" s="72"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="71"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A18" s="72" t="s">
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="31"/>
+    </row>
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="72"/>
-      <c r="C18" s="73">
-        <v>4.29</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" s="81">
-        <v>0.8</v>
-      </c>
-      <c r="F18" s="82"/>
-      <c r="G18" s="70">
+      <c r="B18" s="29"/>
+      <c r="C18" s="34">
+        <v>5.13</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="85">
+        <v>0.6</v>
+      </c>
+      <c r="F18" s="86"/>
+      <c r="G18" s="35">
         <v>5</v>
       </c>
-      <c r="H18" s="24"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="35"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="46"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A19" s="72"/>
-      <c r="B19" s="72"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="37"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="48"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A20" s="72" t="s">
+      <c r="A20" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="72"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="70">
+      <c r="B20" s="29"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="35">
         <v>6</v>
       </c>
-      <c r="H20" s="24"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="35"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="46"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A21" s="72"/>
-      <c r="B21" s="72"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="37"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="48"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A22" s="72" t="s">
+      <c r="A22" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="72"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="70">
+      <c r="B22" s="29"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="35">
         <v>7</v>
       </c>
-      <c r="H22" s="24"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="35"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="46"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A23" s="72"/>
-      <c r="B23" s="72"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="37"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="48"/>
     </row>
     <row r="24" spans="1:15" ht="16.899999999999999" x14ac:dyDescent="0.4">
-      <c r="A24" s="56" t="s">
+      <c r="A24" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="56"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="44"/>
       <c r="O24" s="11"/>
     </row>
     <row r="25" spans="1:15" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A25" s="59" t="s">
+      <c r="A25" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59" t="s">
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="59"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
       <c r="N25" s="21" t="s">
         <v>23</v>
       </c>
       <c r="O25" s="12"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A26" s="67" t="s">
+      <c r="A26" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="67"/>
+      <c r="B26" s="42"/>
       <c r="C26" s="13">
+        <v>5.16</v>
+      </c>
+      <c r="D26" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="O26" s="11"/>
+    </row>
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="51"/>
+      <c r="C27" s="15">
+        <v>5.17</v>
+      </c>
+      <c r="D27" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="23">
+        <v>0.6</v>
+      </c>
+      <c r="O27" s="17"/>
+    </row>
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="42"/>
+      <c r="C28" s="13">
+        <v>5.18</v>
+      </c>
+      <c r="D28" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="22">
+        <v>1</v>
+      </c>
+      <c r="O28" s="11"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A29" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="51"/>
+      <c r="C29" s="15">
+        <v>5.19</v>
+      </c>
+      <c r="D29" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="O29" s="17"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A30" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="42"/>
+      <c r="C30" s="13">
         <v>5.2</v>
       </c>
-      <c r="D26" s="68" t="s">
-        <v>73</v>
-      </c>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="68"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="68"/>
-      <c r="L26" s="68"/>
-      <c r="M26" s="68"/>
-      <c r="N26" s="22">
-        <v>1</v>
-      </c>
-      <c r="O26" s="11"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A27" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="63"/>
-      <c r="C27" s="15">
-        <v>5.3</v>
-      </c>
-      <c r="D27" s="69" t="s">
-        <v>80</v>
-      </c>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="69"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="69"/>
-      <c r="L27" s="69"/>
-      <c r="M27" s="69"/>
-      <c r="N27" s="23">
-        <v>1</v>
-      </c>
-      <c r="O27" s="17"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A28" s="67" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="67"/>
-      <c r="C28" s="13">
-        <v>5.4</v>
-      </c>
-      <c r="D28" s="68" t="s">
-        <v>81</v>
-      </c>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="68"/>
-      <c r="L28" s="68"/>
-      <c r="M28" s="68"/>
-      <c r="N28" s="22">
-        <v>0.2</v>
-      </c>
-      <c r="O28" s="11"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A29" s="63" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="63"/>
-      <c r="C29" s="15">
-        <v>5.5</v>
-      </c>
-      <c r="D29" s="69" t="s">
-        <v>81</v>
-      </c>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="69"/>
-      <c r="J29" s="69"/>
-      <c r="K29" s="69"/>
-      <c r="L29" s="69"/>
-      <c r="M29" s="69"/>
-      <c r="N29" s="23">
-        <v>0.4</v>
-      </c>
-      <c r="O29" s="17"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A30" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" s="67"/>
-      <c r="C30" s="13">
-        <v>5.6</v>
-      </c>
-      <c r="D30" s="68" t="s">
-        <v>81</v>
-      </c>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="68"/>
-      <c r="I30" s="68"/>
-      <c r="J30" s="68"/>
-      <c r="K30" s="68"/>
-      <c r="L30" s="68"/>
-      <c r="M30" s="68"/>
+      <c r="D30" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
       <c r="N30" s="22">
         <v>0.6</v>
       </c>
       <c r="O30" s="11"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A31" s="63" t="s">
+      <c r="A31" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="63"/>
+      <c r="B31" s="51"/>
       <c r="C31" s="15"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="69"/>
-      <c r="H31" s="69"/>
-      <c r="I31" s="69"/>
-      <c r="J31" s="69"/>
-      <c r="K31" s="69"/>
-      <c r="L31" s="69"/>
-      <c r="M31" s="69"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="55"/>
       <c r="N31" s="16"/>
       <c r="O31" s="17"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A32" s="67" t="s">
+      <c r="A32" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="67"/>
+      <c r="B32" s="42"/>
       <c r="C32" s="13"/>
-      <c r="D32" s="68"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="68"/>
-      <c r="H32" s="68"/>
-      <c r="I32" s="68"/>
-      <c r="J32" s="68"/>
-      <c r="K32" s="68"/>
-      <c r="L32" s="68"/>
-      <c r="M32" s="68"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="43"/>
       <c r="N32" s="14"/>
       <c r="O32" s="11"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A33" s="79" t="s">
+      <c r="A33" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="79"/>
-      <c r="C33" s="79"/>
-      <c r="D33" s="79"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="79"/>
-      <c r="I33" s="79"/>
-      <c r="J33" s="79"/>
-      <c r="K33" s="79"/>
-      <c r="L33" s="79"/>
-      <c r="M33" s="79"/>
-      <c r="N33" s="79"/>
-      <c r="O33" s="80"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A34" s="74" t="s">
-        <v>82</v>
-      </c>
-      <c r="B34" s="75"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="75"/>
-      <c r="J34" s="75"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="75"/>
-      <c r="M34" s="75"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="76"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="33"/>
+    </row>
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" s="89"/>
+      <c r="C34" s="89"/>
+      <c r="D34" s="89"/>
+      <c r="E34" s="89"/>
+      <c r="F34" s="89"/>
+      <c r="G34" s="89"/>
+      <c r="H34" s="89"/>
+      <c r="I34" s="89"/>
+      <c r="J34" s="89"/>
+      <c r="K34" s="89"/>
+      <c r="L34" s="89"/>
+      <c r="M34" s="89"/>
+      <c r="N34" s="89"/>
+      <c r="O34" s="90"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A35" s="77"/>
-      <c r="B35" s="77"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="77"/>
-      <c r="I35" s="77"/>
-      <c r="J35" s="77"/>
-      <c r="K35" s="77"/>
-      <c r="L35" s="77"/>
-      <c r="M35" s="77"/>
-      <c r="N35" s="77"/>
-      <c r="O35" s="78"/>
+      <c r="A35" s="91"/>
+      <c r="B35" s="92"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="92"/>
+      <c r="F35" s="92"/>
+      <c r="G35" s="92"/>
+      <c r="H35" s="92"/>
+      <c r="I35" s="92"/>
+      <c r="J35" s="92"/>
+      <c r="K35" s="92"/>
+      <c r="L35" s="92"/>
+      <c r="M35" s="92"/>
+      <c r="N35" s="92"/>
+      <c r="O35" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="94">

--- a/周报/杨蔡胤-2018141472011.xlsx
+++ b/周报/杨蔡胤-2018141472011.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\desktop\软件项目管理\project\SotfwareManagement_CovidAid\周报\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1B7A6B-8210-48AD-9DB2-76AD402FEDE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B52AB43-1D2F-4A13-84CC-31F5C50DA632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="15" windowWidth="18953" windowHeight="11265" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="第八周工作周报" sheetId="7" r:id="rId1"/>
     <sheet name="第九周工作周报" sheetId="9" r:id="rId2"/>
     <sheet name="第十周工作周报" sheetId="10" r:id="rId3"/>
-    <sheet name="第十二周工作周报" sheetId="12" r:id="rId4"/>
+    <sheet name="第十一周工作周报" sheetId="14" r:id="rId4"/>
+    <sheet name="第十二周工作周报" sheetId="12" r:id="rId5"/>
+    <sheet name="第十三周工作周报" sheetId="16" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">第八周工作周报!$A$1:$O$35</definedName>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="110">
   <si>
     <t>本周工作总结</t>
   </si>
@@ -534,11 +536,140 @@
     </r>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">工作周报    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">日期：2022.5.6         </t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>假期工作效率较低</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计说明书的实现</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码的重构、注释</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>本周工作总结</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本周由于假期，工作热情和效率都比较低，因此主要对之前的工作做了一些收尾和整理</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPC实现了解</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息队列学习</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>zookeeper学习</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划使用java进行跨语言RPC，使用thrift框架</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>java的实现</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>本周工作总结</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本周学习了常用的分布式框架，并尝试引入一些设计理念到系统之中。</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>常用分布式相关框架的学习</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">工作周报    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">日期：2022.5.20          </t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>框架的思路设计</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>python分布式框架的具体实现</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
   <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -966,7 +1097,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1280,6 +1411,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
@@ -1409,7 +1553,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1468,6 +1612,156 @@
     <xf numFmtId="9" fontId="32" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="21" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="22" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="23" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="24" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="18" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="22" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="21" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="13" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="13" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1483,161 +1777,23 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="25" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="18" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="19" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="26" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="22" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="23" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="24" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="22" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="21" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="13" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="13" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="21" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="22" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="24" fillId="26" borderId="25" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1651,18 +1807,6 @@
     <xf numFmtId="9" fontId="24" fillId="26" borderId="22" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="25" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="19" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="26" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="22" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="24" borderId="18" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1677,6 +1821,15 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="24" borderId="22" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="33" fillId="26" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="27" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -2134,69 +2287,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="68"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="42"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="71"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="45"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
     </row>
     <row r="3" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="72" t="s">
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="74"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="48"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
@@ -2205,526 +2358,526 @@
       <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
       <c r="G4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="75" t="s">
+      <c r="H4" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="76"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="50"/>
       <c r="P4" s="7"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
       <c r="G5" s="8">
         <v>1</v>
       </c>
-      <c r="H5" s="62" t="s">
+      <c r="H5" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="63"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="53"/>
       <c r="P5" s="7"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
       <c r="G6" s="9">
         <v>2</v>
       </c>
-      <c r="H6" s="65" t="s">
+      <c r="H6" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="65"/>
-      <c r="O6" s="66"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="56"/>
       <c r="P6" s="7"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
       <c r="G7" s="8">
         <v>3</v>
       </c>
-      <c r="H7" s="62" t="s">
+      <c r="H7" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="63"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="53"/>
       <c r="P7" s="7"/>
     </row>
     <row r="8" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="44" t="s">
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="59"/>
       <c r="P8" s="7"/>
     </row>
     <row r="9" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
       <c r="D9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="59" t="s">
+      <c r="E9" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="60"/>
+      <c r="F9" s="63"/>
       <c r="G9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="45" t="s">
+      <c r="H9" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45" t="s">
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45" t="s">
+      <c r="M9" s="60"/>
+      <c r="N9" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="58"/>
+      <c r="O9" s="61"/>
       <c r="P9" s="7"/>
     </row>
     <row r="10" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="34">
+      <c r="B10" s="72"/>
+      <c r="C10" s="73">
         <v>4.1100000000000003</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="36">
+      <c r="E10" s="31">
         <v>1</v>
       </c>
-      <c r="F10" s="37"/>
+      <c r="F10" s="32"/>
       <c r="G10" s="35">
         <v>1</v>
       </c>
-      <c r="H10" s="30" t="s">
+      <c r="H10" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30" t="s">
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30" t="s">
+      <c r="M10" s="24"/>
+      <c r="N10" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="O10" s="31"/>
+      <c r="O10" s="71"/>
       <c r="P10" s="7"/>
     </row>
     <row r="11" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="39"/>
+      <c r="A11" s="72"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="34"/>
       <c r="G11" s="35"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="31"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="71"/>
       <c r="P11" s="7"/>
     </row>
     <row r="12" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="34">
+      <c r="B12" s="72"/>
+      <c r="C12" s="73">
         <v>4.12</v>
       </c>
-      <c r="D12" s="40" t="s">
+      <c r="D12" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="36">
+      <c r="E12" s="31">
         <v>1</v>
       </c>
-      <c r="F12" s="37"/>
+      <c r="F12" s="32"/>
       <c r="G12" s="35">
         <v>2</v>
       </c>
-      <c r="H12" s="30" t="s">
+      <c r="H12" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30" t="s">
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30" t="s">
+      <c r="M12" s="24"/>
+      <c r="N12" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="O12" s="31"/>
+      <c r="O12" s="71"/>
       <c r="P12" s="7"/>
     </row>
     <row r="13" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="39"/>
+      <c r="A13" s="72"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="34"/>
       <c r="G13" s="35"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="31"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="71"/>
       <c r="P13" s="7"/>
     </row>
     <row r="14" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="34">
+      <c r="B14" s="72"/>
+      <c r="C14" s="73">
         <v>4.13</v>
       </c>
-      <c r="D14" s="40" t="s">
+      <c r="D14" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="36">
+      <c r="E14" s="31">
         <v>0.6</v>
       </c>
-      <c r="F14" s="37"/>
+      <c r="F14" s="32"/>
       <c r="G14" s="35">
         <v>3</v>
       </c>
-      <c r="H14" s="30" t="s">
+      <c r="H14" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30" t="s">
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30" t="s">
+      <c r="M14" s="24"/>
+      <c r="N14" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="O14" s="31"/>
+      <c r="O14" s="71"/>
       <c r="P14" s="7"/>
     </row>
     <row r="15" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="39"/>
+      <c r="A15" s="72"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="34"/>
       <c r="G15" s="35"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="31"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="71"/>
       <c r="P15" s="7"/>
     </row>
     <row r="16" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="34">
+      <c r="B16" s="72"/>
+      <c r="C16" s="73">
         <v>4.1399999999999997</v>
       </c>
-      <c r="D16" s="40" t="s">
+      <c r="D16" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="36">
+      <c r="E16" s="31">
         <v>1</v>
       </c>
-      <c r="F16" s="37"/>
+      <c r="F16" s="32"/>
       <c r="G16" s="35">
         <v>4</v>
       </c>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="31"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="71"/>
       <c r="P16" s="7"/>
     </row>
     <row r="17" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="39"/>
+      <c r="A17" s="72"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="34"/>
       <c r="G17" s="35"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="31"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="71"/>
       <c r="P17" s="7"/>
     </row>
     <row r="18" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="34">
+      <c r="B18" s="72"/>
+      <c r="C18" s="73">
         <v>4.1500000000000004</v>
       </c>
-      <c r="D18" s="40" t="s">
+      <c r="D18" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="36">
+      <c r="E18" s="31">
         <v>0.3</v>
       </c>
-      <c r="F18" s="37"/>
+      <c r="F18" s="32"/>
       <c r="G18" s="35">
         <v>5</v>
       </c>
-      <c r="H18" s="30"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="46"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="36"/>
       <c r="P18" s="7"/>
     </row>
     <row r="19" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="39"/>
+      <c r="A19" s="72"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="34"/>
       <c r="G19" s="35"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="48"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="38"/>
       <c r="P19" s="7"/>
     </row>
     <row r="20" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="78"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="26"/>
       <c r="G20" s="35">
         <v>6</v>
       </c>
-      <c r="H20" s="30"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="46"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="36"/>
       <c r="P20" s="7"/>
     </row>
     <row r="21" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="80"/>
+      <c r="A21" s="72"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="28"/>
       <c r="G21" s="35"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="48"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="38"/>
       <c r="P21" s="7"/>
     </row>
     <row r="22" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="78"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="26"/>
       <c r="G22" s="35">
         <v>7</v>
       </c>
-      <c r="H22" s="30"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="46"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="36"/>
       <c r="P22" s="7"/>
     </row>
     <row r="23" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="80"/>
+      <c r="A23" s="72"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="28"/>
       <c r="G23" s="35"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="48"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="38"/>
       <c r="P23" s="7"/>
     </row>
     <row r="24" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="44"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="57"/>
       <c r="O24" s="11"/>
       <c r="P24" s="7"/>
     </row>
     <row r="25" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45" t="s">
+      <c r="B25" s="60"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="60"/>
       <c r="N25" s="21" t="s">
         <v>23</v>
       </c>
@@ -2732,25 +2885,25 @@
       <c r="P25" s="7"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="42" t="s">
+      <c r="A26" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="42"/>
+      <c r="B26" s="68"/>
       <c r="C26" s="13">
         <v>4.18</v>
       </c>
-      <c r="D26" s="43" t="s">
+      <c r="D26" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="69"/>
+      <c r="M26" s="69"/>
       <c r="N26" s="22">
         <v>1</v>
       </c>
@@ -2758,25 +2911,25 @@
       <c r="P26" s="7"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="51" t="s">
+      <c r="A27" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="51"/>
+      <c r="B27" s="64"/>
       <c r="C27" s="15">
         <v>4.1900000000000004</v>
       </c>
-      <c r="D27" s="55" t="s">
+      <c r="D27" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="55"/>
-      <c r="M27" s="55"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="70"/>
+      <c r="M27" s="70"/>
       <c r="N27" s="23">
         <v>0.5</v>
       </c>
@@ -2784,25 +2937,25 @@
       <c r="P27" s="7"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="42" t="s">
+      <c r="A28" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="42"/>
+      <c r="B28" s="68"/>
       <c r="C28" s="13">
         <v>4.2</v>
       </c>
-      <c r="D28" s="43" t="s">
+      <c r="D28" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="43"/>
-      <c r="M28" s="43"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="69"/>
+      <c r="L28" s="69"/>
+      <c r="M28" s="69"/>
       <c r="N28" s="22">
         <v>1</v>
       </c>
@@ -2810,25 +2963,25 @@
       <c r="P28" s="7"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="51" t="s">
+      <c r="A29" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="51"/>
+      <c r="B29" s="64"/>
       <c r="C29" s="15">
         <v>4.21</v>
       </c>
-      <c r="D29" s="55" t="s">
+      <c r="D29" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="55"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="70"/>
+      <c r="M29" s="70"/>
       <c r="N29" s="23">
         <v>1</v>
       </c>
@@ -2836,25 +2989,25 @@
       <c r="P29" s="7"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="42"/>
+      <c r="B30" s="68"/>
       <c r="C30" s="13">
         <v>4.22</v>
       </c>
-      <c r="D30" s="43" t="s">
+      <c r="D30" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="43"/>
-      <c r="M30" s="43"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="69"/>
+      <c r="H30" s="69"/>
+      <c r="I30" s="69"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="69"/>
+      <c r="L30" s="69"/>
+      <c r="M30" s="69"/>
       <c r="N30" s="22">
         <v>0.5</v>
       </c>
@@ -2862,25 +3015,25 @@
       <c r="P30" s="7"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="51" t="s">
+      <c r="A31" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="51"/>
+      <c r="B31" s="64"/>
       <c r="C31" s="15">
         <v>4.2300000000000004</v>
       </c>
-      <c r="D31" s="52" t="s">
+      <c r="D31" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="54"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="66"/>
+      <c r="K31" s="66"/>
+      <c r="L31" s="66"/>
+      <c r="M31" s="67"/>
       <c r="N31" s="23">
         <v>1</v>
       </c>
@@ -2888,25 +3041,25 @@
       <c r="P31" s="7"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="42" t="s">
+      <c r="A32" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="42"/>
+      <c r="B32" s="68"/>
       <c r="C32" s="13">
         <v>4.24</v>
       </c>
-      <c r="D32" s="43" t="s">
+      <c r="D32" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="43"/>
-      <c r="M32" s="43"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="69"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="69"/>
+      <c r="J32" s="69"/>
+      <c r="K32" s="69"/>
+      <c r="L32" s="69"/>
+      <c r="M32" s="69"/>
       <c r="N32" s="22">
         <v>1</v>
       </c>
@@ -2914,61 +3067,61 @@
       <c r="P32" s="7"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="33"/>
+      <c r="B33" s="79"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="79"/>
+      <c r="E33" s="79"/>
+      <c r="F33" s="79"/>
+      <c r="G33" s="79"/>
+      <c r="H33" s="79"/>
+      <c r="I33" s="79"/>
+      <c r="J33" s="79"/>
+      <c r="K33" s="79"/>
+      <c r="L33" s="79"/>
+      <c r="M33" s="79"/>
+      <c r="N33" s="79"/>
+      <c r="O33" s="80"/>
       <c r="P33" s="7"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="24" t="s">
+      <c r="A34" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="25"/>
-      <c r="O34" s="26"/>
+      <c r="B34" s="75"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="75"/>
+      <c r="J34" s="75"/>
+      <c r="K34" s="75"/>
+      <c r="L34" s="75"/>
+      <c r="M34" s="75"/>
+      <c r="N34" s="75"/>
+      <c r="O34" s="76"/>
       <c r="P34" s="7"/>
     </row>
     <row r="35" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="27"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="27"/>
-      <c r="N35" s="27"/>
-      <c r="O35" s="28"/>
+      <c r="A35" s="77"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="77"/>
+      <c r="J35" s="77"/>
+      <c r="K35" s="77"/>
+      <c r="L35" s="77"/>
+      <c r="M35" s="77"/>
+      <c r="N35" s="77"/>
+      <c r="O35" s="78"/>
       <c r="P35" s="7"/>
     </row>
     <row r="36" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3001,54 +3154,36 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="H10:K11"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E14:F15"/>
-    <mergeCell ref="E16:F17"/>
-    <mergeCell ref="E18:F19"/>
-    <mergeCell ref="E20:F21"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="L20:M21"/>
-    <mergeCell ref="L22:M23"/>
-    <mergeCell ref="N20:O21"/>
-    <mergeCell ref="N22:O23"/>
-    <mergeCell ref="H18:K19"/>
-    <mergeCell ref="L18:M19"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:O3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="H4:O4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="H5:O5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="H6:O6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="G8:O8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:M31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:M32"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:M27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:M28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="A34:O35"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="N12:O13"/>
+    <mergeCell ref="N14:O15"/>
+    <mergeCell ref="N16:O17"/>
+    <mergeCell ref="H16:K17"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="L16:M17"/>
+    <mergeCell ref="A33:O33"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="L14:M15"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="H12:K13"/>
+    <mergeCell ref="H14:K15"/>
     <mergeCell ref="N10:O11"/>
     <mergeCell ref="L12:M13"/>
     <mergeCell ref="A30:B30"/>
@@ -3065,36 +3200,54 @@
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="A10:B11"/>
     <mergeCell ref="L10:M11"/>
-    <mergeCell ref="L14:M15"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="H12:K13"/>
-    <mergeCell ref="H14:K15"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="E10:F11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:F13"/>
-    <mergeCell ref="A34:O35"/>
-    <mergeCell ref="A18:B19"/>
-    <mergeCell ref="A20:B21"/>
-    <mergeCell ref="A22:B23"/>
-    <mergeCell ref="N12:O13"/>
-    <mergeCell ref="N14:O15"/>
-    <mergeCell ref="N16:O17"/>
-    <mergeCell ref="H16:K17"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="L16:M17"/>
-    <mergeCell ref="A33:O33"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:M32"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:O8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="L20:M21"/>
+    <mergeCell ref="L22:M23"/>
+    <mergeCell ref="N20:O21"/>
+    <mergeCell ref="N22:O23"/>
+    <mergeCell ref="H18:K19"/>
+    <mergeCell ref="L18:M19"/>
+    <mergeCell ref="H10:K11"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G20:G21"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.59027777777777779" bottom="0.39305555555555555" header="0.51111111111111107" footer="0.19652777777777777"/>
@@ -3135,69 +3288,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="68"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="42"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="71"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="45"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
     </row>
     <row r="3" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="72" t="s">
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="74"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="48"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
@@ -3206,524 +3359,524 @@
       <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
       <c r="G4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="75" t="s">
+      <c r="H4" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="76"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="50"/>
       <c r="P4" s="7"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
       <c r="G5" s="8">
         <v>1</v>
       </c>
-      <c r="H5" s="62" t="s">
+      <c r="H5" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="63"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="53"/>
       <c r="P5" s="7"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
       <c r="G6" s="9">
         <v>2</v>
       </c>
-      <c r="H6" s="65" t="s">
+      <c r="H6" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="65"/>
-      <c r="O6" s="66"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="56"/>
       <c r="P6" s="7"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
       <c r="G7" s="8">
         <v>3</v>
       </c>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="63"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="53"/>
       <c r="P7" s="7"/>
     </row>
     <row r="8" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="44" t="s">
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="59"/>
       <c r="P8" s="7"/>
     </row>
     <row r="9" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
       <c r="D9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="59" t="s">
+      <c r="E9" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="60"/>
+      <c r="F9" s="63"/>
       <c r="G9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="45" t="s">
+      <c r="H9" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45" t="s">
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45" t="s">
+      <c r="M9" s="60"/>
+      <c r="N9" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="58"/>
+      <c r="O9" s="61"/>
       <c r="P9" s="7"/>
     </row>
     <row r="10" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="34">
+      <c r="B10" s="72"/>
+      <c r="C10" s="73">
         <v>4.18</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="85">
+      <c r="E10" s="81">
         <v>1</v>
       </c>
-      <c r="F10" s="86"/>
+      <c r="F10" s="82"/>
       <c r="G10" s="35">
         <v>1</v>
       </c>
-      <c r="H10" s="30" t="s">
+      <c r="H10" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30" t="s">
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30" t="s">
+      <c r="M10" s="24"/>
+      <c r="N10" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="O10" s="31"/>
+      <c r="O10" s="71"/>
       <c r="P10" s="7"/>
     </row>
     <row r="11" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="88"/>
+      <c r="A11" s="72"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="84"/>
       <c r="G11" s="35"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="31"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="71"/>
       <c r="P11" s="7"/>
     </row>
     <row r="12" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="34">
+      <c r="B12" s="72"/>
+      <c r="C12" s="73">
         <v>4.1900000000000004</v>
       </c>
-      <c r="D12" s="40" t="s">
+      <c r="D12" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="81">
+      <c r="E12" s="85">
         <v>0.3</v>
       </c>
-      <c r="F12" s="82"/>
+      <c r="F12" s="86"/>
       <c r="G12" s="35">
         <v>2</v>
       </c>
-      <c r="H12" s="30" t="s">
+      <c r="H12" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30" t="s">
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30" t="s">
+      <c r="M12" s="24"/>
+      <c r="N12" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="O12" s="31"/>
+      <c r="O12" s="71"/>
       <c r="P12" s="7"/>
     </row>
     <row r="13" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="84"/>
+      <c r="A13" s="72"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="88"/>
       <c r="G13" s="35"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="31"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="71"/>
       <c r="P13" s="7"/>
     </row>
     <row r="14" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="34">
+      <c r="B14" s="72"/>
+      <c r="C14" s="73">
         <v>4.2</v>
       </c>
-      <c r="D14" s="40" t="s">
+      <c r="D14" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="85">
+      <c r="E14" s="81">
         <v>0.8</v>
       </c>
-      <c r="F14" s="86"/>
+      <c r="F14" s="82"/>
       <c r="G14" s="35">
         <v>3</v>
       </c>
-      <c r="H14" s="30" t="s">
+      <c r="H14" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30" t="s">
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30" t="s">
+      <c r="M14" s="24"/>
+      <c r="N14" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="O14" s="31"/>
+      <c r="O14" s="71"/>
       <c r="P14" s="7"/>
     </row>
     <row r="15" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="88"/>
+      <c r="A15" s="72"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="84"/>
       <c r="G15" s="35"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="31"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="71"/>
       <c r="P15" s="7"/>
     </row>
     <row r="16" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="34">
+      <c r="B16" s="72"/>
+      <c r="C16" s="73">
         <v>4.21</v>
       </c>
-      <c r="D16" s="40" t="s">
+      <c r="D16" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="85">
+      <c r="E16" s="81">
         <v>1</v>
       </c>
-      <c r="F16" s="86"/>
+      <c r="F16" s="82"/>
       <c r="G16" s="35">
         <v>4</v>
       </c>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="31"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="71"/>
       <c r="P16" s="7"/>
     </row>
     <row r="17" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="88"/>
+      <c r="A17" s="72"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="84"/>
       <c r="G17" s="35"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="31"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="71"/>
       <c r="P17" s="7"/>
     </row>
     <row r="18" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="34">
+      <c r="B18" s="72"/>
+      <c r="C18" s="73">
         <v>4.22</v>
       </c>
-      <c r="D18" s="40" t="s">
+      <c r="D18" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="85">
+      <c r="E18" s="81">
         <v>1</v>
       </c>
-      <c r="F18" s="86"/>
+      <c r="F18" s="82"/>
       <c r="G18" s="35">
         <v>5</v>
       </c>
-      <c r="H18" s="30"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="46"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="36"/>
       <c r="P18" s="7"/>
     </row>
     <row r="19" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="88"/>
+      <c r="A19" s="72"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="84"/>
       <c r="G19" s="35"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="48"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="38"/>
       <c r="P19" s="7"/>
     </row>
     <row r="20" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="78"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="26"/>
       <c r="G20" s="35">
         <v>6</v>
       </c>
-      <c r="H20" s="30"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="46"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="36"/>
       <c r="P20" s="7"/>
     </row>
     <row r="21" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="80"/>
+      <c r="A21" s="72"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="28"/>
       <c r="G21" s="35"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="48"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="38"/>
       <c r="P21" s="7"/>
     </row>
     <row r="22" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="78"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="26"/>
       <c r="G22" s="35">
         <v>7</v>
       </c>
-      <c r="H22" s="30"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="46"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="36"/>
       <c r="P22" s="7"/>
     </row>
     <row r="23" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="80"/>
+      <c r="A23" s="72"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="28"/>
       <c r="G23" s="35"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="48"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="38"/>
       <c r="P23" s="7"/>
     </row>
     <row r="24" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="44"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="57"/>
       <c r="O24" s="11"/>
       <c r="P24" s="7"/>
     </row>
     <row r="25" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45" t="s">
+      <c r="B25" s="60"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="60"/>
       <c r="N25" s="21" t="s">
         <v>23</v>
       </c>
@@ -3731,25 +3884,25 @@
       <c r="P25" s="7"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="42" t="s">
+      <c r="A26" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="42"/>
+      <c r="B26" s="68"/>
       <c r="C26" s="13">
         <v>4.25</v>
       </c>
-      <c r="D26" s="43" t="s">
+      <c r="D26" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="69"/>
+      <c r="M26" s="69"/>
       <c r="N26" s="22">
         <v>0.3</v>
       </c>
@@ -3757,25 +3910,25 @@
       <c r="P26" s="7"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="51" t="s">
+      <c r="A27" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="51"/>
+      <c r="B27" s="64"/>
       <c r="C27" s="15">
         <v>4.26</v>
       </c>
-      <c r="D27" s="55" t="s">
+      <c r="D27" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="55"/>
-      <c r="M27" s="55"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="70"/>
+      <c r="M27" s="70"/>
       <c r="N27" s="23">
         <v>0.6</v>
       </c>
@@ -3783,25 +3936,25 @@
       <c r="P27" s="7"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="42" t="s">
+      <c r="A28" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="42"/>
+      <c r="B28" s="68"/>
       <c r="C28" s="13">
         <v>4.2699999999999996</v>
       </c>
-      <c r="D28" s="43" t="s">
+      <c r="D28" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="43"/>
-      <c r="M28" s="43"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="69"/>
+      <c r="L28" s="69"/>
+      <c r="M28" s="69"/>
       <c r="N28" s="22">
         <v>1</v>
       </c>
@@ -3809,25 +3962,25 @@
       <c r="P28" s="7"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="51" t="s">
+      <c r="A29" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="51"/>
+      <c r="B29" s="64"/>
       <c r="C29" s="15">
         <v>4.28</v>
       </c>
-      <c r="D29" s="55" t="s">
+      <c r="D29" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="55"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="70"/>
+      <c r="M29" s="70"/>
       <c r="N29" s="23">
         <v>1</v>
       </c>
@@ -3835,25 +3988,25 @@
       <c r="P29" s="7"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="42"/>
+      <c r="B30" s="68"/>
       <c r="C30" s="13">
         <v>4.29</v>
       </c>
-      <c r="D30" s="43" t="s">
+      <c r="D30" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="43"/>
-      <c r="M30" s="43"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="69"/>
+      <c r="H30" s="69"/>
+      <c r="I30" s="69"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="69"/>
+      <c r="L30" s="69"/>
+      <c r="M30" s="69"/>
       <c r="N30" s="22">
         <v>1</v>
       </c>
@@ -3861,101 +4014,101 @@
       <c r="P30" s="7"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="51" t="s">
+      <c r="A31" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="51"/>
+      <c r="B31" s="64"/>
       <c r="C31" s="15"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="55"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="55"/>
-      <c r="M31" s="55"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="70"/>
+      <c r="H31" s="70"/>
+      <c r="I31" s="70"/>
+      <c r="J31" s="70"/>
+      <c r="K31" s="70"/>
+      <c r="L31" s="70"/>
+      <c r="M31" s="70"/>
       <c r="N31" s="16"/>
       <c r="O31" s="17"/>
       <c r="P31" s="7"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="42" t="s">
+      <c r="A32" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="42"/>
+      <c r="B32" s="68"/>
       <c r="C32" s="13"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="43"/>
-      <c r="M32" s="43"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="69"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="69"/>
+      <c r="J32" s="69"/>
+      <c r="K32" s="69"/>
+      <c r="L32" s="69"/>
+      <c r="M32" s="69"/>
       <c r="N32" s="14"/>
       <c r="O32" s="11"/>
       <c r="P32" s="7"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="33"/>
+      <c r="B33" s="79"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="79"/>
+      <c r="E33" s="79"/>
+      <c r="F33" s="79"/>
+      <c r="G33" s="79"/>
+      <c r="H33" s="79"/>
+      <c r="I33" s="79"/>
+      <c r="J33" s="79"/>
+      <c r="K33" s="79"/>
+      <c r="L33" s="79"/>
+      <c r="M33" s="79"/>
+      <c r="N33" s="79"/>
+      <c r="O33" s="80"/>
       <c r="P33" s="7"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="24" t="s">
+      <c r="A34" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="25"/>
-      <c r="O34" s="26"/>
+      <c r="B34" s="75"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="75"/>
+      <c r="J34" s="75"/>
+      <c r="K34" s="75"/>
+      <c r="L34" s="75"/>
+      <c r="M34" s="75"/>
+      <c r="N34" s="75"/>
+      <c r="O34" s="76"/>
       <c r="P34" s="7"/>
     </row>
     <row r="35" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="27"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="27"/>
-      <c r="N35" s="27"/>
-      <c r="O35" s="28"/>
+      <c r="A35" s="77"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="77"/>
+      <c r="J35" s="77"/>
+      <c r="K35" s="77"/>
+      <c r="L35" s="77"/>
+      <c r="M35" s="77"/>
+      <c r="N35" s="77"/>
+      <c r="O35" s="78"/>
       <c r="P35" s="7"/>
     </row>
     <row r="36" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3985,6 +4138,897 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D40" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="94">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:O8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="L10:M11"/>
+    <mergeCell ref="N10:O11"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:K13"/>
+    <mergeCell ref="L12:M13"/>
+    <mergeCell ref="N12:O13"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:K11"/>
+    <mergeCell ref="L14:M15"/>
+    <mergeCell ref="N14:O15"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:K17"/>
+    <mergeCell ref="L16:M17"/>
+    <mergeCell ref="N16:O17"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:K15"/>
+    <mergeCell ref="L18:M19"/>
+    <mergeCell ref="N18:O19"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:K21"/>
+    <mergeCell ref="L20:M21"/>
+    <mergeCell ref="N20:O21"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:K19"/>
+    <mergeCell ref="N22:O23"/>
+    <mergeCell ref="A24:N24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:M25"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:K23"/>
+    <mergeCell ref="L22:M23"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="A33:O33"/>
+    <mergeCell ref="A34:O35"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:M30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:M32"/>
+  </mergeCells>
+  <phoneticPr fontId="38" type="noConversion"/>
+  <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.59027777777777779" bottom="0.39305555555555555" header="0.51111111111111107" footer="0.19652777777777777"/>
+  <pageSetup paperSize="9" scale="95" firstPageNumber="4294963191" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B72793-B9A8-4727-9EDF-9B3C7969D70C}">
+  <dimension ref="A1:O35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:O35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:15" ht="22.9" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="42"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A2" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="45"/>
+    </row>
+    <row r="3" spans="1:15" ht="16.899999999999999" x14ac:dyDescent="0.4">
+      <c r="A3" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="48"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A4" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="50"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A5" s="8">
+        <v>1</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="8">
+        <v>1</v>
+      </c>
+      <c r="H5" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="53"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A6" s="9">
+        <v>2</v>
+      </c>
+      <c r="B6" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="9">
+        <v>2</v>
+      </c>
+      <c r="H6" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="56"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A7" s="8">
+        <v>3</v>
+      </c>
+      <c r="B7" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="8">
+        <v>3</v>
+      </c>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="53"/>
+    </row>
+    <row r="8" spans="1:15" ht="16.899999999999999" x14ac:dyDescent="0.4">
+      <c r="A8" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="59"/>
+    </row>
+    <row r="9" spans="1:15" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A9" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="63"/>
+      <c r="G9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9" s="60"/>
+      <c r="N9" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" s="61"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A10" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="72"/>
+      <c r="C10" s="73">
+        <v>4.25</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="81">
+        <v>0.4</v>
+      </c>
+      <c r="F10" s="82"/>
+      <c r="G10" s="35">
+        <v>1</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="O10" s="71"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A11" s="72"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="71"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A12" s="72" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="72"/>
+      <c r="C12" s="73">
+        <v>4.26</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="85">
+        <v>0.7</v>
+      </c>
+      <c r="F12" s="86"/>
+      <c r="G12" s="35">
+        <v>2</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="O12" s="71"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A13" s="72"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="71"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A14" s="72" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="72"/>
+      <c r="C14" s="73">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="81">
+        <v>1</v>
+      </c>
+      <c r="F14" s="82"/>
+      <c r="G14" s="35">
+        <v>3</v>
+      </c>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="71"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A15" s="72"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="71"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A16" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="72"/>
+      <c r="C16" s="73">
+        <v>4.28</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="81">
+        <v>1</v>
+      </c>
+      <c r="F16" s="82"/>
+      <c r="G16" s="35">
+        <v>4</v>
+      </c>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="71"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A17" s="72"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="71"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A18" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="72"/>
+      <c r="C18" s="73">
+        <v>4.29</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="81">
+        <v>0.8</v>
+      </c>
+      <c r="F18" s="82"/>
+      <c r="G18" s="35">
+        <v>5</v>
+      </c>
+      <c r="H18" s="24"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="36"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A19" s="72"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="38"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A20" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="72"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="35">
+        <v>6</v>
+      </c>
+      <c r="H20" s="24"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="36"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A21" s="72"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="38"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A22" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="72"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="35">
+        <v>7</v>
+      </c>
+      <c r="H22" s="24"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="36"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A23" s="72"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="38"/>
+    </row>
+    <row r="24" spans="1:15" ht="16.899999999999999" x14ac:dyDescent="0.4">
+      <c r="A24" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="57"/>
+      <c r="O24" s="11"/>
+    </row>
+    <row r="25" spans="1:15" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A25" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="60"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="60"/>
+      <c r="N25" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="O25" s="12"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A26" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="68"/>
+      <c r="C26" s="13">
+        <v>5.2</v>
+      </c>
+      <c r="D26" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="69"/>
+      <c r="M26" s="69"/>
+      <c r="N26" s="22">
+        <v>1</v>
+      </c>
+      <c r="O26" s="11"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A27" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="64"/>
+      <c r="C27" s="15">
+        <v>5.3</v>
+      </c>
+      <c r="D27" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="70"/>
+      <c r="M27" s="70"/>
+      <c r="N27" s="23">
+        <v>1</v>
+      </c>
+      <c r="O27" s="17"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A28" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="68"/>
+      <c r="C28" s="13">
+        <v>5.4</v>
+      </c>
+      <c r="D28" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="69"/>
+      <c r="L28" s="69"/>
+      <c r="M28" s="69"/>
+      <c r="N28" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="O28" s="11"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A29" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="64"/>
+      <c r="C29" s="15">
+        <v>5.5</v>
+      </c>
+      <c r="D29" s="70" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="70"/>
+      <c r="M29" s="70"/>
+      <c r="N29" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="O29" s="17"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A30" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="68"/>
+      <c r="C30" s="13">
+        <v>5.6</v>
+      </c>
+      <c r="D30" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="69"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="69"/>
+      <c r="H30" s="69"/>
+      <c r="I30" s="69"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="69"/>
+      <c r="L30" s="69"/>
+      <c r="M30" s="69"/>
+      <c r="N30" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="O30" s="11"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A31" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="64"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="70"/>
+      <c r="H31" s="70"/>
+      <c r="I31" s="70"/>
+      <c r="J31" s="70"/>
+      <c r="K31" s="70"/>
+      <c r="L31" s="70"/>
+      <c r="M31" s="70"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="17"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A32" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="68"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="69"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="69"/>
+      <c r="J32" s="69"/>
+      <c r="K32" s="69"/>
+      <c r="L32" s="69"/>
+      <c r="M32" s="69"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="11"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A33" s="79" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="79"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="79"/>
+      <c r="E33" s="79"/>
+      <c r="F33" s="79"/>
+      <c r="G33" s="79"/>
+      <c r="H33" s="79"/>
+      <c r="I33" s="79"/>
+      <c r="J33" s="79"/>
+      <c r="K33" s="79"/>
+      <c r="L33" s="79"/>
+      <c r="M33" s="79"/>
+      <c r="N33" s="79"/>
+      <c r="O33" s="80"/>
+    </row>
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="74" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" s="89"/>
+      <c r="C34" s="89"/>
+      <c r="D34" s="89"/>
+      <c r="E34" s="89"/>
+      <c r="F34" s="89"/>
+      <c r="G34" s="89"/>
+      <c r="H34" s="89"/>
+      <c r="I34" s="89"/>
+      <c r="J34" s="89"/>
+      <c r="K34" s="89"/>
+      <c r="L34" s="89"/>
+      <c r="M34" s="89"/>
+      <c r="N34" s="89"/>
+      <c r="O34" s="90"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A35" s="91"/>
+      <c r="B35" s="92"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="92"/>
+      <c r="F35" s="92"/>
+      <c r="G35" s="92"/>
+      <c r="H35" s="92"/>
+      <c r="I35" s="92"/>
+      <c r="J35" s="92"/>
+      <c r="K35" s="92"/>
+      <c r="L35" s="92"/>
+      <c r="M35" s="92"/>
+      <c r="N35" s="92"/>
+      <c r="O35" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="94">
@@ -4084,14 +5128,12 @@
     <mergeCell ref="H4:O4"/>
   </mergeCells>
   <phoneticPr fontId="38" type="noConversion"/>
-  <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.59027777777777779" bottom="0.39305555555555555" header="0.51111111111111107" footer="0.19652777777777777"/>
-  <pageSetup paperSize="9" scale="95" firstPageNumber="4294963191" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B72793-B9A8-4727-9EDF-9B3C7969D70C}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79C8278E-B131-4B75-AA80-8D9B13C996FD}">
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -4101,749 +5143,1614 @@
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:15" ht="22.9" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="68"/>
+      <c r="A1" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="42"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="71"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="45"/>
     </row>
     <row r="3" spans="1:15" ht="16.899999999999999" x14ac:dyDescent="0.4">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="72" t="s">
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="74"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="48"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
       <c r="G4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="75" t="s">
+      <c r="H4" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="76"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="50"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
       <c r="G5" s="8">
         <v>1</v>
       </c>
-      <c r="H5" s="62" t="s">
+      <c r="H5" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="63"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="53"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
       <c r="G6" s="9">
         <v>2</v>
       </c>
-      <c r="H6" s="65" t="s">
+      <c r="H6" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="65"/>
-      <c r="O6" s="66"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="56"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
       <c r="G7" s="8">
         <v>3</v>
       </c>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="63"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="53"/>
     </row>
     <row r="8" spans="1:15" ht="16.899999999999999" x14ac:dyDescent="0.4">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="44" t="s">
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="59"/>
     </row>
     <row r="9" spans="1:15" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
       <c r="D9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="59" t="s">
+      <c r="E9" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="60"/>
+      <c r="F9" s="63"/>
       <c r="G9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="45" t="s">
+      <c r="H9" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45" t="s">
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45" t="s">
+      <c r="M9" s="60"/>
+      <c r="N9" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="58"/>
+      <c r="O9" s="61"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="34">
-        <v>4.25</v>
-      </c>
-      <c r="D10" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10" s="85">
-        <v>0.4</v>
-      </c>
-      <c r="F10" s="86"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="73">
+        <v>5.2</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="81">
+        <v>1</v>
+      </c>
+      <c r="F10" s="82"/>
       <c r="G10" s="35">
         <v>1</v>
       </c>
-      <c r="H10" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="O10" s="31"/>
+      <c r="H10" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="O10" s="71"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="88"/>
+      <c r="A11" s="72"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="84"/>
       <c r="G11" s="35"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="31"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="71"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="34">
-        <v>4.26</v>
-      </c>
-      <c r="D12" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="81">
-        <v>0.7</v>
-      </c>
-      <c r="F12" s="82"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="73">
+        <v>5.3</v>
+      </c>
+      <c r="D12" s="29"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="86"/>
       <c r="G12" s="35">
         <v>2</v>
       </c>
-      <c r="H12" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="O12" s="31"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="71"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="84"/>
+      <c r="A13" s="72"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="88"/>
       <c r="G13" s="35"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="31"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="71"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="34">
-        <v>4.2699999999999996</v>
-      </c>
-      <c r="D14" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" s="85">
-        <v>1</v>
-      </c>
-      <c r="F14" s="86"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="73">
+        <v>5.4</v>
+      </c>
+      <c r="D14" s="29"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="82"/>
       <c r="G14" s="35">
         <v>3</v>
       </c>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="31"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="71"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="88"/>
+      <c r="A15" s="72"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="84"/>
       <c r="G15" s="35"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="31"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="71"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="34">
-        <v>4.28</v>
-      </c>
-      <c r="D16" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" s="85">
-        <v>1</v>
-      </c>
-      <c r="F16" s="86"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="73">
+        <v>5.5</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="81">
+        <v>0.8</v>
+      </c>
+      <c r="F16" s="82"/>
       <c r="G16" s="35">
         <v>4</v>
       </c>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="31"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="71"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="88"/>
+      <c r="A17" s="72"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="84"/>
       <c r="G17" s="35"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="31"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="71"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="34">
-        <v>4.29</v>
-      </c>
-      <c r="D18" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" s="85">
-        <v>0.8</v>
-      </c>
-      <c r="F18" s="86"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="73">
+        <v>5.6</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" s="81">
+        <v>1</v>
+      </c>
+      <c r="F18" s="82"/>
       <c r="G18" s="35">
         <v>5</v>
       </c>
-      <c r="H18" s="30"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="46"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="36"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="88"/>
+      <c r="A19" s="72"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="84"/>
       <c r="G19" s="35"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="48"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="38"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="78"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="26"/>
       <c r="G20" s="35">
         <v>6</v>
       </c>
-      <c r="H20" s="30"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="46"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="36"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="80"/>
+      <c r="A21" s="72"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="28"/>
       <c r="G21" s="35"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="48"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="38"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="78"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="26"/>
       <c r="G22" s="35">
         <v>7</v>
       </c>
-      <c r="H22" s="30"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="46"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="36"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="80"/>
+      <c r="A23" s="72"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="28"/>
       <c r="G23" s="35"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="48"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="38"/>
     </row>
     <row r="24" spans="1:15" ht="16.899999999999999" x14ac:dyDescent="0.4">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="44"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="57"/>
       <c r="O24" s="11"/>
     </row>
     <row r="25" spans="1:15" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45" t="s">
+      <c r="B25" s="60"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="60"/>
       <c r="N25" s="21" t="s">
         <v>23</v>
       </c>
       <c r="O25" s="12"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A26" s="42" t="s">
+      <c r="A26" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="42"/>
+      <c r="B26" s="68"/>
       <c r="C26" s="13">
-        <v>5.2</v>
-      </c>
-      <c r="D26" s="43" t="s">
+        <v>5.09</v>
+      </c>
+      <c r="D26" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="69"/>
+      <c r="M26" s="69"/>
       <c r="N26" s="22">
         <v>1</v>
       </c>
       <c r="O26" s="11"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A27" s="51" t="s">
+      <c r="A27" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="51"/>
+      <c r="B27" s="64"/>
       <c r="C27" s="15">
-        <v>5.3</v>
-      </c>
-      <c r="D27" s="55" t="s">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D27" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="55"/>
-      <c r="M27" s="55"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="70"/>
+      <c r="M27" s="70"/>
       <c r="N27" s="23">
         <v>1</v>
       </c>
       <c r="O27" s="17"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A28" s="42" t="s">
+      <c r="A28" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="42"/>
+      <c r="B28" s="68"/>
       <c r="C28" s="13">
-        <v>5.4</v>
-      </c>
-      <c r="D28" s="43" t="s">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="D28" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="43"/>
-      <c r="M28" s="43"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="69"/>
+      <c r="L28" s="69"/>
+      <c r="M28" s="69"/>
       <c r="N28" s="22">
         <v>0.2</v>
       </c>
       <c r="O28" s="11"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A29" s="51" t="s">
+      <c r="A29" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="51"/>
+      <c r="B29" s="64"/>
       <c r="C29" s="15">
-        <v>5.5</v>
-      </c>
-      <c r="D29" s="55" t="s">
+        <v>5.12</v>
+      </c>
+      <c r="D29" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="55"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="70"/>
+      <c r="M29" s="70"/>
       <c r="N29" s="23">
         <v>0.4</v>
       </c>
       <c r="O29" s="17"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="42"/>
+      <c r="B30" s="68"/>
       <c r="C30" s="13">
-        <v>5.6</v>
-      </c>
-      <c r="D30" s="43" t="s">
+        <v>5.13</v>
+      </c>
+      <c r="D30" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="43"/>
-      <c r="M30" s="43"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="69"/>
+      <c r="H30" s="69"/>
+      <c r="I30" s="69"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="69"/>
+      <c r="L30" s="69"/>
+      <c r="M30" s="69"/>
       <c r="N30" s="22">
         <v>0.6</v>
       </c>
       <c r="O30" s="11"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A31" s="51" t="s">
+      <c r="A31" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="51"/>
+      <c r="B31" s="64"/>
       <c r="C31" s="15"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="55"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="55"/>
-      <c r="M31" s="55"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="70"/>
+      <c r="H31" s="70"/>
+      <c r="I31" s="70"/>
+      <c r="J31" s="70"/>
+      <c r="K31" s="70"/>
+      <c r="L31" s="70"/>
+      <c r="M31" s="70"/>
       <c r="N31" s="16"/>
       <c r="O31" s="17"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A32" s="42" t="s">
+      <c r="A32" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="42"/>
+      <c r="B32" s="68"/>
       <c r="C32" s="13"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="43"/>
-      <c r="M32" s="43"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="69"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="69"/>
+      <c r="J32" s="69"/>
+      <c r="K32" s="69"/>
+      <c r="L32" s="69"/>
+      <c r="M32" s="69"/>
       <c r="N32" s="14"/>
       <c r="O32" s="11"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="33"/>
+      <c r="B33" s="79"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="79"/>
+      <c r="E33" s="79"/>
+      <c r="F33" s="79"/>
+      <c r="G33" s="79"/>
+      <c r="H33" s="79"/>
+      <c r="I33" s="79"/>
+      <c r="J33" s="79"/>
+      <c r="K33" s="79"/>
+      <c r="L33" s="79"/>
+      <c r="M33" s="79"/>
+      <c r="N33" s="79"/>
+      <c r="O33" s="80"/>
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="24" t="s">
-        <v>82</v>
+      <c r="A34" s="74" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" s="89"/>
+      <c r="C34" s="89"/>
+      <c r="D34" s="89"/>
+      <c r="E34" s="89"/>
+      <c r="F34" s="89"/>
+      <c r="G34" s="89"/>
+      <c r="H34" s="89"/>
+      <c r="I34" s="89"/>
+      <c r="J34" s="89"/>
+      <c r="K34" s="89"/>
+      <c r="L34" s="89"/>
+      <c r="M34" s="89"/>
+      <c r="N34" s="89"/>
+      <c r="O34" s="90"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A35" s="91"/>
+      <c r="B35" s="92"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="92"/>
+      <c r="F35" s="92"/>
+      <c r="G35" s="92"/>
+      <c r="H35" s="92"/>
+      <c r="I35" s="92"/>
+      <c r="J35" s="92"/>
+      <c r="K35" s="92"/>
+      <c r="L35" s="92"/>
+      <c r="M35" s="92"/>
+      <c r="N35" s="92"/>
+      <c r="O35" s="93"/>
+    </row>
+  </sheetData>
+  <mergeCells count="94">
+    <mergeCell ref="A33:O33"/>
+    <mergeCell ref="A34:O35"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:M30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:M32"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="L22:M23"/>
+    <mergeCell ref="N22:O23"/>
+    <mergeCell ref="A24:N24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:M25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:K23"/>
+    <mergeCell ref="L18:M19"/>
+    <mergeCell ref="N18:O19"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:K21"/>
+    <mergeCell ref="L20:M21"/>
+    <mergeCell ref="N20:O21"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:K19"/>
+    <mergeCell ref="L14:M15"/>
+    <mergeCell ref="N14:O15"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:K17"/>
+    <mergeCell ref="L16:M17"/>
+    <mergeCell ref="N16:O17"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:K15"/>
+    <mergeCell ref="L10:M11"/>
+    <mergeCell ref="N10:O11"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:K13"/>
+    <mergeCell ref="L12:M13"/>
+    <mergeCell ref="N12:O13"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:K11"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:O8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:O4"/>
+  </mergeCells>
+  <phoneticPr fontId="38" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A569239-7554-4BEA-8682-11343A0748D9}">
+  <dimension ref="A1:O35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:15" ht="22.9" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="42"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A2" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="45"/>
+    </row>
+    <row r="3" spans="1:15" ht="16.899999999999999" x14ac:dyDescent="0.4">
+      <c r="A3" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="48"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A4" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="50"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A5" s="8">
+        <v>1</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="8">
+        <v>1</v>
+      </c>
+      <c r="H5" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="53"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A6" s="9">
+        <v>2</v>
+      </c>
+      <c r="B6" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="9">
+        <v>2</v>
+      </c>
+      <c r="H6" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="56"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A7" s="8">
+        <v>3</v>
+      </c>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="8">
+        <v>3</v>
+      </c>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="53"/>
+    </row>
+    <row r="8" spans="1:15" ht="16.899999999999999" x14ac:dyDescent="0.4">
+      <c r="A8" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="59"/>
+    </row>
+    <row r="9" spans="1:15" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A9" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="63"/>
+      <c r="G9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9" s="60"/>
+      <c r="N9" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" s="61"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A10" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="72"/>
+      <c r="C10" s="73">
+        <v>5.09</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="81">
+        <v>0.4</v>
+      </c>
+      <c r="F10" s="82"/>
+      <c r="G10" s="35">
+        <v>1</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="O10" s="71"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A11" s="72"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="71"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A12" s="72" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="72"/>
+      <c r="C12" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="85">
+        <v>0.7</v>
+      </c>
+      <c r="F12" s="86"/>
+      <c r="G12" s="35">
+        <v>2</v>
+      </c>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="71"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A13" s="72"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="71"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A14" s="72" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="72"/>
+      <c r="C14" s="73">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="81">
+        <v>0.2</v>
+      </c>
+      <c r="F14" s="82"/>
+      <c r="G14" s="35">
+        <v>3</v>
+      </c>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="71"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A15" s="72"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="71"/>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="72"/>
+      <c r="C16" s="73">
+        <v>5.12</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="81">
+        <v>0.3</v>
+      </c>
+      <c r="F16" s="82"/>
+      <c r="G16" s="35">
+        <v>4</v>
+      </c>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="71"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A17" s="72"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="71"/>
+    </row>
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="72"/>
+      <c r="C18" s="73">
+        <v>5.13</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="81">
+        <v>0.6</v>
+      </c>
+      <c r="F18" s="82"/>
+      <c r="G18" s="35">
+        <v>5</v>
+      </c>
+      <c r="H18" s="24"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="36"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A19" s="72"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="38"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A20" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="72"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="35">
+        <v>6</v>
+      </c>
+      <c r="H20" s="24"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="36"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A21" s="72"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="38"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A22" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="72"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="35">
+        <v>7</v>
+      </c>
+      <c r="H22" s="24"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="36"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A23" s="72"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="38"/>
+    </row>
+    <row r="24" spans="1:15" ht="16.899999999999999" x14ac:dyDescent="0.4">
+      <c r="A24" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="57"/>
+      <c r="O24" s="11"/>
+    </row>
+    <row r="25" spans="1:15" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A25" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="60"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="60"/>
+      <c r="N25" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="O25" s="12"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A26" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="68"/>
+      <c r="C26" s="13">
+        <v>5.16</v>
+      </c>
+      <c r="D26" s="69" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="69"/>
+      <c r="M26" s="69"/>
+      <c r="N26" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="O26" s="11"/>
+    </row>
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="64"/>
+      <c r="C27" s="15">
+        <v>5.17</v>
+      </c>
+      <c r="D27" s="69" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="69"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="69"/>
+      <c r="M27" s="69"/>
+      <c r="N27" s="23">
+        <v>0.6</v>
+      </c>
+      <c r="O27" s="17"/>
+    </row>
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="68"/>
+      <c r="C28" s="13">
+        <v>5.18</v>
+      </c>
+      <c r="D28" s="69" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="69"/>
+      <c r="L28" s="69"/>
+      <c r="M28" s="69"/>
+      <c r="N28" s="22">
+        <v>1</v>
+      </c>
+      <c r="O28" s="11"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A29" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="64"/>
+      <c r="C29" s="15">
+        <v>5.19</v>
+      </c>
+      <c r="D29" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="70"/>
+      <c r="M29" s="70"/>
+      <c r="N29" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="O29" s="17"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A30" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="68"/>
+      <c r="C30" s="13">
+        <v>5.2</v>
+      </c>
+      <c r="D30" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="69"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="69"/>
+      <c r="H30" s="69"/>
+      <c r="I30" s="69"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="69"/>
+      <c r="L30" s="69"/>
+      <c r="M30" s="69"/>
+      <c r="N30" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="O30" s="11"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A31" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="64"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="70"/>
+      <c r="H31" s="70"/>
+      <c r="I31" s="70"/>
+      <c r="J31" s="70"/>
+      <c r="K31" s="70"/>
+      <c r="L31" s="70"/>
+      <c r="M31" s="70"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="17"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A32" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="68"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="69"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="69"/>
+      <c r="J32" s="69"/>
+      <c r="K32" s="69"/>
+      <c r="L32" s="69"/>
+      <c r="M32" s="69"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="11"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A33" s="79" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="79"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="79"/>
+      <c r="E33" s="79"/>
+      <c r="F33" s="79"/>
+      <c r="G33" s="79"/>
+      <c r="H33" s="79"/>
+      <c r="I33" s="79"/>
+      <c r="J33" s="79"/>
+      <c r="K33" s="79"/>
+      <c r="L33" s="79"/>
+      <c r="M33" s="79"/>
+      <c r="N33" s="79"/>
+      <c r="O33" s="80"/>
+    </row>
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="74" t="s">
+        <v>90</v>
       </c>
       <c r="B34" s="89"/>
       <c r="C34" s="89"/>
@@ -4979,752 +6886,750 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A569239-7554-4BEA-8682-11343A0748D9}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F220E995-EA23-40D6-90AF-6ED216400E2B}">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12:K13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:15" ht="22.9" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="67" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="68"/>
+      <c r="A1" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="42"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="71"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="45"/>
     </row>
     <row r="3" spans="1:15" ht="16.899999999999999" x14ac:dyDescent="0.4">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="72" t="s">
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="74"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="48"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
       <c r="G4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="75" t="s">
+      <c r="H4" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="76"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="50"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="61" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
+      <c r="B5" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
       <c r="G5" s="8">
         <v>1</v>
       </c>
-      <c r="H5" s="62" t="s">
-        <v>93</v>
-      </c>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="63"/>
+      <c r="H5" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="53"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="64" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
+      <c r="B6" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
       <c r="G6" s="9">
         <v>2</v>
       </c>
-      <c r="H6" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="65"/>
-      <c r="O6" s="66"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="56"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
       <c r="G7" s="8">
         <v>3</v>
       </c>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="63"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="53"/>
     </row>
     <row r="8" spans="1:15" ht="16.899999999999999" x14ac:dyDescent="0.4">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="44" t="s">
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="59"/>
     </row>
     <row r="9" spans="1:15" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
       <c r="D9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="59" t="s">
+      <c r="E9" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="60"/>
+      <c r="F9" s="63"/>
       <c r="G9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="45" t="s">
+      <c r="H9" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45" t="s">
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45" t="s">
+      <c r="M9" s="60"/>
+      <c r="N9" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="58"/>
+      <c r="O9" s="61"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="34">
-        <v>5.09</v>
-      </c>
-      <c r="D10" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="E10" s="85">
+      <c r="B10" s="72"/>
+      <c r="C10" s="94">
+        <v>5.16</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="81">
         <v>0.4</v>
       </c>
-      <c r="F10" s="86"/>
+      <c r="F10" s="82"/>
       <c r="G10" s="35">
         <v>1</v>
       </c>
-      <c r="H10" s="30" t="s">
+      <c r="H10" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30" t="s">
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="O10" s="31"/>
+      <c r="O10" s="71"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="88"/>
+      <c r="A11" s="72"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="84"/>
       <c r="G11" s="35"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="31"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A12" s="29" t="s">
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="71"/>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12" s="81">
+      <c r="B12" s="72"/>
+      <c r="C12" s="95">
+        <v>5.17</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="85">
         <v>0.7</v>
       </c>
-      <c r="F12" s="82"/>
+      <c r="F12" s="86"/>
       <c r="G12" s="35">
         <v>2</v>
       </c>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="31"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="71"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="84"/>
+      <c r="A13" s="72"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="88"/>
       <c r="G13" s="35"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="31"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A14" s="29" t="s">
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="71"/>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="34">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="D14" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="E14" s="85">
-        <v>0.2</v>
-      </c>
-      <c r="F14" s="86"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="95">
+        <v>5.18</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="81">
+        <v>0.9</v>
+      </c>
+      <c r="F14" s="82"/>
       <c r="G14" s="35">
         <v>3</v>
       </c>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="31"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="71"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="88"/>
+      <c r="A15" s="72"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="84"/>
       <c r="G15" s="35"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="31"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="71"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="34">
-        <v>5.12</v>
-      </c>
-      <c r="D16" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="E16" s="85">
-        <v>0.3</v>
-      </c>
-      <c r="F16" s="86"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="95">
+        <v>5.19</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" s="81">
+        <v>1</v>
+      </c>
+      <c r="F16" s="82"/>
       <c r="G16" s="35">
         <v>4</v>
       </c>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="31"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="71"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="88"/>
+      <c r="A17" s="72"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="84"/>
       <c r="G17" s="35"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="31"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="71"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="34">
-        <v>5.13</v>
-      </c>
-      <c r="D18" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="E18" s="85">
+      <c r="B18" s="72"/>
+      <c r="C18" s="94">
+        <v>5.2</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="81">
         <v>0.6</v>
       </c>
-      <c r="F18" s="86"/>
+      <c r="F18" s="82"/>
       <c r="G18" s="35">
         <v>5</v>
       </c>
-      <c r="H18" s="30"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="46"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="36"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="88"/>
+      <c r="A19" s="72"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="84"/>
       <c r="G19" s="35"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="48"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="38"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="78"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="26"/>
       <c r="G20" s="35">
         <v>6</v>
       </c>
-      <c r="H20" s="30"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="46"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="36"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="80"/>
+      <c r="A21" s="72"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="28"/>
       <c r="G21" s="35"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="48"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="38"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="78"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="26"/>
       <c r="G22" s="35">
         <v>7</v>
       </c>
-      <c r="H22" s="30"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="46"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="36"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="80"/>
+      <c r="A23" s="72"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="28"/>
       <c r="G23" s="35"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="48"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="38"/>
     </row>
     <row r="24" spans="1:15" ht="16.899999999999999" x14ac:dyDescent="0.4">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="44"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="57"/>
       <c r="O24" s="11"/>
     </row>
     <row r="25" spans="1:15" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45" t="s">
+      <c r="B25" s="60"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="60"/>
       <c r="N25" s="21" t="s">
         <v>23</v>
       </c>
       <c r="O25" s="12"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A26" s="42" t="s">
+      <c r="A26" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="42"/>
+      <c r="B26" s="68"/>
       <c r="C26" s="13">
         <v>5.16</v>
       </c>
-      <c r="D26" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43"/>
+      <c r="D26" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="69"/>
+      <c r="M26" s="69"/>
       <c r="N26" s="22">
         <v>0.3</v>
       </c>
       <c r="O26" s="11"/>
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="51" t="s">
+      <c r="A27" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="51"/>
+      <c r="B27" s="64"/>
       <c r="C27" s="15">
         <v>5.17</v>
       </c>
-      <c r="D27" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="43"/>
-      <c r="L27" s="43"/>
-      <c r="M27" s="43"/>
+      <c r="D27" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="69"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="69"/>
+      <c r="M27" s="69"/>
       <c r="N27" s="23">
         <v>0.6</v>
       </c>
       <c r="O27" s="17"/>
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="42" t="s">
+      <c r="A28" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="42"/>
+      <c r="B28" s="68"/>
       <c r="C28" s="13">
         <v>5.18</v>
       </c>
-      <c r="D28" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="43"/>
-      <c r="M28" s="43"/>
+      <c r="D28" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="69"/>
+      <c r="L28" s="69"/>
+      <c r="M28" s="69"/>
       <c r="N28" s="22">
         <v>1</v>
       </c>
       <c r="O28" s="11"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A29" s="51" t="s">
+      <c r="A29" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="51"/>
+      <c r="B29" s="64"/>
       <c r="C29" s="15">
         <v>5.19</v>
       </c>
-      <c r="D29" s="55" t="s">
-        <v>89</v>
-      </c>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="55"/>
+      <c r="D29" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="70"/>
+      <c r="M29" s="70"/>
       <c r="N29" s="23">
         <v>0.2</v>
       </c>
       <c r="O29" s="17"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="42"/>
+      <c r="B30" s="68"/>
       <c r="C30" s="13">
         <v>5.2</v>
       </c>
-      <c r="D30" s="43" t="s">
+      <c r="D30" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="43"/>
-      <c r="M30" s="43"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="69"/>
+      <c r="H30" s="69"/>
+      <c r="I30" s="69"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="69"/>
+      <c r="L30" s="69"/>
+      <c r="M30" s="69"/>
       <c r="N30" s="22">
         <v>0.6</v>
       </c>
       <c r="O30" s="11"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A31" s="51" t="s">
+      <c r="A31" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="51"/>
+      <c r="B31" s="64"/>
       <c r="C31" s="15"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="55"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="55"/>
-      <c r="M31" s="55"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="70"/>
+      <c r="H31" s="70"/>
+      <c r="I31" s="70"/>
+      <c r="J31" s="70"/>
+      <c r="K31" s="70"/>
+      <c r="L31" s="70"/>
+      <c r="M31" s="70"/>
       <c r="N31" s="16"/>
       <c r="O31" s="17"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A32" s="42" t="s">
+      <c r="A32" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="42"/>
+      <c r="B32" s="68"/>
       <c r="C32" s="13"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="43"/>
-      <c r="M32" s="43"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="69"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="69"/>
+      <c r="J32" s="69"/>
+      <c r="K32" s="69"/>
+      <c r="L32" s="69"/>
+      <c r="M32" s="69"/>
       <c r="N32" s="14"/>
       <c r="O32" s="11"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="33"/>
+      <c r="B33" s="79"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="79"/>
+      <c r="E33" s="79"/>
+      <c r="F33" s="79"/>
+      <c r="G33" s="79"/>
+      <c r="H33" s="79"/>
+      <c r="I33" s="79"/>
+      <c r="J33" s="79"/>
+      <c r="K33" s="79"/>
+      <c r="L33" s="79"/>
+      <c r="M33" s="79"/>
+      <c r="N33" s="79"/>
+      <c r="O33" s="80"/>
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="24" t="s">
-        <v>90</v>
+      <c r="A34" s="74" t="s">
+        <v>105</v>
       </c>
       <c r="B34" s="89"/>
       <c r="C34" s="89"/>

--- a/周报/杨蔡胤-2018141472011.xlsx
+++ b/周报/杨蔡胤-2018141472011.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\desktop\软件项目管理\project\SotfwareManagement_CovidAid\周报\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B52AB43-1D2F-4A13-84CC-31F5C50DA632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881D70E9-4773-4900-9BED-B654F2064F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="18953" windowHeight="11265" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="第八周工作周报" sheetId="7" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="第十一周工作周报" sheetId="14" r:id="rId4"/>
     <sheet name="第十二周工作周报" sheetId="12" r:id="rId5"/>
     <sheet name="第十三周工作周报" sheetId="16" r:id="rId6"/>
+    <sheet name="第十四周工作周报" sheetId="17" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">第八周工作周报!$A$1:$O$35</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="120">
   <si>
     <t>本周工作总结</t>
   </si>
@@ -661,6 +662,68 @@
   <si>
     <t>python分布式框架的具体实现</t>
     <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thrift协议 学习</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>分布式架构学习</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>微服务架构学习</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">工作周报    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">日期：2022.5.27          </t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统架构的学习</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统架构的设计</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统架构的实现和部署</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>架构的设计</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>架构的实现</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>本周工作总结</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：对不同的架构及其特性进行了总结，为下一步设计做准备</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1612,9 +1675,165 @@
     <xf numFmtId="9" fontId="32" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="18" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="23" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="24" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="22" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="21" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="13" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="13" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="26" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1627,161 +1846,17 @@
     <xf numFmtId="0" fontId="33" fillId="26" borderId="22" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="23" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="24" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="18" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="24" fillId="26" borderId="25" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="24" fillId="26" borderId="19" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="24" fillId="26" borderId="26" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="24" fillId="26" borderId="22" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="22" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="21" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="13" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="13" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="25" fillId="0" borderId="25" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1793,18 +1868,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="25" fillId="0" borderId="22" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="24" fillId="26" borderId="25" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="24" fillId="26" borderId="19" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="24" fillId="26" borderId="26" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="24" fillId="26" borderId="22" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="24" borderId="18" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2287,69 +2350,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="42"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="68"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="45"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="71"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
     </row>
     <row r="3" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="46" t="s">
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="48"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="74"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
@@ -2358,526 +2421,526 @@
       <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
       <c r="G4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="49" t="s">
+      <c r="H4" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="50"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="76"/>
       <c r="P4" s="7"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
       <c r="G5" s="8">
         <v>1</v>
       </c>
-      <c r="H5" s="52" t="s">
+      <c r="H5" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="53"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="63"/>
       <c r="P5" s="7"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="9">
         <v>2</v>
       </c>
-      <c r="H6" s="55" t="s">
+      <c r="H6" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="56"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="66"/>
       <c r="P6" s="7"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
       <c r="G7" s="8">
         <v>3</v>
       </c>
-      <c r="H7" s="52" t="s">
+      <c r="H7" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="53"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="63"/>
       <c r="P7" s="7"/>
     </row>
     <row r="8" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="57" t="s">
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="59"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="57"/>
       <c r="P8" s="7"/>
     </row>
     <row r="9" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
       <c r="D9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="62" t="s">
+      <c r="E9" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="63"/>
+      <c r="F9" s="60"/>
       <c r="G9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="60" t="s">
+      <c r="H9" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60" t="s">
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="60"/>
-      <c r="N9" s="60" t="s">
+      <c r="M9" s="45"/>
+      <c r="N9" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="61"/>
+      <c r="O9" s="58"/>
       <c r="P9" s="7"/>
     </row>
     <row r="10" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="72"/>
-      <c r="C10" s="73">
+      <c r="B10" s="29"/>
+      <c r="C10" s="34">
         <v>4.1100000000000003</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="36">
         <v>1</v>
       </c>
-      <c r="F10" s="32"/>
+      <c r="F10" s="37"/>
       <c r="G10" s="35">
         <v>1</v>
       </c>
-      <c r="H10" s="24" t="s">
+      <c r="H10" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24" t="s">
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24" t="s">
+      <c r="M10" s="30"/>
+      <c r="N10" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="O10" s="71"/>
+      <c r="O10" s="31"/>
       <c r="P10" s="7"/>
     </row>
     <row r="11" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="72"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="34"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="39"/>
       <c r="G11" s="35"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="71"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="31"/>
       <c r="P11" s="7"/>
     </row>
     <row r="12" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="72"/>
-      <c r="C12" s="73">
+      <c r="B12" s="29"/>
+      <c r="C12" s="34">
         <v>4.12</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="31">
+      <c r="E12" s="36">
         <v>1</v>
       </c>
-      <c r="F12" s="32"/>
+      <c r="F12" s="37"/>
       <c r="G12" s="35">
         <v>2</v>
       </c>
-      <c r="H12" s="24" t="s">
+      <c r="H12" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24" t="s">
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24" t="s">
+      <c r="M12" s="30"/>
+      <c r="N12" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="O12" s="71"/>
+      <c r="O12" s="31"/>
       <c r="P12" s="7"/>
     </row>
     <row r="13" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="72"/>
-      <c r="B13" s="72"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="34"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="39"/>
       <c r="G13" s="35"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="71"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="31"/>
       <c r="P13" s="7"/>
     </row>
     <row r="14" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="72" t="s">
+      <c r="A14" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="72"/>
-      <c r="C14" s="73">
+      <c r="B14" s="29"/>
+      <c r="C14" s="34">
         <v>4.13</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="31">
+      <c r="E14" s="36">
         <v>0.6</v>
       </c>
-      <c r="F14" s="32"/>
+      <c r="F14" s="37"/>
       <c r="G14" s="35">
         <v>3</v>
       </c>
-      <c r="H14" s="24" t="s">
+      <c r="H14" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24" t="s">
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24" t="s">
+      <c r="M14" s="30"/>
+      <c r="N14" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="O14" s="71"/>
+      <c r="O14" s="31"/>
       <c r="P14" s="7"/>
     </row>
     <row r="15" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="72"/>
-      <c r="B15" s="72"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="34"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="39"/>
       <c r="G15" s="35"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="71"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="31"/>
       <c r="P15" s="7"/>
     </row>
     <row r="16" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="72" t="s">
+      <c r="A16" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="72"/>
-      <c r="C16" s="73">
+      <c r="B16" s="29"/>
+      <c r="C16" s="34">
         <v>4.1399999999999997</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="31">
+      <c r="E16" s="36">
         <v>1</v>
       </c>
-      <c r="F16" s="32"/>
+      <c r="F16" s="37"/>
       <c r="G16" s="35">
         <v>4</v>
       </c>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="71"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="31"/>
       <c r="P16" s="7"/>
     </row>
     <row r="17" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="72"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="34"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="39"/>
       <c r="G17" s="35"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="71"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="31"/>
       <c r="P17" s="7"/>
     </row>
     <row r="18" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="72" t="s">
+      <c r="A18" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="72"/>
-      <c r="C18" s="73">
+      <c r="B18" s="29"/>
+      <c r="C18" s="34">
         <v>4.1500000000000004</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="31">
+      <c r="E18" s="36">
         <v>0.3</v>
       </c>
-      <c r="F18" s="32"/>
+      <c r="F18" s="37"/>
       <c r="G18" s="35">
         <v>5</v>
       </c>
-      <c r="H18" s="24"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="36"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="46"/>
       <c r="P18" s="7"/>
     </row>
     <row r="19" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="72"/>
-      <c r="B19" s="72"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="34"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="39"/>
       <c r="G19" s="35"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="38"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="48"/>
       <c r="P19" s="7"/>
     </row>
     <row r="20" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="72" t="s">
+      <c r="A20" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="72"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="26"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="78"/>
       <c r="G20" s="35">
         <v>6</v>
       </c>
-      <c r="H20" s="24"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="36"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="46"/>
       <c r="P20" s="7"/>
     </row>
     <row r="21" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="72"/>
-      <c r="B21" s="72"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="28"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="80"/>
       <c r="G21" s="35"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="38"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="48"/>
       <c r="P21" s="7"/>
     </row>
     <row r="22" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="72" t="s">
+      <c r="A22" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="72"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="26"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="78"/>
       <c r="G22" s="35">
         <v>7</v>
       </c>
-      <c r="H22" s="24"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="36"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="46"/>
       <c r="P22" s="7"/>
     </row>
     <row r="23" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="72"/>
-      <c r="B23" s="72"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="28"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="80"/>
       <c r="G23" s="35"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="38"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="48"/>
       <c r="P23" s="7"/>
     </row>
     <row r="24" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="57" t="s">
+      <c r="A24" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="57"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="44"/>
       <c r="O24" s="11"/>
       <c r="P24" s="7"/>
     </row>
     <row r="25" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="60" t="s">
+      <c r="A25" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="60"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60" t="s">
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="60"/>
-      <c r="L25" s="60"/>
-      <c r="M25" s="60"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
       <c r="N25" s="21" t="s">
         <v>23</v>
       </c>
@@ -2885,25 +2948,25 @@
       <c r="P25" s="7"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="68" t="s">
+      <c r="A26" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="68"/>
+      <c r="B26" s="42"/>
       <c r="C26" s="13">
         <v>4.18</v>
       </c>
-      <c r="D26" s="69" t="s">
+      <c r="D26" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="69"/>
-      <c r="M26" s="69"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
       <c r="N26" s="22">
         <v>1</v>
       </c>
@@ -2911,25 +2974,25 @@
       <c r="P26" s="7"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="64" t="s">
+      <c r="A27" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="64"/>
+      <c r="B27" s="51"/>
       <c r="C27" s="15">
         <v>4.1900000000000004</v>
       </c>
-      <c r="D27" s="70" t="s">
+      <c r="D27" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="70"/>
-      <c r="L27" s="70"/>
-      <c r="M27" s="70"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="55"/>
       <c r="N27" s="23">
         <v>0.5</v>
       </c>
@@ -2937,25 +3000,25 @@
       <c r="P27" s="7"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="68" t="s">
+      <c r="A28" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="68"/>
+      <c r="B28" s="42"/>
       <c r="C28" s="13">
         <v>4.2</v>
       </c>
-      <c r="D28" s="69" t="s">
+      <c r="D28" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="E28" s="69"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="69"/>
-      <c r="L28" s="69"/>
-      <c r="M28" s="69"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
       <c r="N28" s="22">
         <v>1</v>
       </c>
@@ -2963,25 +3026,25 @@
       <c r="P28" s="7"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="64" t="s">
+      <c r="A29" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="64"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="15">
         <v>4.21</v>
       </c>
-      <c r="D29" s="70" t="s">
+      <c r="D29" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="70"/>
-      <c r="K29" s="70"/>
-      <c r="L29" s="70"/>
-      <c r="M29" s="70"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="55"/>
       <c r="N29" s="23">
         <v>1</v>
       </c>
@@ -2989,25 +3052,25 @@
       <c r="P29" s="7"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="68" t="s">
+      <c r="A30" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="68"/>
+      <c r="B30" s="42"/>
       <c r="C30" s="13">
         <v>4.22</v>
       </c>
-      <c r="D30" s="69" t="s">
+      <c r="D30" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="69"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="69"/>
-      <c r="H30" s="69"/>
-      <c r="I30" s="69"/>
-      <c r="J30" s="69"/>
-      <c r="K30" s="69"/>
-      <c r="L30" s="69"/>
-      <c r="M30" s="69"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
       <c r="N30" s="22">
         <v>0.5</v>
       </c>
@@ -3015,25 +3078,25 @@
       <c r="P30" s="7"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="64" t="s">
+      <c r="A31" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="64"/>
+      <c r="B31" s="51"/>
       <c r="C31" s="15">
         <v>4.2300000000000004</v>
       </c>
-      <c r="D31" s="65" t="s">
+      <c r="D31" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="66"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="66"/>
-      <c r="I31" s="66"/>
-      <c r="J31" s="66"/>
-      <c r="K31" s="66"/>
-      <c r="L31" s="66"/>
-      <c r="M31" s="67"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="54"/>
       <c r="N31" s="23">
         <v>1</v>
       </c>
@@ -3041,25 +3104,25 @@
       <c r="P31" s="7"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="68" t="s">
+      <c r="A32" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="68"/>
+      <c r="B32" s="42"/>
       <c r="C32" s="13">
         <v>4.24</v>
       </c>
-      <c r="D32" s="69" t="s">
+      <c r="D32" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="E32" s="69"/>
-      <c r="F32" s="69"/>
-      <c r="G32" s="69"/>
-      <c r="H32" s="69"/>
-      <c r="I32" s="69"/>
-      <c r="J32" s="69"/>
-      <c r="K32" s="69"/>
-      <c r="L32" s="69"/>
-      <c r="M32" s="69"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="43"/>
       <c r="N32" s="22">
         <v>1</v>
       </c>
@@ -3067,61 +3130,61 @@
       <c r="P32" s="7"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="79" t="s">
+      <c r="A33" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="79"/>
-      <c r="C33" s="79"/>
-      <c r="D33" s="79"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="79"/>
-      <c r="I33" s="79"/>
-      <c r="J33" s="79"/>
-      <c r="K33" s="79"/>
-      <c r="L33" s="79"/>
-      <c r="M33" s="79"/>
-      <c r="N33" s="79"/>
-      <c r="O33" s="80"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="33"/>
       <c r="P33" s="7"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="74" t="s">
+      <c r="A34" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="75"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="75"/>
-      <c r="J34" s="75"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="75"/>
-      <c r="M34" s="75"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="76"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="25"/>
+      <c r="O34" s="26"/>
       <c r="P34" s="7"/>
     </row>
     <row r="35" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="77"/>
-      <c r="B35" s="77"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="77"/>
-      <c r="I35" s="77"/>
-      <c r="J35" s="77"/>
-      <c r="K35" s="77"/>
-      <c r="L35" s="77"/>
-      <c r="M35" s="77"/>
-      <c r="N35" s="77"/>
-      <c r="O35" s="78"/>
+      <c r="A35" s="27"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="28"/>
       <c r="P35" s="7"/>
     </row>
     <row r="36" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3154,6 +3217,84 @@
     </row>
   </sheetData>
   <mergeCells count="94">
+    <mergeCell ref="H10:K11"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="L20:M21"/>
+    <mergeCell ref="L22:M23"/>
+    <mergeCell ref="N20:O21"/>
+    <mergeCell ref="N22:O23"/>
+    <mergeCell ref="H18:K19"/>
+    <mergeCell ref="L18:M19"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:O8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:M32"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="N10:O11"/>
+    <mergeCell ref="L12:M13"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:M30"/>
+    <mergeCell ref="A24:N24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:M25"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="N18:O19"/>
+    <mergeCell ref="H20:K21"/>
+    <mergeCell ref="H22:K23"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="L10:M11"/>
+    <mergeCell ref="L14:M15"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="H12:K13"/>
+    <mergeCell ref="H14:K15"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:F13"/>
     <mergeCell ref="A34:O35"/>
     <mergeCell ref="A18:B19"/>
     <mergeCell ref="A20:B21"/>
@@ -3170,84 +3311,6 @@
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="G16:G17"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="E10:F11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:F13"/>
-    <mergeCell ref="L14:M15"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="H12:K13"/>
-    <mergeCell ref="H14:K15"/>
-    <mergeCell ref="N10:O11"/>
-    <mergeCell ref="L12:M13"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:M30"/>
-    <mergeCell ref="A24:N24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:M25"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D26:M26"/>
-    <mergeCell ref="N18:O19"/>
-    <mergeCell ref="H20:K21"/>
-    <mergeCell ref="H22:K23"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A10:B11"/>
-    <mergeCell ref="L10:M11"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:M31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:M32"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:M27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:M28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:M29"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="G8:O8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="H5:O5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="H6:O6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:O3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="H4:O4"/>
-    <mergeCell ref="L20:M21"/>
-    <mergeCell ref="L22:M23"/>
-    <mergeCell ref="N20:O21"/>
-    <mergeCell ref="N22:O23"/>
-    <mergeCell ref="H18:K19"/>
-    <mergeCell ref="L18:M19"/>
-    <mergeCell ref="H10:K11"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E14:F15"/>
-    <mergeCell ref="E16:F17"/>
-    <mergeCell ref="E18:F19"/>
-    <mergeCell ref="E20:F21"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="G20:G21"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.59027777777777779" bottom="0.39305555555555555" header="0.51111111111111107" footer="0.19652777777777777"/>
@@ -3288,69 +3351,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="42"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="68"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="45"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="71"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
     </row>
     <row r="3" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="46" t="s">
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="48"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="74"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
@@ -3359,524 +3422,524 @@
       <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
       <c r="G4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="49" t="s">
+      <c r="H4" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="50"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="76"/>
       <c r="P4" s="7"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
       <c r="G5" s="8">
         <v>1</v>
       </c>
-      <c r="H5" s="52" t="s">
+      <c r="H5" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="53"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="63"/>
       <c r="P5" s="7"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="9">
         <v>2</v>
       </c>
-      <c r="H6" s="55" t="s">
+      <c r="H6" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="56"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="66"/>
       <c r="P6" s="7"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
       <c r="G7" s="8">
         <v>3</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="53"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="63"/>
       <c r="P7" s="7"/>
     </row>
     <row r="8" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="57" t="s">
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="59"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="57"/>
       <c r="P8" s="7"/>
     </row>
     <row r="9" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
       <c r="D9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="62" t="s">
+      <c r="E9" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="63"/>
+      <c r="F9" s="60"/>
       <c r="G9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="60" t="s">
+      <c r="H9" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60" t="s">
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="60"/>
-      <c r="N9" s="60" t="s">
+      <c r="M9" s="45"/>
+      <c r="N9" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="61"/>
+      <c r="O9" s="58"/>
       <c r="P9" s="7"/>
     </row>
     <row r="10" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="72"/>
-      <c r="C10" s="73">
+      <c r="B10" s="29"/>
+      <c r="C10" s="34">
         <v>4.18</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="81">
+      <c r="E10" s="85">
         <v>1</v>
       </c>
-      <c r="F10" s="82"/>
+      <c r="F10" s="86"/>
       <c r="G10" s="35">
         <v>1</v>
       </c>
-      <c r="H10" s="24" t="s">
+      <c r="H10" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24" t="s">
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24" t="s">
+      <c r="M10" s="30"/>
+      <c r="N10" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="O10" s="71"/>
+      <c r="O10" s="31"/>
       <c r="P10" s="7"/>
     </row>
     <row r="11" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="72"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="84"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="88"/>
       <c r="G11" s="35"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="71"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="31"/>
       <c r="P11" s="7"/>
     </row>
     <row r="12" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="72"/>
-      <c r="C12" s="73">
+      <c r="B12" s="29"/>
+      <c r="C12" s="34">
         <v>4.1900000000000004</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="85">
+      <c r="E12" s="81">
         <v>0.3</v>
       </c>
-      <c r="F12" s="86"/>
+      <c r="F12" s="82"/>
       <c r="G12" s="35">
         <v>2</v>
       </c>
-      <c r="H12" s="24" t="s">
+      <c r="H12" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24" t="s">
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24" t="s">
+      <c r="M12" s="30"/>
+      <c r="N12" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="O12" s="71"/>
+      <c r="O12" s="31"/>
       <c r="P12" s="7"/>
     </row>
     <row r="13" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="72"/>
-      <c r="B13" s="72"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="88"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="84"/>
       <c r="G13" s="35"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="71"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="31"/>
       <c r="P13" s="7"/>
     </row>
     <row r="14" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="72" t="s">
+      <c r="A14" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="72"/>
-      <c r="C14" s="73">
+      <c r="B14" s="29"/>
+      <c r="C14" s="34">
         <v>4.2</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="81">
+      <c r="E14" s="85">
         <v>0.8</v>
       </c>
-      <c r="F14" s="82"/>
+      <c r="F14" s="86"/>
       <c r="G14" s="35">
         <v>3</v>
       </c>
-      <c r="H14" s="24" t="s">
+      <c r="H14" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24" t="s">
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24" t="s">
+      <c r="M14" s="30"/>
+      <c r="N14" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="O14" s="71"/>
+      <c r="O14" s="31"/>
       <c r="P14" s="7"/>
     </row>
     <row r="15" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="72"/>
-      <c r="B15" s="72"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="84"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="88"/>
       <c r="G15" s="35"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="71"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="31"/>
       <c r="P15" s="7"/>
     </row>
     <row r="16" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="72" t="s">
+      <c r="A16" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="72"/>
-      <c r="C16" s="73">
+      <c r="B16" s="29"/>
+      <c r="C16" s="34">
         <v>4.21</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="81">
+      <c r="E16" s="85">
         <v>1</v>
       </c>
-      <c r="F16" s="82"/>
+      <c r="F16" s="86"/>
       <c r="G16" s="35">
         <v>4</v>
       </c>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="71"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="31"/>
       <c r="P16" s="7"/>
     </row>
     <row r="17" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="72"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="84"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="88"/>
       <c r="G17" s="35"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="71"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="31"/>
       <c r="P17" s="7"/>
     </row>
     <row r="18" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="72" t="s">
+      <c r="A18" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="72"/>
-      <c r="C18" s="73">
+      <c r="B18" s="29"/>
+      <c r="C18" s="34">
         <v>4.22</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="81">
+      <c r="E18" s="85">
         <v>1</v>
       </c>
-      <c r="F18" s="82"/>
+      <c r="F18" s="86"/>
       <c r="G18" s="35">
         <v>5</v>
       </c>
-      <c r="H18" s="24"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="36"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="46"/>
       <c r="P18" s="7"/>
     </row>
     <row r="19" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="72"/>
-      <c r="B19" s="72"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="84"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="88"/>
       <c r="G19" s="35"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="38"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="48"/>
       <c r="P19" s="7"/>
     </row>
     <row r="20" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="72" t="s">
+      <c r="A20" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="72"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="26"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="78"/>
       <c r="G20" s="35">
         <v>6</v>
       </c>
-      <c r="H20" s="24"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="36"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="46"/>
       <c r="P20" s="7"/>
     </row>
     <row r="21" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="72"/>
-      <c r="B21" s="72"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="28"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="80"/>
       <c r="G21" s="35"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="38"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="48"/>
       <c r="P21" s="7"/>
     </row>
     <row r="22" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="72" t="s">
+      <c r="A22" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="72"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="26"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="78"/>
       <c r="G22" s="35">
         <v>7</v>
       </c>
-      <c r="H22" s="24"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="36"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="46"/>
       <c r="P22" s="7"/>
     </row>
     <row r="23" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="72"/>
-      <c r="B23" s="72"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="28"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="80"/>
       <c r="G23" s="35"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="38"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="48"/>
       <c r="P23" s="7"/>
     </row>
     <row r="24" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="57" t="s">
+      <c r="A24" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="57"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="44"/>
       <c r="O24" s="11"/>
       <c r="P24" s="7"/>
     </row>
     <row r="25" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="60" t="s">
+      <c r="A25" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="60"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60" t="s">
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="60"/>
-      <c r="L25" s="60"/>
-      <c r="M25" s="60"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
       <c r="N25" s="21" t="s">
         <v>23</v>
       </c>
@@ -3884,25 +3947,25 @@
       <c r="P25" s="7"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="68" t="s">
+      <c r="A26" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="68"/>
+      <c r="B26" s="42"/>
       <c r="C26" s="13">
         <v>4.25</v>
       </c>
-      <c r="D26" s="69" t="s">
+      <c r="D26" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="69"/>
-      <c r="M26" s="69"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
       <c r="N26" s="22">
         <v>0.3</v>
       </c>
@@ -3910,25 +3973,25 @@
       <c r="P26" s="7"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="64" t="s">
+      <c r="A27" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="64"/>
+      <c r="B27" s="51"/>
       <c r="C27" s="15">
         <v>4.26</v>
       </c>
-      <c r="D27" s="70" t="s">
+      <c r="D27" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="70"/>
-      <c r="L27" s="70"/>
-      <c r="M27" s="70"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="55"/>
       <c r="N27" s="23">
         <v>0.6</v>
       </c>
@@ -3936,25 +3999,25 @@
       <c r="P27" s="7"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="68" t="s">
+      <c r="A28" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="68"/>
+      <c r="B28" s="42"/>
       <c r="C28" s="13">
         <v>4.2699999999999996</v>
       </c>
-      <c r="D28" s="69" t="s">
+      <c r="D28" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="69"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="69"/>
-      <c r="L28" s="69"/>
-      <c r="M28" s="69"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
       <c r="N28" s="22">
         <v>1</v>
       </c>
@@ -3962,25 +4025,25 @@
       <c r="P28" s="7"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="64" t="s">
+      <c r="A29" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="64"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="15">
         <v>4.28</v>
       </c>
-      <c r="D29" s="70" t="s">
+      <c r="D29" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="70"/>
-      <c r="K29" s="70"/>
-      <c r="L29" s="70"/>
-      <c r="M29" s="70"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="55"/>
       <c r="N29" s="23">
         <v>1</v>
       </c>
@@ -3988,25 +4051,25 @@
       <c r="P29" s="7"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="68" t="s">
+      <c r="A30" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="68"/>
+      <c r="B30" s="42"/>
       <c r="C30" s="13">
         <v>4.29</v>
       </c>
-      <c r="D30" s="69" t="s">
+      <c r="D30" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="E30" s="69"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="69"/>
-      <c r="H30" s="69"/>
-      <c r="I30" s="69"/>
-      <c r="J30" s="69"/>
-      <c r="K30" s="69"/>
-      <c r="L30" s="69"/>
-      <c r="M30" s="69"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
       <c r="N30" s="22">
         <v>1</v>
       </c>
@@ -4014,101 +4077,101 @@
       <c r="P30" s="7"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="64" t="s">
+      <c r="A31" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="64"/>
+      <c r="B31" s="51"/>
       <c r="C31" s="15"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="70"/>
-      <c r="G31" s="70"/>
-      <c r="H31" s="70"/>
-      <c r="I31" s="70"/>
-      <c r="J31" s="70"/>
-      <c r="K31" s="70"/>
-      <c r="L31" s="70"/>
-      <c r="M31" s="70"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="55"/>
       <c r="N31" s="16"/>
       <c r="O31" s="17"/>
       <c r="P31" s="7"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="68" t="s">
+      <c r="A32" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="68"/>
+      <c r="B32" s="42"/>
       <c r="C32" s="13"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="69"/>
-      <c r="G32" s="69"/>
-      <c r="H32" s="69"/>
-      <c r="I32" s="69"/>
-      <c r="J32" s="69"/>
-      <c r="K32" s="69"/>
-      <c r="L32" s="69"/>
-      <c r="M32" s="69"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="43"/>
       <c r="N32" s="14"/>
       <c r="O32" s="11"/>
       <c r="P32" s="7"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="79" t="s">
+      <c r="A33" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="79"/>
-      <c r="C33" s="79"/>
-      <c r="D33" s="79"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="79"/>
-      <c r="I33" s="79"/>
-      <c r="J33" s="79"/>
-      <c r="K33" s="79"/>
-      <c r="L33" s="79"/>
-      <c r="M33" s="79"/>
-      <c r="N33" s="79"/>
-      <c r="O33" s="80"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="33"/>
       <c r="P33" s="7"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="74" t="s">
+      <c r="A34" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="75"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="75"/>
-      <c r="J34" s="75"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="75"/>
-      <c r="M34" s="75"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="76"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="25"/>
+      <c r="O34" s="26"/>
       <c r="P34" s="7"/>
     </row>
     <row r="35" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="77"/>
-      <c r="B35" s="77"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="77"/>
-      <c r="I35" s="77"/>
-      <c r="J35" s="77"/>
-      <c r="K35" s="77"/>
-      <c r="L35" s="77"/>
-      <c r="M35" s="77"/>
-      <c r="N35" s="77"/>
-      <c r="O35" s="78"/>
+      <c r="A35" s="27"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="28"/>
       <c r="P35" s="7"/>
     </row>
     <row r="36" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4138,6 +4201,897 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D40" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="94">
+    <mergeCell ref="A34:O35"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:M30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:M32"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="A33:O33"/>
+    <mergeCell ref="N22:O23"/>
+    <mergeCell ref="A24:N24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:M25"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:K23"/>
+    <mergeCell ref="L22:M23"/>
+    <mergeCell ref="L18:M19"/>
+    <mergeCell ref="N18:O19"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:K21"/>
+    <mergeCell ref="L20:M21"/>
+    <mergeCell ref="N20:O21"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:K19"/>
+    <mergeCell ref="L14:M15"/>
+    <mergeCell ref="N14:O15"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:K17"/>
+    <mergeCell ref="L16:M17"/>
+    <mergeCell ref="N16:O17"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:K15"/>
+    <mergeCell ref="L10:M11"/>
+    <mergeCell ref="N10:O11"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:K13"/>
+    <mergeCell ref="L12:M13"/>
+    <mergeCell ref="N12:O13"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:K11"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:O8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:O4"/>
+  </mergeCells>
+  <phoneticPr fontId="38" type="noConversion"/>
+  <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.59027777777777779" bottom="0.39305555555555555" header="0.51111111111111107" footer="0.19652777777777777"/>
+  <pageSetup paperSize="9" scale="95" firstPageNumber="4294963191" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B72793-B9A8-4727-9EDF-9B3C7969D70C}">
+  <dimension ref="A1:O35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:O35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:15" ht="22.9" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="68"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A2" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="71"/>
+    </row>
+    <row r="3" spans="1:15" ht="16.899999999999999" x14ac:dyDescent="0.4">
+      <c r="A3" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="74"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A4" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="75" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="76"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A5" s="8">
+        <v>1</v>
+      </c>
+      <c r="B5" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="8">
+        <v>1</v>
+      </c>
+      <c r="H5" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="63"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A6" s="9">
+        <v>2</v>
+      </c>
+      <c r="B6" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="9">
+        <v>2</v>
+      </c>
+      <c r="H6" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="66"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A7" s="8">
+        <v>3</v>
+      </c>
+      <c r="B7" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="8">
+        <v>3</v>
+      </c>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="63"/>
+    </row>
+    <row r="8" spans="1:15" ht="16.899999999999999" x14ac:dyDescent="0.4">
+      <c r="A8" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="57"/>
+    </row>
+    <row r="9" spans="1:15" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A9" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="60"/>
+      <c r="G9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" s="58"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A10" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="29"/>
+      <c r="C10" s="34">
+        <v>4.25</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="85">
+        <v>0.4</v>
+      </c>
+      <c r="F10" s="86"/>
+      <c r="G10" s="35">
+        <v>1</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="O10" s="31"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="31"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A12" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="29"/>
+      <c r="C12" s="34">
+        <v>4.26</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="81">
+        <v>0.7</v>
+      </c>
+      <c r="F12" s="82"/>
+      <c r="G12" s="35">
+        <v>2</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="O12" s="31"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="31"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A14" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="29"/>
+      <c r="C14" s="34">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="85">
+        <v>1</v>
+      </c>
+      <c r="F14" s="86"/>
+      <c r="G14" s="35">
+        <v>3</v>
+      </c>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="31"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="31"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A16" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="29"/>
+      <c r="C16" s="34">
+        <v>4.28</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="85">
+        <v>1</v>
+      </c>
+      <c r="F16" s="86"/>
+      <c r="G16" s="35">
+        <v>4</v>
+      </c>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="31"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="31"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A18" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="29"/>
+      <c r="C18" s="34">
+        <v>4.29</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="85">
+        <v>0.8</v>
+      </c>
+      <c r="F18" s="86"/>
+      <c r="G18" s="35">
+        <v>5</v>
+      </c>
+      <c r="H18" s="30"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="46"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="48"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A20" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="29"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="35">
+        <v>6</v>
+      </c>
+      <c r="H20" s="30"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="46"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="48"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A22" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="29"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="35">
+        <v>7</v>
+      </c>
+      <c r="H22" s="30"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="46"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="48"/>
+    </row>
+    <row r="24" spans="1:15" ht="16.899999999999999" x14ac:dyDescent="0.4">
+      <c r="A24" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="11"/>
+    </row>
+    <row r="25" spans="1:15" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A25" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="O25" s="12"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A26" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="42"/>
+      <c r="C26" s="13">
+        <v>5.2</v>
+      </c>
+      <c r="D26" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="22">
+        <v>1</v>
+      </c>
+      <c r="O26" s="11"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A27" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="51"/>
+      <c r="C27" s="15">
+        <v>5.3</v>
+      </c>
+      <c r="D27" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="55"/>
+      <c r="N27" s="23">
+        <v>1</v>
+      </c>
+      <c r="O27" s="17"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A28" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="42"/>
+      <c r="C28" s="13">
+        <v>5.4</v>
+      </c>
+      <c r="D28" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="O28" s="11"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A29" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="51"/>
+      <c r="C29" s="15">
+        <v>5.5</v>
+      </c>
+      <c r="D29" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="O29" s="17"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A30" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="42"/>
+      <c r="C30" s="13">
+        <v>5.6</v>
+      </c>
+      <c r="D30" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="O30" s="11"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A31" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="51"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="55"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="17"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A32" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="42"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="43"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="11"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A33" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="33"/>
+    </row>
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" s="89"/>
+      <c r="C34" s="89"/>
+      <c r="D34" s="89"/>
+      <c r="E34" s="89"/>
+      <c r="F34" s="89"/>
+      <c r="G34" s="89"/>
+      <c r="H34" s="89"/>
+      <c r="I34" s="89"/>
+      <c r="J34" s="89"/>
+      <c r="K34" s="89"/>
+      <c r="L34" s="89"/>
+      <c r="M34" s="89"/>
+      <c r="N34" s="89"/>
+      <c r="O34" s="90"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A35" s="91"/>
+      <c r="B35" s="92"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="92"/>
+      <c r="F35" s="92"/>
+      <c r="G35" s="92"/>
+      <c r="H35" s="92"/>
+      <c r="I35" s="92"/>
+      <c r="J35" s="92"/>
+      <c r="K35" s="92"/>
+      <c r="L35" s="92"/>
+      <c r="M35" s="92"/>
+      <c r="N35" s="92"/>
+      <c r="O35" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="94">
@@ -4237,766 +5191,1629 @@
     <mergeCell ref="D32:M32"/>
   </mergeCells>
   <phoneticPr fontId="38" type="noConversion"/>
-  <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.59027777777777779" bottom="0.39305555555555555" header="0.51111111111111107" footer="0.19652777777777777"/>
-  <pageSetup paperSize="9" scale="95" firstPageNumber="4294963191" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B72793-B9A8-4727-9EDF-9B3C7969D70C}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79C8278E-B131-4B75-AA80-8D9B13C996FD}">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A34" sqref="A34:O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:15" ht="22.9" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="42"/>
+      <c r="A1" s="67" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="68"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="45"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="71"/>
     </row>
     <row r="3" spans="1:15" ht="16.899999999999999" x14ac:dyDescent="0.4">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="46" t="s">
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="48"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="74"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
       <c r="G4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="49" t="s">
+      <c r="H4" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="50"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="76"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
       <c r="G5" s="8">
         <v>1</v>
       </c>
-      <c r="H5" s="52" t="s">
+      <c r="H5" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="53"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="63"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="9">
         <v>2</v>
       </c>
-      <c r="H6" s="55" t="s">
+      <c r="H6" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="56"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="66"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
       <c r="G7" s="8">
         <v>3</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="53"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="63"/>
     </row>
     <row r="8" spans="1:15" ht="16.899999999999999" x14ac:dyDescent="0.4">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="57" t="s">
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="59"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="57"/>
     </row>
     <row r="9" spans="1:15" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
       <c r="D9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="62" t="s">
+      <c r="E9" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="63"/>
+      <c r="F9" s="60"/>
       <c r="G9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="60" t="s">
+      <c r="H9" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60" t="s">
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="60"/>
-      <c r="N9" s="60" t="s">
+      <c r="M9" s="45"/>
+      <c r="N9" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="61"/>
+      <c r="O9" s="58"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="72"/>
-      <c r="C10" s="73">
-        <v>4.25</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10" s="81">
-        <v>0.4</v>
-      </c>
-      <c r="F10" s="82"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="34">
+        <v>5.2</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="85">
+        <v>1</v>
+      </c>
+      <c r="F10" s="86"/>
       <c r="G10" s="35">
         <v>1</v>
       </c>
-      <c r="H10" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="O10" s="71"/>
+      <c r="H10" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="O10" s="31"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A11" s="72"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="84"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="88"/>
       <c r="G11" s="35"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="71"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="31"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="72"/>
-      <c r="C12" s="73">
-        <v>4.26</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="85">
-        <v>0.7</v>
-      </c>
-      <c r="F12" s="86"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="34">
+        <v>5.3</v>
+      </c>
+      <c r="D12" s="40"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="82"/>
       <c r="G12" s="35">
         <v>2</v>
       </c>
-      <c r="H12" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="O12" s="71"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="31"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A13" s="72"/>
-      <c r="B13" s="72"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="88"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="84"/>
       <c r="G13" s="35"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="71"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="31"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A14" s="72" t="s">
+      <c r="A14" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="72"/>
-      <c r="C14" s="73">
-        <v>4.2699999999999996</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" s="81">
-        <v>1</v>
-      </c>
-      <c r="F14" s="82"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="34">
+        <v>5.4</v>
+      </c>
+      <c r="D14" s="40"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="86"/>
       <c r="G14" s="35">
         <v>3</v>
       </c>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="71"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="31"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A15" s="72"/>
-      <c r="B15" s="72"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="84"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="88"/>
       <c r="G15" s="35"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="71"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="31"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A16" s="72" t="s">
+      <c r="A16" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="72"/>
-      <c r="C16" s="73">
-        <v>4.28</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" s="81">
-        <v>1</v>
-      </c>
-      <c r="F16" s="82"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="34">
+        <v>5.5</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="85">
+        <v>0.8</v>
+      </c>
+      <c r="F16" s="86"/>
       <c r="G16" s="35">
         <v>4</v>
       </c>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="71"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="31"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A17" s="72"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="84"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="88"/>
       <c r="G17" s="35"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="71"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="31"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A18" s="72" t="s">
+      <c r="A18" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="72"/>
-      <c r="C18" s="73">
-        <v>4.29</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" s="81">
-        <v>0.8</v>
-      </c>
-      <c r="F18" s="82"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="34">
+        <v>5.6</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" s="85">
+        <v>1</v>
+      </c>
+      <c r="F18" s="86"/>
       <c r="G18" s="35">
         <v>5</v>
       </c>
-      <c r="H18" s="24"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="36"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="46"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A19" s="72"/>
-      <c r="B19" s="72"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="84"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="88"/>
       <c r="G19" s="35"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="38"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="48"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A20" s="72" t="s">
+      <c r="A20" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="72"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="26"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="78"/>
       <c r="G20" s="35">
         <v>6</v>
       </c>
-      <c r="H20" s="24"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="36"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="46"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A21" s="72"/>
-      <c r="B21" s="72"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="28"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="80"/>
       <c r="G21" s="35"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="38"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="48"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A22" s="72" t="s">
+      <c r="A22" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="72"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="26"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="78"/>
       <c r="G22" s="35">
         <v>7</v>
       </c>
-      <c r="H22" s="24"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="36"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="46"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A23" s="72"/>
-      <c r="B23" s="72"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="28"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="80"/>
       <c r="G23" s="35"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="38"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="48"/>
     </row>
     <row r="24" spans="1:15" ht="16.899999999999999" x14ac:dyDescent="0.4">
-      <c r="A24" s="57" t="s">
+      <c r="A24" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="57"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="44"/>
       <c r="O24" s="11"/>
     </row>
     <row r="25" spans="1:15" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A25" s="60" t="s">
+      <c r="A25" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="60"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60" t="s">
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="60"/>
-      <c r="L25" s="60"/>
-      <c r="M25" s="60"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
       <c r="N25" s="21" t="s">
         <v>23</v>
       </c>
       <c r="O25" s="12"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A26" s="68" t="s">
+      <c r="A26" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="68"/>
+      <c r="B26" s="42"/>
       <c r="C26" s="13">
-        <v>5.2</v>
-      </c>
-      <c r="D26" s="69" t="s">
+        <v>5.09</v>
+      </c>
+      <c r="D26" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="69"/>
-      <c r="M26" s="69"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
       <c r="N26" s="22">
         <v>1</v>
       </c>
       <c r="O26" s="11"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A27" s="64" t="s">
+      <c r="A27" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="64"/>
+      <c r="B27" s="51"/>
       <c r="C27" s="15">
-        <v>5.3</v>
-      </c>
-      <c r="D27" s="70" t="s">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D27" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="70"/>
-      <c r="L27" s="70"/>
-      <c r="M27" s="70"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="55"/>
       <c r="N27" s="23">
         <v>1</v>
       </c>
       <c r="O27" s="17"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A28" s="68" t="s">
+      <c r="A28" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="68"/>
+      <c r="B28" s="42"/>
       <c r="C28" s="13">
-        <v>5.4</v>
-      </c>
-      <c r="D28" s="69" t="s">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="E28" s="69"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="69"/>
-      <c r="L28" s="69"/>
-      <c r="M28" s="69"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
       <c r="N28" s="22">
         <v>0.2</v>
       </c>
       <c r="O28" s="11"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A29" s="64" t="s">
+      <c r="A29" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="64"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="15">
-        <v>5.5</v>
-      </c>
-      <c r="D29" s="70" t="s">
+        <v>5.12</v>
+      </c>
+      <c r="D29" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="70"/>
-      <c r="K29" s="70"/>
-      <c r="L29" s="70"/>
-      <c r="M29" s="70"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="55"/>
       <c r="N29" s="23">
         <v>0.4</v>
       </c>
       <c r="O29" s="17"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A30" s="68" t="s">
+      <c r="A30" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="68"/>
+      <c r="B30" s="42"/>
       <c r="C30" s="13">
-        <v>5.6</v>
-      </c>
-      <c r="D30" s="69" t="s">
+        <v>5.13</v>
+      </c>
+      <c r="D30" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="E30" s="69"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="69"/>
-      <c r="H30" s="69"/>
-      <c r="I30" s="69"/>
-      <c r="J30" s="69"/>
-      <c r="K30" s="69"/>
-      <c r="L30" s="69"/>
-      <c r="M30" s="69"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
       <c r="N30" s="22">
         <v>0.6</v>
       </c>
       <c r="O30" s="11"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A31" s="64" t="s">
+      <c r="A31" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="64"/>
+      <c r="B31" s="51"/>
       <c r="C31" s="15"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="70"/>
-      <c r="G31" s="70"/>
-      <c r="H31" s="70"/>
-      <c r="I31" s="70"/>
-      <c r="J31" s="70"/>
-      <c r="K31" s="70"/>
-      <c r="L31" s="70"/>
-      <c r="M31" s="70"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="55"/>
       <c r="N31" s="16"/>
       <c r="O31" s="17"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A32" s="68" t="s">
+      <c r="A32" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="68"/>
+      <c r="B32" s="42"/>
       <c r="C32" s="13"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="69"/>
-      <c r="G32" s="69"/>
-      <c r="H32" s="69"/>
-      <c r="I32" s="69"/>
-      <c r="J32" s="69"/>
-      <c r="K32" s="69"/>
-      <c r="L32" s="69"/>
-      <c r="M32" s="69"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="43"/>
       <c r="N32" s="14"/>
       <c r="O32" s="11"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A33" s="79" t="s">
+      <c r="A33" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="79"/>
-      <c r="C33" s="79"/>
-      <c r="D33" s="79"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="79"/>
-      <c r="I33" s="79"/>
-      <c r="J33" s="79"/>
-      <c r="K33" s="79"/>
-      <c r="L33" s="79"/>
-      <c r="M33" s="79"/>
-      <c r="N33" s="79"/>
-      <c r="O33" s="80"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="33"/>
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="74" t="s">
-        <v>82</v>
+      <c r="A34" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" s="89"/>
+      <c r="C34" s="89"/>
+      <c r="D34" s="89"/>
+      <c r="E34" s="89"/>
+      <c r="F34" s="89"/>
+      <c r="G34" s="89"/>
+      <c r="H34" s="89"/>
+      <c r="I34" s="89"/>
+      <c r="J34" s="89"/>
+      <c r="K34" s="89"/>
+      <c r="L34" s="89"/>
+      <c r="M34" s="89"/>
+      <c r="N34" s="89"/>
+      <c r="O34" s="90"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A35" s="91"/>
+      <c r="B35" s="92"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="92"/>
+      <c r="F35" s="92"/>
+      <c r="G35" s="92"/>
+      <c r="H35" s="92"/>
+      <c r="I35" s="92"/>
+      <c r="J35" s="92"/>
+      <c r="K35" s="92"/>
+      <c r="L35" s="92"/>
+      <c r="M35" s="92"/>
+      <c r="N35" s="92"/>
+      <c r="O35" s="93"/>
+    </row>
+  </sheetData>
+  <mergeCells count="94">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:O8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="L10:M11"/>
+    <mergeCell ref="N10:O11"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:K13"/>
+    <mergeCell ref="L12:M13"/>
+    <mergeCell ref="N12:O13"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:K11"/>
+    <mergeCell ref="L14:M15"/>
+    <mergeCell ref="N14:O15"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:K17"/>
+    <mergeCell ref="L16:M17"/>
+    <mergeCell ref="N16:O17"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:K15"/>
+    <mergeCell ref="L18:M19"/>
+    <mergeCell ref="N18:O19"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:K21"/>
+    <mergeCell ref="L20:M21"/>
+    <mergeCell ref="N20:O21"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:K19"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:K23"/>
+    <mergeCell ref="L22:M23"/>
+    <mergeCell ref="N22:O23"/>
+    <mergeCell ref="A24:N24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:M25"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="A33:O33"/>
+    <mergeCell ref="A34:O35"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:M30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:M32"/>
+  </mergeCells>
+  <phoneticPr fontId="38" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A569239-7554-4BEA-8682-11343A0748D9}">
+  <dimension ref="A1:O35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:15" ht="22.9" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="67" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="68"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A2" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="71"/>
+    </row>
+    <row r="3" spans="1:15" ht="16.899999999999999" x14ac:dyDescent="0.4">
+      <c r="A3" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="74"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A4" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="75" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="76"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A5" s="8">
+        <v>1</v>
+      </c>
+      <c r="B5" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="8">
+        <v>1</v>
+      </c>
+      <c r="H5" s="62" t="s">
+        <v>93</v>
+      </c>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="63"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A6" s="9">
+        <v>2</v>
+      </c>
+      <c r="B6" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="9">
+        <v>2</v>
+      </c>
+      <c r="H6" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="66"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A7" s="8">
+        <v>3</v>
+      </c>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="8">
+        <v>3</v>
+      </c>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="63"/>
+    </row>
+    <row r="8" spans="1:15" ht="16.899999999999999" x14ac:dyDescent="0.4">
+      <c r="A8" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="57"/>
+    </row>
+    <row r="9" spans="1:15" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A9" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="60"/>
+      <c r="G9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" s="58"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A10" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="29"/>
+      <c r="C10" s="34">
+        <v>5.09</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="85">
+        <v>0.4</v>
+      </c>
+      <c r="F10" s="86"/>
+      <c r="G10" s="35">
+        <v>1</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="O10" s="31"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="31"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A12" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="29"/>
+      <c r="C12" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="81">
+        <v>0.7</v>
+      </c>
+      <c r="F12" s="82"/>
+      <c r="G12" s="35">
+        <v>2</v>
+      </c>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="31"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="31"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A14" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="29"/>
+      <c r="C14" s="34">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="85">
+        <v>0.2</v>
+      </c>
+      <c r="F14" s="86"/>
+      <c r="G14" s="35">
+        <v>3</v>
+      </c>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="31"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="31"/>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="29"/>
+      <c r="C16" s="34">
+        <v>5.12</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="85">
+        <v>0.3</v>
+      </c>
+      <c r="F16" s="86"/>
+      <c r="G16" s="35">
+        <v>4</v>
+      </c>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="31"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="31"/>
+    </row>
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="29"/>
+      <c r="C18" s="34">
+        <v>5.13</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="85">
+        <v>0.6</v>
+      </c>
+      <c r="F18" s="86"/>
+      <c r="G18" s="35">
+        <v>5</v>
+      </c>
+      <c r="H18" s="30"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="46"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="48"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A20" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="29"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="35">
+        <v>6</v>
+      </c>
+      <c r="H20" s="30"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="46"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="48"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A22" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="29"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="35">
+        <v>7</v>
+      </c>
+      <c r="H22" s="30"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="46"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="48"/>
+    </row>
+    <row r="24" spans="1:15" ht="16.899999999999999" x14ac:dyDescent="0.4">
+      <c r="A24" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="11"/>
+    </row>
+    <row r="25" spans="1:15" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A25" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="O25" s="12"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A26" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="42"/>
+      <c r="C26" s="13">
+        <v>5.16</v>
+      </c>
+      <c r="D26" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="O26" s="11"/>
+    </row>
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="51"/>
+      <c r="C27" s="15">
+        <v>5.17</v>
+      </c>
+      <c r="D27" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="23">
+        <v>0.6</v>
+      </c>
+      <c r="O27" s="17"/>
+    </row>
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="42"/>
+      <c r="C28" s="13">
+        <v>5.18</v>
+      </c>
+      <c r="D28" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="22">
+        <v>1</v>
+      </c>
+      <c r="O28" s="11"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A29" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="51"/>
+      <c r="C29" s="15">
+        <v>5.19</v>
+      </c>
+      <c r="D29" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="O29" s="17"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A30" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="42"/>
+      <c r="C30" s="13">
+        <v>5.2</v>
+      </c>
+      <c r="D30" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="O30" s="11"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A31" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="51"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="55"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="17"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A32" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="42"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="43"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="11"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A33" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="33"/>
+    </row>
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="24" t="s">
+        <v>90</v>
       </c>
       <c r="B34" s="89"/>
       <c r="C34" s="89"/>
@@ -5132,1625 +6949,750 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79C8278E-B131-4B75-AA80-8D9B13C996FD}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F220E995-EA23-40D6-90AF-6ED216400E2B}">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:O35"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:15" ht="22.9" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="42"/>
+      <c r="A1" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="68"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="45"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="71"/>
     </row>
     <row r="3" spans="1:15" ht="16.899999999999999" x14ac:dyDescent="0.4">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="46" t="s">
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="48"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="74"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
       <c r="G4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="49" t="s">
+      <c r="H4" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="50"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="76"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
+      <c r="B5" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
       <c r="G5" s="8">
         <v>1</v>
       </c>
-      <c r="H5" s="52" t="s">
-        <v>72</v>
-      </c>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="53"/>
+      <c r="H5" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="63"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="54" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
+      <c r="B6" s="64" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="9">
         <v>2</v>
       </c>
-      <c r="H6" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="56"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="66"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
       <c r="G7" s="8">
         <v>3</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="53"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="63"/>
     </row>
     <row r="8" spans="1:15" ht="16.899999999999999" x14ac:dyDescent="0.4">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="57" t="s">
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="59"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="57"/>
     </row>
     <row r="9" spans="1:15" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
       <c r="D9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="62" t="s">
+      <c r="E9" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="63"/>
+      <c r="F9" s="60"/>
       <c r="G9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="60" t="s">
+      <c r="H9" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60" t="s">
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="60"/>
-      <c r="N9" s="60" t="s">
+      <c r="M9" s="45"/>
+      <c r="N9" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="61"/>
+      <c r="O9" s="58"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="72"/>
-      <c r="C10" s="73">
-        <v>5.2</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="E10" s="81">
-        <v>1</v>
-      </c>
-      <c r="F10" s="82"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="94">
+        <v>5.16</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="85">
+        <v>0.4</v>
+      </c>
+      <c r="F10" s="86"/>
       <c r="G10" s="35">
         <v>1</v>
       </c>
-      <c r="H10" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="O10" s="71"/>
+      <c r="H10" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="O10" s="31"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A11" s="72"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="84"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="88"/>
       <c r="G11" s="35"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="71"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A12" s="72" t="s">
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="31"/>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="72"/>
-      <c r="C12" s="73">
-        <v>5.3</v>
-      </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="86"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="95">
+        <v>5.17</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="81">
+        <v>0.7</v>
+      </c>
+      <c r="F12" s="82"/>
       <c r="G12" s="35">
         <v>2</v>
       </c>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="71"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="31"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A13" s="72"/>
-      <c r="B13" s="72"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="88"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="84"/>
       <c r="G13" s="35"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="71"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A14" s="72" t="s">
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="31"/>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="72"/>
-      <c r="C14" s="73">
-        <v>5.4</v>
-      </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="82"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="95">
+        <v>5.18</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="85">
+        <v>0.9</v>
+      </c>
+      <c r="F14" s="86"/>
       <c r="G14" s="35">
         <v>3</v>
       </c>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="71"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="31"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A15" s="72"/>
-      <c r="B15" s="72"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="84"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="88"/>
       <c r="G15" s="35"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="71"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A16" s="72" t="s">
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="31"/>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="72"/>
-      <c r="C16" s="73">
-        <v>5.5</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="E16" s="81">
-        <v>0.8</v>
-      </c>
-      <c r="F16" s="82"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="95">
+        <v>5.19</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" s="85">
+        <v>1</v>
+      </c>
+      <c r="F16" s="86"/>
       <c r="G16" s="35">
         <v>4</v>
       </c>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="71"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="31"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A17" s="72"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="84"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="88"/>
       <c r="G17" s="35"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="71"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A18" s="72" t="s">
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="31"/>
+    </row>
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="72"/>
-      <c r="C18" s="73">
-        <v>5.6</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="E18" s="81">
-        <v>1</v>
-      </c>
-      <c r="F18" s="82"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="94">
+        <v>5.2</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="85">
+        <v>0.6</v>
+      </c>
+      <c r="F18" s="86"/>
       <c r="G18" s="35">
         <v>5</v>
       </c>
-      <c r="H18" s="24"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="36"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="46"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A19" s="72"/>
-      <c r="B19" s="72"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="84"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="88"/>
       <c r="G19" s="35"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="38"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="48"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A20" s="72" t="s">
+      <c r="A20" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="72"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="26"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="78"/>
       <c r="G20" s="35">
         <v>6</v>
       </c>
-      <c r="H20" s="24"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="36"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="46"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A21" s="72"/>
-      <c r="B21" s="72"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="28"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="80"/>
       <c r="G21" s="35"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="38"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="48"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A22" s="72" t="s">
+      <c r="A22" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="72"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="26"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="78"/>
       <c r="G22" s="35">
         <v>7</v>
       </c>
-      <c r="H22" s="24"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="36"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="46"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A23" s="72"/>
-      <c r="B23" s="72"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="28"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="80"/>
       <c r="G23" s="35"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="38"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="48"/>
     </row>
     <row r="24" spans="1:15" ht="16.899999999999999" x14ac:dyDescent="0.4">
-      <c r="A24" s="57" t="s">
+      <c r="A24" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="57"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="44"/>
       <c r="O24" s="11"/>
     </row>
     <row r="25" spans="1:15" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A25" s="60" t="s">
+      <c r="A25" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="60"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60" t="s">
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="60"/>
-      <c r="L25" s="60"/>
-      <c r="M25" s="60"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
       <c r="N25" s="21" t="s">
         <v>23</v>
       </c>
       <c r="O25" s="12"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A26" s="68" t="s">
+      <c r="A26" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="68"/>
+      <c r="B26" s="42"/>
       <c r="C26" s="13">
-        <v>5.09</v>
-      </c>
-      <c r="D26" s="69" t="s">
-        <v>73</v>
-      </c>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="69"/>
-      <c r="M26" s="69"/>
+        <v>5.23</v>
+      </c>
+      <c r="D26" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
       <c r="N26" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="O26" s="11"/>
+    </row>
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="51"/>
+      <c r="C27" s="15">
+        <v>5.24</v>
+      </c>
+      <c r="D27" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="23">
+        <v>0.6</v>
+      </c>
+      <c r="O27" s="17"/>
+    </row>
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="42"/>
+      <c r="C28" s="13">
+        <v>5.25</v>
+      </c>
+      <c r="D28" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="22">
         <v>1</v>
       </c>
-      <c r="O26" s="11"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A27" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="64"/>
-      <c r="C27" s="15">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="D27" s="70" t="s">
-        <v>80</v>
-      </c>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="70"/>
-      <c r="L27" s="70"/>
-      <c r="M27" s="70"/>
-      <c r="N27" s="23">
-        <v>1</v>
-      </c>
-      <c r="O27" s="17"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A28" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="68"/>
-      <c r="C28" s="13">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="D28" s="69" t="s">
-        <v>81</v>
-      </c>
-      <c r="E28" s="69"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="69"/>
-      <c r="L28" s="69"/>
-      <c r="M28" s="69"/>
-      <c r="N28" s="22">
+      <c r="O28" s="11"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A29" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="51"/>
+      <c r="C29" s="15">
+        <v>5.26</v>
+      </c>
+      <c r="D29" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="23">
         <v>0.2</v>
       </c>
-      <c r="O28" s="11"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A29" s="64" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="64"/>
-      <c r="C29" s="15">
-        <v>5.12</v>
-      </c>
-      <c r="D29" s="70" t="s">
-        <v>81</v>
-      </c>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="70"/>
-      <c r="K29" s="70"/>
-      <c r="L29" s="70"/>
-      <c r="M29" s="70"/>
-      <c r="N29" s="23">
-        <v>0.4</v>
-      </c>
       <c r="O29" s="17"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A30" s="68" t="s">
+      <c r="A30" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="68"/>
+      <c r="B30" s="42"/>
       <c r="C30" s="13">
-        <v>5.13</v>
-      </c>
-      <c r="D30" s="69" t="s">
-        <v>81</v>
-      </c>
-      <c r="E30" s="69"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="69"/>
-      <c r="H30" s="69"/>
-      <c r="I30" s="69"/>
-      <c r="J30" s="69"/>
-      <c r="K30" s="69"/>
-      <c r="L30" s="69"/>
-      <c r="M30" s="69"/>
+        <v>5.27</v>
+      </c>
+      <c r="D30" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
       <c r="N30" s="22">
         <v>0.6</v>
       </c>
       <c r="O30" s="11"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A31" s="64" t="s">
+      <c r="A31" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="64"/>
+      <c r="B31" s="51"/>
       <c r="C31" s="15"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="70"/>
-      <c r="G31" s="70"/>
-      <c r="H31" s="70"/>
-      <c r="I31" s="70"/>
-      <c r="J31" s="70"/>
-      <c r="K31" s="70"/>
-      <c r="L31" s="70"/>
-      <c r="M31" s="70"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="55"/>
       <c r="N31" s="16"/>
       <c r="O31" s="17"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A32" s="68" t="s">
+      <c r="A32" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="68"/>
+      <c r="B32" s="42"/>
       <c r="C32" s="13"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="69"/>
-      <c r="G32" s="69"/>
-      <c r="H32" s="69"/>
-      <c r="I32" s="69"/>
-      <c r="J32" s="69"/>
-      <c r="K32" s="69"/>
-      <c r="L32" s="69"/>
-      <c r="M32" s="69"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="43"/>
       <c r="N32" s="14"/>
       <c r="O32" s="11"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A33" s="79" t="s">
+      <c r="A33" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="79"/>
-      <c r="C33" s="79"/>
-      <c r="D33" s="79"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="79"/>
-      <c r="I33" s="79"/>
-      <c r="J33" s="79"/>
-      <c r="K33" s="79"/>
-      <c r="L33" s="79"/>
-      <c r="M33" s="79"/>
-      <c r="N33" s="79"/>
-      <c r="O33" s="80"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="33"/>
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="74" t="s">
-        <v>99</v>
-      </c>
-      <c r="B34" s="89"/>
-      <c r="C34" s="89"/>
-      <c r="D34" s="89"/>
-      <c r="E34" s="89"/>
-      <c r="F34" s="89"/>
-      <c r="G34" s="89"/>
-      <c r="H34" s="89"/>
-      <c r="I34" s="89"/>
-      <c r="J34" s="89"/>
-      <c r="K34" s="89"/>
-      <c r="L34" s="89"/>
-      <c r="M34" s="89"/>
-      <c r="N34" s="89"/>
-      <c r="O34" s="90"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A35" s="91"/>
-      <c r="B35" s="92"/>
-      <c r="C35" s="92"/>
-      <c r="D35" s="92"/>
-      <c r="E35" s="92"/>
-      <c r="F35" s="92"/>
-      <c r="G35" s="92"/>
-      <c r="H35" s="92"/>
-      <c r="I35" s="92"/>
-      <c r="J35" s="92"/>
-      <c r="K35" s="92"/>
-      <c r="L35" s="92"/>
-      <c r="M35" s="92"/>
-      <c r="N35" s="92"/>
-      <c r="O35" s="93"/>
-    </row>
-  </sheetData>
-  <mergeCells count="94">
-    <mergeCell ref="A33:O33"/>
-    <mergeCell ref="A34:O35"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:M30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:M31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:M32"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:M27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:M28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:M29"/>
-    <mergeCell ref="L22:M23"/>
-    <mergeCell ref="N22:O23"/>
-    <mergeCell ref="A24:N24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:M25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D26:M26"/>
-    <mergeCell ref="A22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:K23"/>
-    <mergeCell ref="L18:M19"/>
-    <mergeCell ref="N18:O19"/>
-    <mergeCell ref="A20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:K21"/>
-    <mergeCell ref="L20:M21"/>
-    <mergeCell ref="N20:O21"/>
-    <mergeCell ref="A18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:K19"/>
-    <mergeCell ref="L14:M15"/>
-    <mergeCell ref="N14:O15"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:K17"/>
-    <mergeCell ref="L16:M17"/>
-    <mergeCell ref="N16:O17"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:K15"/>
-    <mergeCell ref="L10:M11"/>
-    <mergeCell ref="N10:O11"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:K13"/>
-    <mergeCell ref="L12:M13"/>
-    <mergeCell ref="N12:O13"/>
-    <mergeCell ref="A10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:K11"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="G8:O8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="H5:O5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="H6:O6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:O3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="H4:O4"/>
-  </mergeCells>
-  <phoneticPr fontId="38" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A569239-7554-4BEA-8682-11343A0748D9}">
-  <dimension ref="A1:O35"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:15" ht="22.9" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="42"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A2" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="45"/>
-    </row>
-    <row r="3" spans="1:15" ht="16.899999999999999" x14ac:dyDescent="0.4">
-      <c r="A3" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="48"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A4" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="49" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="50"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A5" s="8">
-        <v>1</v>
-      </c>
-      <c r="B5" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="8">
-        <v>1</v>
-      </c>
-      <c r="H5" s="52" t="s">
-        <v>93</v>
-      </c>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="53"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A6" s="9">
-        <v>2</v>
-      </c>
-      <c r="B6" s="54" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="9">
-        <v>2</v>
-      </c>
-      <c r="H6" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="56"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A7" s="8">
-        <v>3</v>
-      </c>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="8">
-        <v>3</v>
-      </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="53"/>
-    </row>
-    <row r="8" spans="1:15" ht="16.899999999999999" x14ac:dyDescent="0.4">
-      <c r="A8" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="59"/>
-    </row>
-    <row r="9" spans="1:15" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A9" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="62" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="63"/>
-      <c r="G9" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60" t="s">
-        <v>11</v>
-      </c>
-      <c r="M9" s="60"/>
-      <c r="N9" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="O9" s="61"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A10" s="72" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="72"/>
-      <c r="C10" s="73">
-        <v>5.09</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="E10" s="81">
-        <v>0.4</v>
-      </c>
-      <c r="F10" s="82"/>
-      <c r="G10" s="35">
-        <v>1</v>
-      </c>
-      <c r="H10" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="O10" s="71"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A11" s="72"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="71"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A12" s="72" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="72"/>
-      <c r="C12" s="73" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12" s="85">
-        <v>0.7</v>
-      </c>
-      <c r="F12" s="86"/>
-      <c r="G12" s="35">
-        <v>2</v>
-      </c>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="71"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A13" s="72"/>
-      <c r="B13" s="72"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="71"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A14" s="72" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="72"/>
-      <c r="C14" s="73">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="E14" s="81">
-        <v>0.2</v>
-      </c>
-      <c r="F14" s="82"/>
-      <c r="G14" s="35">
-        <v>3</v>
-      </c>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="71"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A15" s="72"/>
-      <c r="B15" s="72"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="71"/>
-    </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="72" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="72"/>
-      <c r="C16" s="73">
-        <v>5.12</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="E16" s="81">
-        <v>0.3</v>
-      </c>
-      <c r="F16" s="82"/>
-      <c r="G16" s="35">
-        <v>4</v>
-      </c>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="71"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A17" s="72"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="71"/>
-    </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="72"/>
-      <c r="C18" s="73">
-        <v>5.13</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="E18" s="81">
-        <v>0.6</v>
-      </c>
-      <c r="F18" s="82"/>
-      <c r="G18" s="35">
-        <v>5</v>
-      </c>
-      <c r="H18" s="24"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="36"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A19" s="72"/>
-      <c r="B19" s="72"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="38"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A20" s="72" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="72"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="35">
-        <v>6</v>
-      </c>
-      <c r="H20" s="24"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="36"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A21" s="72"/>
-      <c r="B21" s="72"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="38"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A22" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="72"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="35">
-        <v>7</v>
-      </c>
-      <c r="H22" s="24"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="36"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A23" s="72"/>
-      <c r="B23" s="72"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="38"/>
-    </row>
-    <row r="24" spans="1:15" ht="16.899999999999999" x14ac:dyDescent="0.4">
-      <c r="A24" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="57"/>
-      <c r="O24" s="11"/>
-    </row>
-    <row r="25" spans="1:15" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A25" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="60"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="60"/>
-      <c r="L25" s="60"/>
-      <c r="M25" s="60"/>
-      <c r="N25" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="O25" s="12"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A26" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="68"/>
-      <c r="C26" s="13">
-        <v>5.16</v>
-      </c>
-      <c r="D26" s="69" t="s">
-        <v>88</v>
-      </c>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="69"/>
-      <c r="M26" s="69"/>
-      <c r="N26" s="22">
-        <v>0.3</v>
-      </c>
-      <c r="O26" s="11"/>
-    </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="64"/>
-      <c r="C27" s="15">
-        <v>5.17</v>
-      </c>
-      <c r="D27" s="69" t="s">
-        <v>88</v>
-      </c>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="69"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="69"/>
-      <c r="L27" s="69"/>
-      <c r="M27" s="69"/>
-      <c r="N27" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="O27" s="17"/>
-    </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="68"/>
-      <c r="C28" s="13">
-        <v>5.18</v>
-      </c>
-      <c r="D28" s="69" t="s">
-        <v>88</v>
-      </c>
-      <c r="E28" s="69"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="69"/>
-      <c r="L28" s="69"/>
-      <c r="M28" s="69"/>
-      <c r="N28" s="22">
-        <v>1</v>
-      </c>
-      <c r="O28" s="11"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A29" s="64" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="64"/>
-      <c r="C29" s="15">
-        <v>5.19</v>
-      </c>
-      <c r="D29" s="70" t="s">
-        <v>89</v>
-      </c>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="70"/>
-      <c r="K29" s="70"/>
-      <c r="L29" s="70"/>
-      <c r="M29" s="70"/>
-      <c r="N29" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="O29" s="17"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A30" s="68" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" s="68"/>
-      <c r="C30" s="13">
-        <v>5.2</v>
-      </c>
-      <c r="D30" s="69" t="s">
-        <v>89</v>
-      </c>
-      <c r="E30" s="69"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="69"/>
-      <c r="H30" s="69"/>
-      <c r="I30" s="69"/>
-      <c r="J30" s="69"/>
-      <c r="K30" s="69"/>
-      <c r="L30" s="69"/>
-      <c r="M30" s="69"/>
-      <c r="N30" s="22">
-        <v>0.6</v>
-      </c>
-      <c r="O30" s="11"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A31" s="64" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="64"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="70"/>
-      <c r="G31" s="70"/>
-      <c r="H31" s="70"/>
-      <c r="I31" s="70"/>
-      <c r="J31" s="70"/>
-      <c r="K31" s="70"/>
-      <c r="L31" s="70"/>
-      <c r="M31" s="70"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="17"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A32" s="68" t="s">
-        <v>19</v>
-      </c>
-      <c r="B32" s="68"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="69"/>
-      <c r="G32" s="69"/>
-      <c r="H32" s="69"/>
-      <c r="I32" s="69"/>
-      <c r="J32" s="69"/>
-      <c r="K32" s="69"/>
-      <c r="L32" s="69"/>
-      <c r="M32" s="69"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="11"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A33" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" s="79"/>
-      <c r="C33" s="79"/>
-      <c r="D33" s="79"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="79"/>
-      <c r="I33" s="79"/>
-      <c r="J33" s="79"/>
-      <c r="K33" s="79"/>
-      <c r="L33" s="79"/>
-      <c r="M33" s="79"/>
-      <c r="N33" s="79"/>
-      <c r="O33" s="80"/>
-    </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="74" t="s">
-        <v>90</v>
+      <c r="A34" s="24" t="s">
+        <v>105</v>
       </c>
       <c r="B34" s="89"/>
       <c r="C34" s="89"/>
@@ -6886,750 +7828,744 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F220E995-EA23-40D6-90AF-6ED216400E2B}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5700882D-BCFC-46E1-BA83-33274F74AAA1}">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14:K15"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:15" ht="22.9" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="42"/>
+      <c r="A1" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="68"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="45"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="71"/>
     </row>
     <row r="3" spans="1:15" ht="16.899999999999999" x14ac:dyDescent="0.4">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="46" t="s">
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="48"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="74"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
       <c r="G4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="49" t="s">
+      <c r="H4" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="50"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="76"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="51" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
+      <c r="B5" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
       <c r="G5" s="8">
         <v>1</v>
       </c>
-      <c r="H5" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="53"/>
+      <c r="H5" s="62" t="s">
+        <v>116</v>
+      </c>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="63"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="54" t="s">
-        <v>108</v>
-      </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
+      <c r="B6" s="64" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="9">
         <v>2</v>
       </c>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="56"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="66"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
       <c r="G7" s="8">
         <v>3</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="53"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="63"/>
     </row>
     <row r="8" spans="1:15" ht="16.899999999999999" x14ac:dyDescent="0.4">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="57" t="s">
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="59"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="57"/>
     </row>
     <row r="9" spans="1:15" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
       <c r="D9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="62" t="s">
+      <c r="E9" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="63"/>
+      <c r="F9" s="60"/>
       <c r="G9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="60" t="s">
+      <c r="H9" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60" t="s">
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="60"/>
-      <c r="N9" s="60" t="s">
+      <c r="M9" s="45"/>
+      <c r="N9" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="61"/>
+      <c r="O9" s="58"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="72"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="94">
-        <v>5.16</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="E10" s="81">
-        <v>0.4</v>
-      </c>
-      <c r="F10" s="82"/>
+        <v>5.23</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" s="85">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="86"/>
       <c r="G10" s="35">
         <v>1</v>
       </c>
-      <c r="H10" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="O10" s="71"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="31"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A11" s="72"/>
-      <c r="B11" s="72"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="94"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="84"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="88"/>
       <c r="G11" s="35"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="71"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="31"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="72"/>
+      <c r="B12" s="29"/>
       <c r="C12" s="95">
-        <v>5.17</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="E12" s="85">
-        <v>0.7</v>
-      </c>
-      <c r="F12" s="86"/>
+        <v>5.24</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="E12" s="81">
+        <v>1</v>
+      </c>
+      <c r="F12" s="82"/>
       <c r="G12" s="35">
         <v>2</v>
       </c>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="71"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="31"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A13" s="72"/>
-      <c r="B13" s="72"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
       <c r="C13" s="96"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="88"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="84"/>
       <c r="G13" s="35"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="71"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="31"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="72" t="s">
+      <c r="A14" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="72"/>
+      <c r="B14" s="29"/>
       <c r="C14" s="95">
-        <v>5.18</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="E14" s="81">
-        <v>0.9</v>
-      </c>
-      <c r="F14" s="82"/>
+        <v>5.25</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" s="85">
+        <v>1</v>
+      </c>
+      <c r="F14" s="86"/>
       <c r="G14" s="35">
         <v>3</v>
       </c>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="71"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="31"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A15" s="72"/>
-      <c r="B15" s="72"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
       <c r="C15" s="96"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="84"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="88"/>
       <c r="G15" s="35"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="71"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="31"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="72" t="s">
+      <c r="A16" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="72"/>
+      <c r="B16" s="29"/>
       <c r="C16" s="95">
-        <v>5.19</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="E16" s="81">
-        <v>1</v>
-      </c>
-      <c r="F16" s="82"/>
+        <v>5.26</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="85">
+        <v>0.4</v>
+      </c>
+      <c r="F16" s="86"/>
       <c r="G16" s="35">
         <v>4</v>
       </c>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="71"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="31"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A17" s="72"/>
-      <c r="B17" s="72"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
       <c r="C17" s="96"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="84"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="88"/>
       <c r="G17" s="35"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="71"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="31"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="72" t="s">
+      <c r="A18" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="72"/>
+      <c r="B18" s="29"/>
       <c r="C18" s="94">
-        <v>5.2</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="E18" s="81">
+        <v>5.27</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" s="85">
         <v>0.6</v>
       </c>
-      <c r="F18" s="82"/>
+      <c r="F18" s="86"/>
       <c r="G18" s="35">
         <v>5</v>
       </c>
-      <c r="H18" s="24"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="36"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="46"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A19" s="72"/>
-      <c r="B19" s="72"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
       <c r="C19" s="94"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="84"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="88"/>
       <c r="G19" s="35"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="38"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="48"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A20" s="72" t="s">
+      <c r="A20" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="72"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="26"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="78"/>
       <c r="G20" s="35">
         <v>6</v>
       </c>
-      <c r="H20" s="24"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="36"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="46"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A21" s="72"/>
-      <c r="B21" s="72"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="28"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="80"/>
       <c r="G21" s="35"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="38"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="48"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A22" s="72" t="s">
+      <c r="A22" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="72"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="26"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="78"/>
       <c r="G22" s="35">
         <v>7</v>
       </c>
-      <c r="H22" s="24"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="36"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="46"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A23" s="72"/>
-      <c r="B23" s="72"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="28"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="80"/>
       <c r="G23" s="35"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="38"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="48"/>
     </row>
     <row r="24" spans="1:15" ht="16.899999999999999" x14ac:dyDescent="0.4">
-      <c r="A24" s="57" t="s">
+      <c r="A24" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="57"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="44"/>
       <c r="O24" s="11"/>
     </row>
     <row r="25" spans="1:15" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A25" s="60" t="s">
+      <c r="A25" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="60"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60" t="s">
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="60"/>
-      <c r="L25" s="60"/>
-      <c r="M25" s="60"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
       <c r="N25" s="21" t="s">
         <v>23</v>
       </c>
       <c r="O25" s="12"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A26" s="68" t="s">
+      <c r="A26" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="68"/>
+      <c r="B26" s="42"/>
       <c r="C26" s="13">
-        <v>5.16</v>
-      </c>
-      <c r="D26" s="69" t="s">
-        <v>81</v>
-      </c>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="69"/>
-      <c r="M26" s="69"/>
+        <v>5.3</v>
+      </c>
+      <c r="D26" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
       <c r="N26" s="22">
         <v>0.3</v>
       </c>
       <c r="O26" s="11"/>
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="64" t="s">
+      <c r="A27" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="64"/>
+      <c r="B27" s="51"/>
       <c r="C27" s="15">
-        <v>5.17</v>
-      </c>
-      <c r="D27" s="69" t="s">
-        <v>81</v>
-      </c>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="69"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="69"/>
-      <c r="L27" s="69"/>
-      <c r="M27" s="69"/>
+        <v>5.31</v>
+      </c>
+      <c r="D27" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
       <c r="N27" s="23">
         <v>0.6</v>
       </c>
       <c r="O27" s="17"/>
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="68" t="s">
+      <c r="A28" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="68"/>
+      <c r="B28" s="42"/>
       <c r="C28" s="13">
-        <v>5.18</v>
-      </c>
-      <c r="D28" s="69" t="s">
-        <v>81</v>
-      </c>
-      <c r="E28" s="69"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="69"/>
-      <c r="L28" s="69"/>
-      <c r="M28" s="69"/>
+        <v>6.1</v>
+      </c>
+      <c r="D28" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
       <c r="N28" s="22">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="O28" s="11"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A29" s="64" t="s">
+      <c r="A29" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="64"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="15">
-        <v>5.19</v>
-      </c>
-      <c r="D29" s="70" t="s">
-        <v>104</v>
-      </c>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="70"/>
-      <c r="K29" s="70"/>
-      <c r="L29" s="70"/>
-      <c r="M29" s="70"/>
+        <v>6.2</v>
+      </c>
+      <c r="D29" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="55"/>
       <c r="N29" s="23">
         <v>0.2</v>
       </c>
       <c r="O29" s="17"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A30" s="68" t="s">
+      <c r="A30" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="68"/>
+      <c r="B30" s="42"/>
       <c r="C30" s="13">
-        <v>5.2</v>
-      </c>
-      <c r="D30" s="69" t="s">
-        <v>89</v>
-      </c>
-      <c r="E30" s="69"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="69"/>
-      <c r="H30" s="69"/>
-      <c r="I30" s="69"/>
-      <c r="J30" s="69"/>
-      <c r="K30" s="69"/>
-      <c r="L30" s="69"/>
-      <c r="M30" s="69"/>
+        <v>6.3</v>
+      </c>
+      <c r="D30" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
       <c r="N30" s="22">
         <v>0.6</v>
       </c>
       <c r="O30" s="11"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A31" s="64" t="s">
+      <c r="A31" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="64"/>
+      <c r="B31" s="51"/>
       <c r="C31" s="15"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="70"/>
-      <c r="G31" s="70"/>
-      <c r="H31" s="70"/>
-      <c r="I31" s="70"/>
-      <c r="J31" s="70"/>
-      <c r="K31" s="70"/>
-      <c r="L31" s="70"/>
-      <c r="M31" s="70"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="55"/>
       <c r="N31" s="16"/>
       <c r="O31" s="17"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A32" s="68" t="s">
+      <c r="A32" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="68"/>
+      <c r="B32" s="42"/>
       <c r="C32" s="13"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="69"/>
-      <c r="G32" s="69"/>
-      <c r="H32" s="69"/>
-      <c r="I32" s="69"/>
-      <c r="J32" s="69"/>
-      <c r="K32" s="69"/>
-      <c r="L32" s="69"/>
-      <c r="M32" s="69"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="43"/>
       <c r="N32" s="14"/>
       <c r="O32" s="11"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A33" s="79" t="s">
+      <c r="A33" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="79"/>
-      <c r="C33" s="79"/>
-      <c r="D33" s="79"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="79"/>
-      <c r="I33" s="79"/>
-      <c r="J33" s="79"/>
-      <c r="K33" s="79"/>
-      <c r="L33" s="79"/>
-      <c r="M33" s="79"/>
-      <c r="N33" s="79"/>
-      <c r="O33" s="80"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="33"/>
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="74" t="s">
-        <v>105</v>
+      <c r="A34" s="24" t="s">
+        <v>119</v>
       </c>
       <c r="B34" s="89"/>
       <c r="C34" s="89"/>
